--- a/source/excel/AifianExecl.xlsx
+++ b/source/excel/AifianExecl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15960" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="16416" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="收益紀錄表(new)" sheetId="2" r:id="rId1"/>
@@ -476,22 +476,28 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -506,20 +512,14 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -770,6 +770,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>8.7599999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.0299999999999996E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2382,7 +2385,7 @@
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2649.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4349,7 +4352,7 @@
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>50.820000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6919,9 +6922,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8CFD35-16DC-4140-9969-91D57CC1FD2A}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7916,21 +7919,25 @@
       <c r="B42" s="21">
         <v>43489</v>
       </c>
-      <c r="C42" s="25"/>
+      <c r="C42" s="25">
+        <v>8.0299999999999996E-2</v>
+      </c>
       <c r="D42" s="31">
         <f>投資金額!$B$2*'收益紀錄表(new)'!C42</f>
-        <v>0</v>
+        <v>2649.9</v>
       </c>
       <c r="E42" s="31">
         <f>D42/投資金額!$B$3*投資金額!$B$4</f>
-        <v>0</v>
+        <v>50.820000000000007</v>
       </c>
       <c r="F42" s="30">
-        <f t="shared" ref="F3:F53" si="0">E42</f>
-        <v>0</v>
+        <f t="shared" ref="F42:F53" si="0">E42</f>
+        <v>50.820000000000007</v>
       </c>
       <c r="G42" s="13"/>
-      <c r="H42" s="40"/>
+      <c r="H42" s="40">
+        <v>51</v>
+      </c>
     </row>
     <row r="43" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="43">
@@ -8196,7 +8203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E68BAC-C428-4C7D-8257-59E674D985DD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
@@ -8265,7 +8272,7 @@
       </c>
       <c r="B5" s="32">
         <f>SUM('收益紀錄表(new)'!H19:H53)+1</f>
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>28</v>
@@ -8308,7 +8315,7 @@
       </c>
       <c r="B2" s="28">
         <f>SUM('收益紀錄表(new)'!C2:C100)/50</f>
-        <v>6.2546000000000004E-2</v>
+        <v>6.4152000000000001E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -8317,7 +8324,7 @@
       </c>
       <c r="B3" s="19">
         <f>SUM('收益紀錄表(new)'!E2:E100)/50</f>
-        <v>3.5985369863013705</v>
+        <v>4.6149369863013705</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -8326,7 +8333,7 @@
       </c>
       <c r="B4" s="18">
         <f>SUM('收益紀錄表(new)'!D2:D100)/50</f>
-        <v>187.63800000000001</v>
+        <v>240.636</v>
       </c>
     </row>
   </sheetData>
@@ -8398,1135 +8405,1135 @@
       <c r="M1" s="44"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45">
+      <c r="A2" s="46">
         <v>1</v>
       </c>
-      <c r="B2" s="49">
+      <c r="B2" s="47">
         <v>43209</v>
       </c>
-      <c r="C2" s="46">
+      <c r="C2" s="45">
         <v>5.81</v>
       </c>
-      <c r="D2" s="46">
+      <c r="D2" s="45">
         <v>174.3</v>
       </c>
-      <c r="E2" s="46">
+      <c r="E2" s="45">
         <v>3.34</v>
       </c>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="54" t="s">
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="54"/>
-      <c r="L2" s="53">
+      <c r="K2" s="56"/>
+      <c r="L2" s="55">
         <f>SUM(C:C)/33</f>
         <v>8.4699999999999989</v>
       </c>
-      <c r="M2" s="53"/>
+      <c r="M2" s="55"/>
     </row>
     <row r="3" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="45"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45">
+      <c r="A4" s="46">
         <v>2</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="47">
         <v>43216</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="45">
         <v>6.13</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="45">
         <v>183.9</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="45">
         <v>3.52</v>
       </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="J4" s="51" t="s">
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="J4" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="51"/>
-      <c r="L4" s="52">
+      <c r="K4" s="53"/>
+      <c r="L4" s="54">
         <f>SUM(E:E)/33</f>
         <v>4.8678787878787873</v>
       </c>
-      <c r="M4" s="52"/>
+      <c r="M4" s="54"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="45"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45">
+      <c r="A6" s="46">
         <v>3</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="47">
         <v>43223</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="45">
         <v>6.02</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="45">
         <v>180.6</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="45">
         <v>3.46</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="J6" s="51" t="s">
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="J6" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="51"/>
-      <c r="L6" s="52">
+      <c r="K6" s="53"/>
+      <c r="L6" s="54">
         <f>SUM(D:D)/33</f>
         <v>254.10000000000002</v>
       </c>
-      <c r="M6" s="52"/>
+      <c r="M6" s="54"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="45"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="45">
+      <c r="A8" s="46">
         <v>4</v>
       </c>
-      <c r="B8" s="49">
+      <c r="B8" s="47">
         <v>43230</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="45">
         <v>5.96</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="45">
         <v>178.8</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="45">
         <v>3.42</v>
       </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="45"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="45">
+      <c r="A10" s="46">
         <v>5</v>
       </c>
-      <c r="B10" s="49">
+      <c r="B10" s="47">
         <v>43237</v>
       </c>
-      <c r="C10" s="46">
+      <c r="C10" s="45">
         <v>5.27</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="45">
         <v>158.1</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="45">
         <v>3.03</v>
       </c>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="45"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45">
+      <c r="A12" s="46">
         <v>6</v>
       </c>
-      <c r="B12" s="49">
+      <c r="B12" s="47">
         <v>43244</v>
       </c>
-      <c r="C12" s="46">
+      <c r="C12" s="45">
         <v>6.13</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12" s="45">
         <v>183.9</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="45">
         <v>3.52</v>
       </c>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="45"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="45">
+      <c r="A14" s="46">
         <v>7</v>
       </c>
-      <c r="B14" s="49">
+      <c r="B14" s="47">
         <v>43251</v>
       </c>
-      <c r="C14" s="46">
+      <c r="C14" s="45">
         <v>6.13</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="45">
         <v>183.9</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="45">
         <v>3.52</v>
       </c>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="45"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="45">
+      <c r="A16" s="46">
         <v>8</v>
       </c>
-      <c r="B16" s="49">
+      <c r="B16" s="47">
         <v>43258</v>
       </c>
-      <c r="C16" s="46">
+      <c r="C16" s="45">
         <v>6.15</v>
       </c>
-      <c r="D16" s="46">
+      <c r="D16" s="45">
         <v>184.5</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E16" s="45">
         <v>3.53</v>
       </c>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="45"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="45">
+      <c r="A18" s="46">
         <v>9</v>
       </c>
-      <c r="B18" s="49">
+      <c r="B18" s="47">
         <v>43265</v>
       </c>
-      <c r="C18" s="46">
+      <c r="C18" s="45">
         <v>9.27</v>
       </c>
-      <c r="D18" s="46">
+      <c r="D18" s="45">
         <v>278.10000000000002</v>
       </c>
-      <c r="E18" s="46">
+      <c r="E18" s="45">
         <v>5.33</v>
       </c>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="50" t="s">
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="57" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="45"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="50"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="57"/>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="45">
+      <c r="A20" s="46">
         <v>10</v>
       </c>
-      <c r="B20" s="49">
+      <c r="B20" s="47">
         <v>43268</v>
       </c>
-      <c r="C20" s="46">
+      <c r="C20" s="45">
         <v>10.130000000000001</v>
       </c>
-      <c r="D20" s="46">
+      <c r="D20" s="45">
         <v>303.89999999999998</v>
       </c>
-      <c r="E20" s="46">
+      <c r="E20" s="45">
         <v>5.82</v>
       </c>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="45"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="45">
+      <c r="A22" s="46">
         <v>11</v>
       </c>
-      <c r="B22" s="49">
+      <c r="B22" s="47">
         <v>43279</v>
       </c>
-      <c r="C22" s="46">
+      <c r="C22" s="45">
         <v>12.41</v>
       </c>
-      <c r="D22" s="46">
+      <c r="D22" s="45">
         <v>372.3</v>
       </c>
-      <c r="E22" s="46">
+      <c r="E22" s="45">
         <v>7.14</v>
       </c>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="45"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="45">
+      <c r="A24" s="46">
         <v>12</v>
       </c>
-      <c r="B24" s="49">
+      <c r="B24" s="47">
         <v>43286</v>
       </c>
-      <c r="C24" s="46">
+      <c r="C24" s="45">
         <v>19.71</v>
       </c>
-      <c r="D24" s="46">
+      <c r="D24" s="45">
         <v>591.29999999999995</v>
       </c>
-      <c r="E24" s="46">
+      <c r="E24" s="45">
         <v>11.34</v>
       </c>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="45"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="45">
+      <c r="A26" s="46">
         <v>13</v>
       </c>
-      <c r="B26" s="49">
+      <c r="B26" s="47">
         <v>43293</v>
       </c>
-      <c r="C26" s="46">
+      <c r="C26" s="45">
         <v>23</v>
       </c>
-      <c r="D26" s="46">
+      <c r="D26" s="45">
         <v>690</v>
       </c>
-      <c r="E26" s="46">
+      <c r="E26" s="45">
         <v>13.23</v>
       </c>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="50" t="s">
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="57" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="45"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="50"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="57"/>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="45">
+      <c r="A28" s="46">
         <v>14</v>
       </c>
-      <c r="B28" s="49">
+      <c r="B28" s="47">
         <v>43300</v>
       </c>
-      <c r="C28" s="46">
+      <c r="C28" s="45">
         <v>14.97</v>
       </c>
-      <c r="D28" s="46">
+      <c r="D28" s="45">
         <v>449.1</v>
       </c>
-      <c r="E28" s="46">
+      <c r="E28" s="45">
         <v>8.61</v>
       </c>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="45"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="45">
+      <c r="A30" s="46">
         <v>15</v>
       </c>
-      <c r="B30" s="49">
+      <c r="B30" s="47">
         <v>43307</v>
       </c>
-      <c r="C30" s="46">
+      <c r="C30" s="45">
         <v>7.67</v>
       </c>
-      <c r="D30" s="46">
+      <c r="D30" s="45">
         <v>230.1</v>
       </c>
-      <c r="E30" s="46">
+      <c r="E30" s="45">
         <v>4.41</v>
       </c>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="45"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="45">
+      <c r="A32" s="46">
         <v>16</v>
       </c>
-      <c r="B32" s="49">
+      <c r="B32" s="47">
         <v>43314</v>
       </c>
-      <c r="C32" s="46">
+      <c r="C32" s="45">
         <v>8.0299999999999994</v>
       </c>
-      <c r="D32" s="46">
+      <c r="D32" s="45">
         <v>240.9</v>
       </c>
-      <c r="E32" s="46">
+      <c r="E32" s="45">
         <v>4.62</v>
       </c>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="45"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="45">
+      <c r="A34" s="46">
         <v>17</v>
       </c>
-      <c r="B34" s="49">
+      <c r="B34" s="47">
         <v>43321</v>
       </c>
-      <c r="C34" s="46">
+      <c r="C34" s="45">
         <v>6.21</v>
       </c>
-      <c r="D34" s="46">
+      <c r="D34" s="45">
         <v>186.3</v>
       </c>
-      <c r="E34" s="46">
+      <c r="E34" s="45">
         <v>3.5</v>
       </c>
-      <c r="F34" s="46">
+      <c r="F34" s="45">
         <v>3000</v>
       </c>
-      <c r="G34" s="46"/>
-      <c r="H34" s="50" t="s">
+      <c r="G34" s="45"/>
+      <c r="H34" s="57" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="45"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="50"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="57"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="45">
+      <c r="A36" s="46">
         <v>18</v>
       </c>
-      <c r="B36" s="49">
+      <c r="B36" s="47">
         <v>43328</v>
       </c>
-      <c r="C36" s="46">
+      <c r="C36" s="45">
         <v>6.57</v>
       </c>
-      <c r="D36" s="46">
+      <c r="D36" s="45">
         <v>197.1</v>
       </c>
-      <c r="E36" s="46">
+      <c r="E36" s="45">
         <v>3.78</v>
       </c>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46">
+      <c r="F36" s="45"/>
+      <c r="G36" s="45">
         <v>4</v>
       </c>
-      <c r="H36" s="46"/>
+      <c r="H36" s="45"/>
     </row>
     <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="45"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
     </row>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="45">
+      <c r="A38" s="46">
         <v>19</v>
       </c>
-      <c r="B38" s="49">
+      <c r="B38" s="47">
         <v>43335</v>
       </c>
-      <c r="C38" s="46">
+      <c r="C38" s="45">
         <v>6.94</v>
       </c>
-      <c r="D38" s="46">
+      <c r="D38" s="45">
         <v>208.2</v>
       </c>
-      <c r="E38" s="46">
+      <c r="E38" s="45">
         <v>3.99</v>
       </c>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46">
+      <c r="F38" s="45"/>
+      <c r="G38" s="45">
         <v>4</v>
       </c>
-      <c r="H38" s="46"/>
+      <c r="H38" s="45"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="45"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="46"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="45">
+      <c r="A40" s="46">
         <v>20</v>
       </c>
-      <c r="B40" s="49">
+      <c r="B40" s="47">
         <v>43342</v>
       </c>
-      <c r="C40" s="46">
+      <c r="C40" s="45">
         <v>6.21</v>
       </c>
-      <c r="D40" s="46">
+      <c r="D40" s="45">
         <v>186.3</v>
       </c>
-      <c r="E40" s="46">
+      <c r="E40" s="45">
         <v>3.57</v>
       </c>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46">
+      <c r="F40" s="45"/>
+      <c r="G40" s="45">
         <v>4</v>
       </c>
-      <c r="H40" s="46"/>
+      <c r="H40" s="45"/>
     </row>
     <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="45"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
+      <c r="A41" s="46"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="45">
+      <c r="A42" s="46">
         <v>21</v>
       </c>
-      <c r="B42" s="49">
+      <c r="B42" s="47">
         <v>43349</v>
       </c>
-      <c r="C42" s="46">
+      <c r="C42" s="45">
         <v>6.21</v>
       </c>
-      <c r="D42" s="46">
+      <c r="D42" s="45">
         <v>186.3</v>
       </c>
-      <c r="E42" s="46">
+      <c r="E42" s="45">
         <v>3.57</v>
       </c>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46">
+      <c r="F42" s="45"/>
+      <c r="G42" s="45">
         <v>4</v>
       </c>
-      <c r="H42" s="46"/>
+      <c r="H42" s="45"/>
     </row>
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="45"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46"/>
+      <c r="A43" s="46"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="45">
+      <c r="A44" s="46">
         <v>22</v>
       </c>
-      <c r="B44" s="49">
+      <c r="B44" s="47">
         <v>43356</v>
       </c>
-      <c r="C44" s="46">
+      <c r="C44" s="45">
         <v>7.67</v>
       </c>
-      <c r="D44" s="46">
+      <c r="D44" s="45">
         <v>230.1</v>
       </c>
-      <c r="E44" s="46">
+      <c r="E44" s="45">
         <v>4.41</v>
       </c>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46">
+      <c r="F44" s="45"/>
+      <c r="G44" s="45">
         <v>4</v>
       </c>
-      <c r="H44" s="55" t="s">
+      <c r="H44" s="50" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="45"/>
-      <c r="B45" s="46"/>
-      <c r="C45" s="46"/>
-      <c r="D45" s="46"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="55"/>
+      <c r="A45" s="46"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="50"/>
     </row>
     <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="45">
+      <c r="A46" s="46">
         <v>23</v>
       </c>
-      <c r="B46" s="49">
+      <c r="B46" s="47">
         <v>43363</v>
       </c>
-      <c r="C46" s="46">
+      <c r="C46" s="45">
         <v>6.94</v>
       </c>
-      <c r="D46" s="46">
+      <c r="D46" s="45">
         <v>208.2</v>
       </c>
-      <c r="E46" s="46">
+      <c r="E46" s="45">
         <v>3.99</v>
       </c>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46">
+      <c r="F46" s="45"/>
+      <c r="G46" s="45">
         <v>4</v>
       </c>
-      <c r="H46" s="46"/>
+      <c r="H46" s="45"/>
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="45"/>
-      <c r="B47" s="46"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="46"/>
+      <c r="A47" s="46"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="45">
+      <c r="A48" s="46">
         <v>24</v>
       </c>
-      <c r="B48" s="49">
+      <c r="B48" s="47">
         <v>43370</v>
       </c>
-      <c r="C48" s="46">
+      <c r="C48" s="45">
         <v>6.57</v>
       </c>
-      <c r="D48" s="46">
+      <c r="D48" s="45">
         <v>197.1</v>
       </c>
-      <c r="E48" s="46">
+      <c r="E48" s="45">
         <v>3.78</v>
       </c>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46">
+      <c r="F48" s="45"/>
+      <c r="G48" s="45">
         <v>4</v>
       </c>
-      <c r="H48" s="46"/>
+      <c r="H48" s="45"/>
     </row>
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="45"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="46"/>
+      <c r="A49" s="46"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="45">
+      <c r="A50" s="46">
         <v>25</v>
       </c>
-      <c r="B50" s="49">
+      <c r="B50" s="47">
         <v>43377</v>
       </c>
-      <c r="C50" s="46">
+      <c r="C50" s="45">
         <v>6.21</v>
       </c>
-      <c r="D50" s="46">
+      <c r="D50" s="45">
         <v>186.3</v>
       </c>
-      <c r="E50" s="46">
+      <c r="E50" s="45">
         <v>3.57</v>
       </c>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46">
+      <c r="F50" s="45"/>
+      <c r="G50" s="45">
         <v>4</v>
       </c>
-      <c r="H50" s="46"/>
+      <c r="H50" s="45"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="45"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="46"/>
-      <c r="D51" s="46"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="46"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="46"/>
+      <c r="A51" s="46"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
     </row>
     <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="45">
+      <c r="A52" s="46">
         <v>26</v>
       </c>
-      <c r="B52" s="49">
+      <c r="B52" s="47">
         <v>43384</v>
       </c>
-      <c r="C52" s="46">
+      <c r="C52" s="45">
         <v>6.57</v>
       </c>
-      <c r="D52" s="46">
+      <c r="D52" s="45">
         <v>197.1</v>
       </c>
-      <c r="E52" s="46">
+      <c r="E52" s="45">
         <v>3.78</v>
       </c>
-      <c r="F52" s="46"/>
-      <c r="G52" s="46">
+      <c r="F52" s="45"/>
+      <c r="G52" s="45">
         <v>4</v>
       </c>
-      <c r="H52" s="55" t="s">
+      <c r="H52" s="50" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="45"/>
-      <c r="B53" s="46"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="46"/>
-      <c r="E53" s="46"/>
-      <c r="F53" s="46"/>
-      <c r="G53" s="46"/>
-      <c r="H53" s="55"/>
+      <c r="A53" s="46"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="50"/>
     </row>
     <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="45">
+      <c r="A54" s="46">
         <v>27</v>
       </c>
-      <c r="B54" s="49">
+      <c r="B54" s="47">
         <v>43391</v>
       </c>
-      <c r="C54" s="46">
+      <c r="C54" s="45">
         <v>6.21</v>
       </c>
-      <c r="D54" s="46">
+      <c r="D54" s="45">
         <v>186.3</v>
       </c>
-      <c r="E54" s="46">
+      <c r="E54" s="45">
         <v>3.57</v>
       </c>
-      <c r="F54" s="46"/>
-      <c r="G54" s="46">
+      <c r="F54" s="45"/>
+      <c r="G54" s="45">
         <v>4</v>
       </c>
-      <c r="H54" s="46"/>
+      <c r="H54" s="45"/>
     </row>
     <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="45"/>
-      <c r="B55" s="46"/>
-      <c r="C55" s="46"/>
-      <c r="D55" s="46"/>
-      <c r="E55" s="46"/>
-      <c r="F55" s="46"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="46"/>
+      <c r="A55" s="46"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
     </row>
     <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="45">
+      <c r="A56" s="46">
         <v>28</v>
       </c>
-      <c r="B56" s="56">
+      <c r="B56" s="52">
         <v>43398</v>
       </c>
-      <c r="C56" s="57">
+      <c r="C56" s="51">
         <v>5.84</v>
       </c>
-      <c r="D56" s="57">
+      <c r="D56" s="51">
         <v>175.2</v>
       </c>
-      <c r="E56" s="57">
+      <c r="E56" s="51">
         <v>3.36</v>
       </c>
-      <c r="F56" s="57"/>
-      <c r="G56" s="57">
+      <c r="F56" s="51"/>
+      <c r="G56" s="51">
         <v>3</v>
       </c>
-      <c r="H56" s="57" t="s">
+      <c r="H56" s="51" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="45"/>
-      <c r="B57" s="57"/>
-      <c r="C57" s="57"/>
-      <c r="D57" s="57"/>
-      <c r="E57" s="57"/>
-      <c r="F57" s="57"/>
-      <c r="G57" s="57"/>
-      <c r="H57" s="57"/>
+      <c r="A57" s="46"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="51"/>
     </row>
     <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="45">
+      <c r="A58" s="46">
         <v>29</v>
       </c>
-      <c r="B58" s="49">
+      <c r="B58" s="47">
         <v>43405</v>
       </c>
-      <c r="C58" s="46">
+      <c r="C58" s="45">
         <v>6.21</v>
       </c>
-      <c r="D58" s="46">
+      <c r="D58" s="45">
         <v>186.3</v>
       </c>
-      <c r="E58" s="46">
+      <c r="E58" s="45">
         <v>3.57</v>
       </c>
-      <c r="F58" s="46"/>
-      <c r="G58" s="46">
+      <c r="F58" s="45"/>
+      <c r="G58" s="45">
         <v>4</v>
       </c>
-      <c r="H58" s="46"/>
+      <c r="H58" s="45"/>
     </row>
     <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="45"/>
-      <c r="B59" s="46"/>
-      <c r="C59" s="46"/>
-      <c r="D59" s="46"/>
-      <c r="E59" s="46"/>
-      <c r="F59" s="46"/>
-      <c r="G59" s="46"/>
-      <c r="H59" s="46"/>
+      <c r="A59" s="46"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45"/>
     </row>
     <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="45">
+      <c r="A60" s="46">
         <v>30</v>
       </c>
-      <c r="B60" s="49">
+      <c r="B60" s="47">
         <v>43413</v>
       </c>
-      <c r="C60" s="46">
+      <c r="C60" s="45">
         <v>5.84</v>
       </c>
-      <c r="D60" s="57">
+      <c r="D60" s="51">
         <v>175.2</v>
       </c>
-      <c r="E60" s="57">
+      <c r="E60" s="51">
         <v>3.36</v>
       </c>
-      <c r="F60" s="57"/>
-      <c r="G60" s="57">
+      <c r="F60" s="51"/>
+      <c r="G60" s="51">
         <v>3</v>
       </c>
-      <c r="H60" s="46"/>
+      <c r="H60" s="45"/>
     </row>
     <row r="61" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="45"/>
-      <c r="B61" s="46"/>
-      <c r="C61" s="46"/>
-      <c r="D61" s="57"/>
-      <c r="E61" s="57"/>
-      <c r="F61" s="57"/>
-      <c r="G61" s="57"/>
-      <c r="H61" s="46"/>
+      <c r="A61" s="46"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="51"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="51"/>
+      <c r="H61" s="45"/>
     </row>
     <row r="62" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="45">
+      <c r="A62" s="46">
         <v>31</v>
       </c>
-      <c r="B62" s="49">
+      <c r="B62" s="47">
         <v>43419</v>
       </c>
-      <c r="C62" s="46">
+      <c r="C62" s="45">
         <v>5.48</v>
       </c>
-      <c r="D62" s="57">
+      <c r="D62" s="51">
         <v>164.4</v>
       </c>
-      <c r="E62" s="57">
+      <c r="E62" s="51">
         <v>3.15</v>
       </c>
-      <c r="F62" s="57"/>
-      <c r="G62" s="57">
+      <c r="F62" s="51"/>
+      <c r="G62" s="51">
         <v>3</v>
       </c>
-      <c r="H62" s="46"/>
+      <c r="H62" s="45"/>
     </row>
     <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="45"/>
-      <c r="B63" s="46"/>
-      <c r="C63" s="46"/>
-      <c r="D63" s="57"/>
-      <c r="E63" s="57"/>
-      <c r="F63" s="57"/>
-      <c r="G63" s="57"/>
-      <c r="H63" s="46"/>
+      <c r="A63" s="46"/>
+      <c r="B63" s="45"/>
+      <c r="C63" s="45"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="51"/>
+      <c r="G63" s="51"/>
+      <c r="H63" s="45"/>
     </row>
     <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="45">
+      <c r="A64" s="46">
         <v>32</v>
       </c>
-      <c r="B64" s="49">
+      <c r="B64" s="47">
         <v>43426</v>
       </c>
-      <c r="C64" s="46">
+      <c r="C64" s="45">
         <v>6.21</v>
       </c>
-      <c r="D64" s="46">
+      <c r="D64" s="45">
         <v>186.3</v>
       </c>
-      <c r="E64" s="46">
+      <c r="E64" s="45">
         <v>3.57</v>
       </c>
-      <c r="F64" s="46"/>
-      <c r="G64" s="46">
+      <c r="F64" s="45"/>
+      <c r="G64" s="45">
         <v>4</v>
       </c>
-      <c r="H64" s="46"/>
+      <c r="H64" s="45"/>
     </row>
     <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="45"/>
-      <c r="B65" s="46"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="46"/>
-      <c r="E65" s="46"/>
-      <c r="F65" s="46"/>
-      <c r="G65" s="46"/>
-      <c r="H65" s="46"/>
+      <c r="A65" s="46"/>
+      <c r="B65" s="45"/>
+      <c r="C65" s="45"/>
+      <c r="D65" s="45"/>
+      <c r="E65" s="45"/>
+      <c r="F65" s="45"/>
+      <c r="G65" s="45"/>
+      <c r="H65" s="45"/>
     </row>
     <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="45">
+      <c r="A66" s="46">
         <v>33</v>
       </c>
-      <c r="B66" s="49">
+      <c r="B66" s="47">
         <v>43433</v>
       </c>
-      <c r="C66" s="46">
+      <c r="C66" s="45">
         <v>6.57</v>
       </c>
-      <c r="D66" s="46">
+      <c r="D66" s="45">
         <v>197.1</v>
       </c>
-      <c r="E66" s="46">
+      <c r="E66" s="45">
         <v>3.78</v>
       </c>
-      <c r="F66" s="46"/>
-      <c r="G66" s="46">
+      <c r="F66" s="45"/>
+      <c r="G66" s="45">
         <v>4</v>
       </c>
-      <c r="H66" s="46"/>
+      <c r="H66" s="45"/>
     </row>
     <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="45"/>
-      <c r="B67" s="46"/>
-      <c r="C67" s="46"/>
-      <c r="D67" s="46"/>
-      <c r="E67" s="46"/>
-      <c r="F67" s="46"/>
-      <c r="G67" s="46"/>
-      <c r="H67" s="46"/>
+      <c r="A67" s="46"/>
+      <c r="B67" s="45"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="45"/>
+      <c r="F67" s="45"/>
+      <c r="G67" s="45"/>
+      <c r="H67" s="45"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="45">
+      <c r="A68" s="46">
         <v>33</v>
       </c>
-      <c r="B68" s="49">
+      <c r="B68" s="47">
         <v>43440</v>
       </c>
-      <c r="C68" s="46">
+      <c r="C68" s="45">
         <v>5.48</v>
       </c>
-      <c r="D68" s="57">
+      <c r="D68" s="51">
         <v>164.4</v>
       </c>
-      <c r="E68" s="57">
+      <c r="E68" s="51">
         <v>3.15</v>
       </c>
-      <c r="F68" s="57"/>
-      <c r="G68" s="57">
+      <c r="F68" s="51"/>
+      <c r="G68" s="51">
         <v>3</v>
       </c>
-      <c r="H68" s="46"/>
+      <c r="H68" s="45"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="45"/>
-      <c r="B69" s="46"/>
-      <c r="C69" s="46"/>
-      <c r="D69" s="57"/>
-      <c r="E69" s="57"/>
-      <c r="F69" s="57"/>
-      <c r="G69" s="57"/>
-      <c r="H69" s="46"/>
+      <c r="A69" s="46"/>
+      <c r="B69" s="45"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="51"/>
+      <c r="E69" s="51"/>
+      <c r="F69" s="51"/>
+      <c r="G69" s="51"/>
+      <c r="H69" s="45"/>
     </row>
     <row r="70" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="45">
+      <c r="A70" s="46">
         <v>33</v>
       </c>
-      <c r="B70" s="49">
+      <c r="B70" s="47">
         <v>43447</v>
       </c>
-      <c r="C70" s="46">
+      <c r="C70" s="45">
         <v>6.57</v>
       </c>
-      <c r="D70" s="46">
+      <c r="D70" s="45">
         <v>197.1</v>
       </c>
-      <c r="E70" s="46">
+      <c r="E70" s="45">
         <v>3.78</v>
       </c>
-      <c r="F70" s="46"/>
-      <c r="G70" s="46">
+      <c r="F70" s="45"/>
+      <c r="G70" s="45">
         <v>4</v>
       </c>
-      <c r="H70" s="55" t="s">
+      <c r="H70" s="50" t="s">
         <v>17</v>
       </c>
       <c r="J70" s="4">
@@ -9534,49 +9541,321 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="45"/>
-      <c r="B71" s="46"/>
-      <c r="C71" s="46"/>
-      <c r="D71" s="46"/>
-      <c r="E71" s="46"/>
-      <c r="F71" s="46"/>
-      <c r="G71" s="46"/>
-      <c r="H71" s="55"/>
+      <c r="A71" s="46"/>
+      <c r="B71" s="45"/>
+      <c r="C71" s="45"/>
+      <c r="D71" s="45"/>
+      <c r="E71" s="45"/>
+      <c r="F71" s="45"/>
+      <c r="G71" s="45"/>
+      <c r="H71" s="50"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="45">
+      <c r="A72" s="46">
         <v>34</v>
       </c>
-      <c r="B72" s="49">
+      <c r="B72" s="47">
         <v>43454</v>
       </c>
-      <c r="C72" s="46">
+      <c r="C72" s="45">
         <v>6.21</v>
       </c>
-      <c r="D72" s="46">
+      <c r="D72" s="45">
         <v>186.3</v>
       </c>
-      <c r="E72" s="46">
+      <c r="E72" s="45">
         <v>3.57</v>
       </c>
-      <c r="F72" s="46"/>
-      <c r="G72" s="46">
+      <c r="F72" s="45"/>
+      <c r="G72" s="45">
         <v>4</v>
       </c>
-      <c r="H72" s="58"/>
+      <c r="H72" s="48"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="45"/>
-      <c r="B73" s="46"/>
-      <c r="C73" s="46"/>
-      <c r="D73" s="46"/>
-      <c r="E73" s="46"/>
-      <c r="F73" s="46"/>
-      <c r="G73" s="46"/>
-      <c r="H73" s="59"/>
+      <c r="A73" s="46"/>
+      <c r="B73" s="45"/>
+      <c r="C73" s="45"/>
+      <c r="D73" s="45"/>
+      <c r="E73" s="45"/>
+      <c r="F73" s="45"/>
+      <c r="G73" s="45"/>
+      <c r="H73" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="296">
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="L6:M7"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="L2:M3"/>
+    <mergeCell ref="J2:K3"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="J4:K5"/>
+    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="B66:B67"/>
     <mergeCell ref="C72:C73"/>
     <mergeCell ref="D72:D73"/>
     <mergeCell ref="E72:E73"/>
@@ -9601,278 +9880,6 @@
     <mergeCell ref="G68:G69"/>
     <mergeCell ref="A68:A69"/>
     <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="J6:K7"/>
-    <mergeCell ref="L6:M7"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="L2:M3"/>
-    <mergeCell ref="J2:K3"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="J4:K5"/>
-    <mergeCell ref="L4:M5"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/source/excel/AifianExecl.xlsx
+++ b/source/excel/AifianExecl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="16872" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="17784" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="收益紀錄表(new) " sheetId="7" r:id="rId1"/>
@@ -468,6 +468,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -515,9 +518,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1035,7 +1035,7 @@
                   <c:v>2762.1</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>2399.1</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0</c:v>
@@ -1447,7 +1447,7 @@
                   <c:v>52.971780821917811</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>46.010136986301369</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0</c:v>
@@ -3691,7 +3691,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
+      <selection pane="bottomLeft" activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4726,7 +4726,7 @@
         <v>52.971780821917811</v>
       </c>
       <c r="F43" s="24">
-        <f t="shared" ref="F42:F53" si="0">E43</f>
+        <f t="shared" ref="F43:F53" si="0">E43</f>
         <v>52.971780821917811</v>
       </c>
       <c r="G43" s="37" t="s">
@@ -4736,7 +4736,7 @@
         <v>53</v>
       </c>
       <c r="I43" s="33">
-        <f>(((H43/投資金額!B2)*投資金額!B3)/投資金額!B4)*100</f>
+        <f>(((H43/投資金額!$B$2)*投資金額!$B$3)/投資金額!$B$4)*100</f>
         <v>8.3744588744588739</v>
       </c>
     </row>
@@ -4747,21 +4747,29 @@
       <c r="B44" s="15">
         <v>43503</v>
       </c>
-      <c r="C44" s="19"/>
+      <c r="C44" s="19">
+        <v>7.2700000000000001E-2</v>
+      </c>
       <c r="D44" s="25">
         <f>投資金額!$B$2*'收益紀錄表(new) '!C44</f>
-        <v>0</v>
+        <v>2399.1</v>
       </c>
       <c r="E44" s="25">
         <f>D44/投資金額!$B$3*投資金額!$B$4</f>
-        <v>0</v>
+        <v>46.010136986301369</v>
       </c>
       <c r="F44" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>46.010136986301369</v>
       </c>
       <c r="G44" s="37"/>
-      <c r="H44" s="33"/>
+      <c r="H44" s="33">
+        <v>46</v>
+      </c>
+      <c r="I44" s="33">
+        <f>(((H44/投資金額!$B$2)*投資金額!$B$3)/投資金額!$B$4)*100</f>
+        <v>7.2683982683982684</v>
+      </c>
     </row>
     <row r="45" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="36">
@@ -4785,6 +4793,10 @@
       </c>
       <c r="G45" s="37"/>
       <c r="H45" s="33"/>
+      <c r="I45" s="33">
+        <f>(((H45/投資金額!$B$2)*投資金額!$B$3)/投資金額!$B$4)*100</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="36">
@@ -4808,6 +4820,10 @@
       </c>
       <c r="G46" s="37"/>
       <c r="H46" s="33"/>
+      <c r="I46" s="33">
+        <f>(((H46/投資金額!$B$2)*投資金額!$B$3)/投資金額!$B$4)*100</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="36">
@@ -4831,6 +4847,10 @@
       </c>
       <c r="G47" s="37"/>
       <c r="H47" s="33"/>
+      <c r="I47" s="33">
+        <f>(((H47/投資金額!$B$2)*投資金額!$B$3)/投資金額!$B$4)*100</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="36">
@@ -4854,8 +4874,12 @@
       </c>
       <c r="G48" s="37"/>
       <c r="H48" s="33"/>
-    </row>
-    <row r="49" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I48" s="33">
+        <f>(((H48/投資金額!$B$2)*投資金額!$B$3)/投資金額!$B$4)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="36">
         <v>48</v>
       </c>
@@ -4877,8 +4901,12 @@
       </c>
       <c r="G49" s="37"/>
       <c r="H49" s="33"/>
-    </row>
-    <row r="50" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I49" s="33">
+        <f>(((H49/投資金額!$B$2)*投資金額!$B$3)/投資金額!$B$4)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="36">
         <v>49</v>
       </c>
@@ -4900,8 +4928,12 @@
       </c>
       <c r="G50" s="37"/>
       <c r="H50" s="33"/>
-    </row>
-    <row r="51" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I50" s="33">
+        <f>(((H50/投資金額!$B$2)*投資金額!$B$3)/投資金額!$B$4)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="36">
         <v>50</v>
       </c>
@@ -4923,8 +4955,12 @@
       </c>
       <c r="G51" s="37"/>
       <c r="H51" s="33"/>
-    </row>
-    <row r="52" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I51" s="33">
+        <f>(((H51/投資金額!$B$2)*投資金額!$B$3)/投資金額!$B$4)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="36">
         <v>51</v>
       </c>
@@ -4946,8 +4982,12 @@
       </c>
       <c r="G52" s="37"/>
       <c r="H52" s="33"/>
-    </row>
-    <row r="53" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I52" s="33">
+        <f>(((H52/投資金額!$B$2)*投資金額!$B$3)/投資金額!$B$4)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="36">
         <v>52</v>
       </c>
@@ -4969,6 +5009,10 @@
       </c>
       <c r="G53" s="37"/>
       <c r="H53" s="33"/>
+      <c r="I53" s="33">
+        <f>(((H53/投資金額!$B$2)*投資金額!$B$3)/投資金額!$B$4)*100</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5009,10 +5053,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="39"/>
+      <c r="B1" s="40"/>
       <c r="C1" s="7" t="s">
         <v>27</v>
       </c>
@@ -5050,7 +5094,7 @@
       </c>
       <c r="B5" s="26">
         <f>SUM('收益紀錄表(new) '!H19:H53)+1</f>
-        <v>197</v>
+        <v>243</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>28</v>
@@ -5082,10 +5126,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="39"/>
+      <c r="B1" s="40"/>
     </row>
     <row r="2" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
@@ -5093,7 +5137,7 @@
       </c>
       <c r="B2" s="22">
         <f>SUM('收益紀錄表(new) '!C1:C53)/50</f>
-        <v>6.5825999999999996E-2</v>
+        <v>6.7280000000000006E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -5102,16 +5146,16 @@
       </c>
       <c r="B3" s="13">
         <f>SUM('收益紀錄表(new) '!E2:E100)/50</f>
-        <v>5.6743726027397265</v>
+        <v>6.5945753424657543</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="55">
+      <c r="B4" s="39">
         <f>SUM('收益紀錄表(new) '!D2:D100)/50</f>
-        <v>295.87799999999999</v>
+        <v>343.86</v>
       </c>
     </row>
   </sheetData>
@@ -5175,1143 +5219,1143 @@
         <v>5</v>
       </c>
       <c r="I1" s="2"/>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40">
+      <c r="A2" s="41">
         <v>1</v>
       </c>
-      <c r="B2" s="44">
+      <c r="B2" s="45">
         <v>43209</v>
       </c>
-      <c r="C2" s="41">
+      <c r="C2" s="42">
         <v>5.81</v>
       </c>
-      <c r="D2" s="41">
+      <c r="D2" s="42">
         <v>174.3</v>
       </c>
-      <c r="E2" s="41">
+      <c r="E2" s="42">
         <v>3.34</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="49" t="s">
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="49"/>
-      <c r="L2" s="48">
+      <c r="K2" s="50"/>
+      <c r="L2" s="49">
         <f>SUM(C:C)/33</f>
         <v>8.4699999999999989</v>
       </c>
-      <c r="M2" s="48"/>
+      <c r="M2" s="49"/>
     </row>
     <row r="3" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="40"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40">
+      <c r="A4" s="41">
         <v>2</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="45">
         <v>43216</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="42">
         <v>6.13</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="42">
         <v>183.9</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="42">
         <v>3.52</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="J4" s="46" t="s">
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="J4" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="46"/>
-      <c r="L4" s="47">
+      <c r="K4" s="47"/>
+      <c r="L4" s="48">
         <f>SUM(E:E)/33</f>
         <v>4.8678787878787873</v>
       </c>
-      <c r="M4" s="47"/>
+      <c r="M4" s="48"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40">
+      <c r="A6" s="41">
         <v>3</v>
       </c>
-      <c r="B6" s="44">
+      <c r="B6" s="45">
         <v>43223</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="42">
         <v>6.02</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="42">
         <v>180.6</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="42">
         <v>3.46</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="J6" s="46" t="s">
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="J6" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="46"/>
-      <c r="L6" s="47">
+      <c r="K6" s="47"/>
+      <c r="L6" s="48">
         <f>SUM(D:D)/33</f>
         <v>254.10000000000002</v>
       </c>
-      <c r="M6" s="47"/>
+      <c r="M6" s="48"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="40">
+      <c r="A8" s="41">
         <v>4</v>
       </c>
-      <c r="B8" s="44">
+      <c r="B8" s="45">
         <v>43230</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="42">
         <v>5.96</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="42">
         <v>178.8</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="42">
         <v>3.42</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="40"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="40">
+      <c r="A10" s="41">
         <v>5</v>
       </c>
-      <c r="B10" s="44">
+      <c r="B10" s="45">
         <v>43237</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="42">
         <v>5.27</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="42">
         <v>158.1</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="42">
         <v>3.03</v>
       </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="40"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="40">
+      <c r="A12" s="41">
         <v>6</v>
       </c>
-      <c r="B12" s="44">
+      <c r="B12" s="45">
         <v>43244</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="42">
         <v>6.13</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="42">
         <v>183.9</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="42">
         <v>3.52</v>
       </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="40">
+      <c r="A14" s="41">
         <v>7</v>
       </c>
-      <c r="B14" s="44">
+      <c r="B14" s="45">
         <v>43251</v>
       </c>
-      <c r="C14" s="41">
+      <c r="C14" s="42">
         <v>6.13</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="42">
         <v>183.9</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="42">
         <v>3.52</v>
       </c>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="40">
+      <c r="A16" s="41">
         <v>8</v>
       </c>
-      <c r="B16" s="44">
+      <c r="B16" s="45">
         <v>43258</v>
       </c>
-      <c r="C16" s="41">
+      <c r="C16" s="42">
         <v>6.15</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="42">
         <v>184.5</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="42">
         <v>3.53</v>
       </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="40"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="40">
+      <c r="A18" s="41">
         <v>9</v>
       </c>
-      <c r="B18" s="44">
+      <c r="B18" s="45">
         <v>43265</v>
       </c>
-      <c r="C18" s="41">
+      <c r="C18" s="42">
         <v>9.27</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="42">
         <v>278.10000000000002</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E18" s="42">
         <v>5.33</v>
       </c>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="45" t="s">
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="46" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="40"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="45"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="46"/>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="40">
+      <c r="A20" s="41">
         <v>10</v>
       </c>
-      <c r="B20" s="44">
+      <c r="B20" s="45">
         <v>43268</v>
       </c>
-      <c r="C20" s="41">
+      <c r="C20" s="42">
         <v>10.130000000000001</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="42">
         <v>303.89999999999998</v>
       </c>
-      <c r="E20" s="41">
+      <c r="E20" s="42">
         <v>5.82</v>
       </c>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="40">
+      <c r="A22" s="41">
         <v>11</v>
       </c>
-      <c r="B22" s="44">
+      <c r="B22" s="45">
         <v>43279</v>
       </c>
-      <c r="C22" s="41">
+      <c r="C22" s="42">
         <v>12.41</v>
       </c>
-      <c r="D22" s="41">
+      <c r="D22" s="42">
         <v>372.3</v>
       </c>
-      <c r="E22" s="41">
+      <c r="E22" s="42">
         <v>7.14</v>
       </c>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="40"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="40">
+      <c r="A24" s="41">
         <v>12</v>
       </c>
-      <c r="B24" s="44">
+      <c r="B24" s="45">
         <v>43286</v>
       </c>
-      <c r="C24" s="41">
+      <c r="C24" s="42">
         <v>19.71</v>
       </c>
-      <c r="D24" s="41">
+      <c r="D24" s="42">
         <v>591.29999999999995</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E24" s="42">
         <v>11.34</v>
       </c>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="40">
+      <c r="A26" s="41">
         <v>13</v>
       </c>
-      <c r="B26" s="44">
+      <c r="B26" s="45">
         <v>43293</v>
       </c>
-      <c r="C26" s="41">
+      <c r="C26" s="42">
         <v>23</v>
       </c>
-      <c r="D26" s="41">
+      <c r="D26" s="42">
         <v>690</v>
       </c>
-      <c r="E26" s="41">
+      <c r="E26" s="42">
         <v>13.23</v>
       </c>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="45" t="s">
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="46" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="45"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="46"/>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="40">
+      <c r="A28" s="41">
         <v>14</v>
       </c>
-      <c r="B28" s="44">
+      <c r="B28" s="45">
         <v>43300</v>
       </c>
-      <c r="C28" s="41">
+      <c r="C28" s="42">
         <v>14.97</v>
       </c>
-      <c r="D28" s="41">
+      <c r="D28" s="42">
         <v>449.1</v>
       </c>
-      <c r="E28" s="41">
+      <c r="E28" s="42">
         <v>8.61</v>
       </c>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="40"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="40">
+      <c r="A30" s="41">
         <v>15</v>
       </c>
-      <c r="B30" s="44">
+      <c r="B30" s="45">
         <v>43307</v>
       </c>
-      <c r="C30" s="41">
+      <c r="C30" s="42">
         <v>7.67</v>
       </c>
-      <c r="D30" s="41">
+      <c r="D30" s="42">
         <v>230.1</v>
       </c>
-      <c r="E30" s="41">
+      <c r="E30" s="42">
         <v>4.41</v>
       </c>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="40"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="40">
+      <c r="A32" s="41">
         <v>16</v>
       </c>
-      <c r="B32" s="44">
+      <c r="B32" s="45">
         <v>43314</v>
       </c>
-      <c r="C32" s="41">
+      <c r="C32" s="42">
         <v>8.0299999999999994</v>
       </c>
-      <c r="D32" s="41">
+      <c r="D32" s="42">
         <v>240.9</v>
       </c>
-      <c r="E32" s="41">
+      <c r="E32" s="42">
         <v>4.62</v>
       </c>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="40"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="40">
+      <c r="A34" s="41">
         <v>17</v>
       </c>
-      <c r="B34" s="44">
+      <c r="B34" s="45">
         <v>43321</v>
       </c>
-      <c r="C34" s="41">
+      <c r="C34" s="42">
         <v>6.21</v>
       </c>
-      <c r="D34" s="41">
+      <c r="D34" s="42">
         <v>186.3</v>
       </c>
-      <c r="E34" s="41">
+      <c r="E34" s="42">
         <v>3.5</v>
       </c>
-      <c r="F34" s="41">
+      <c r="F34" s="42">
         <v>3000</v>
       </c>
-      <c r="G34" s="41"/>
-      <c r="H34" s="45" t="s">
+      <c r="G34" s="42"/>
+      <c r="H34" s="46" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="40"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="45"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="46"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="40">
+      <c r="A36" s="41">
         <v>18</v>
       </c>
-      <c r="B36" s="44">
+      <c r="B36" s="45">
         <v>43328</v>
       </c>
-      <c r="C36" s="41">
+      <c r="C36" s="42">
         <v>6.57</v>
       </c>
-      <c r="D36" s="41">
+      <c r="D36" s="42">
         <v>197.1</v>
       </c>
-      <c r="E36" s="41">
+      <c r="E36" s="42">
         <v>3.78</v>
       </c>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41">
+      <c r="F36" s="42"/>
+      <c r="G36" s="42">
         <v>4</v>
       </c>
-      <c r="H36" s="41"/>
+      <c r="H36" s="42"/>
     </row>
     <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="40"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
     </row>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="40">
+      <c r="A38" s="41">
         <v>19</v>
       </c>
-      <c r="B38" s="44">
+      <c r="B38" s="45">
         <v>43335</v>
       </c>
-      <c r="C38" s="41">
+      <c r="C38" s="42">
         <v>6.94</v>
       </c>
-      <c r="D38" s="41">
+      <c r="D38" s="42">
         <v>208.2</v>
       </c>
-      <c r="E38" s="41">
+      <c r="E38" s="42">
         <v>3.99</v>
       </c>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41">
+      <c r="F38" s="42"/>
+      <c r="G38" s="42">
         <v>4</v>
       </c>
-      <c r="H38" s="41"/>
+      <c r="H38" s="42"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="40"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="40">
+      <c r="A40" s="41">
         <v>20</v>
       </c>
-      <c r="B40" s="44">
+      <c r="B40" s="45">
         <v>43342</v>
       </c>
-      <c r="C40" s="41">
+      <c r="C40" s="42">
         <v>6.21</v>
       </c>
-      <c r="D40" s="41">
+      <c r="D40" s="42">
         <v>186.3</v>
       </c>
-      <c r="E40" s="41">
+      <c r="E40" s="42">
         <v>3.57</v>
       </c>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41">
+      <c r="F40" s="42"/>
+      <c r="G40" s="42">
         <v>4</v>
       </c>
-      <c r="H40" s="41"/>
+      <c r="H40" s="42"/>
     </row>
     <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="40"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="40">
+      <c r="A42" s="41">
         <v>21</v>
       </c>
-      <c r="B42" s="44">
+      <c r="B42" s="45">
         <v>43349</v>
       </c>
-      <c r="C42" s="41">
+      <c r="C42" s="42">
         <v>6.21</v>
       </c>
-      <c r="D42" s="41">
+      <c r="D42" s="42">
         <v>186.3</v>
       </c>
-      <c r="E42" s="41">
+      <c r="E42" s="42">
         <v>3.57</v>
       </c>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41">
+      <c r="F42" s="42"/>
+      <c r="G42" s="42">
         <v>4</v>
       </c>
-      <c r="H42" s="41"/>
+      <c r="H42" s="42"/>
     </row>
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="40"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="40">
+      <c r="A44" s="41">
         <v>22</v>
       </c>
-      <c r="B44" s="44">
+      <c r="B44" s="45">
         <v>43356</v>
       </c>
-      <c r="C44" s="41">
+      <c r="C44" s="42">
         <v>7.67</v>
       </c>
-      <c r="D44" s="41">
+      <c r="D44" s="42">
         <v>230.1</v>
       </c>
-      <c r="E44" s="41">
+      <c r="E44" s="42">
         <v>4.41</v>
       </c>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41">
+      <c r="F44" s="42"/>
+      <c r="G44" s="42">
         <v>4</v>
       </c>
-      <c r="H44" s="50" t="s">
+      <c r="H44" s="51" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="40"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="50"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="51"/>
     </row>
     <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="40">
+      <c r="A46" s="41">
         <v>23</v>
       </c>
-      <c r="B46" s="44">
+      <c r="B46" s="45">
         <v>43363</v>
       </c>
-      <c r="C46" s="41">
+      <c r="C46" s="42">
         <v>6.94</v>
       </c>
-      <c r="D46" s="41">
+      <c r="D46" s="42">
         <v>208.2</v>
       </c>
-      <c r="E46" s="41">
+      <c r="E46" s="42">
         <v>3.99</v>
       </c>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41">
+      <c r="F46" s="42"/>
+      <c r="G46" s="42">
         <v>4</v>
       </c>
-      <c r="H46" s="41"/>
+      <c r="H46" s="42"/>
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="40"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="40">
+      <c r="A48" s="41">
         <v>24</v>
       </c>
-      <c r="B48" s="44">
+      <c r="B48" s="45">
         <v>43370</v>
       </c>
-      <c r="C48" s="41">
+      <c r="C48" s="42">
         <v>6.57</v>
       </c>
-      <c r="D48" s="41">
+      <c r="D48" s="42">
         <v>197.1</v>
       </c>
-      <c r="E48" s="41">
+      <c r="E48" s="42">
         <v>3.78</v>
       </c>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41">
+      <c r="F48" s="42"/>
+      <c r="G48" s="42">
         <v>4</v>
       </c>
-      <c r="H48" s="41"/>
+      <c r="H48" s="42"/>
     </row>
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="40"/>
-      <c r="B49" s="41"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="40">
+      <c r="A50" s="41">
         <v>25</v>
       </c>
-      <c r="B50" s="44">
+      <c r="B50" s="45">
         <v>43377</v>
       </c>
-      <c r="C50" s="41">
+      <c r="C50" s="42">
         <v>6.21</v>
       </c>
-      <c r="D50" s="41">
+      <c r="D50" s="42">
         <v>186.3</v>
       </c>
-      <c r="E50" s="41">
+      <c r="E50" s="42">
         <v>3.57</v>
       </c>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41">
+      <c r="F50" s="42"/>
+      <c r="G50" s="42">
         <v>4</v>
       </c>
-      <c r="H50" s="41"/>
+      <c r="H50" s="42"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="40"/>
-      <c r="B51" s="41"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
     </row>
     <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="40">
+      <c r="A52" s="41">
         <v>26</v>
       </c>
-      <c r="B52" s="44">
+      <c r="B52" s="45">
         <v>43384</v>
       </c>
-      <c r="C52" s="41">
+      <c r="C52" s="42">
         <v>6.57</v>
       </c>
-      <c r="D52" s="41">
+      <c r="D52" s="42">
         <v>197.1</v>
       </c>
-      <c r="E52" s="41">
+      <c r="E52" s="42">
         <v>3.78</v>
       </c>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41">
+      <c r="F52" s="42"/>
+      <c r="G52" s="42">
         <v>4</v>
       </c>
-      <c r="H52" s="50" t="s">
+      <c r="H52" s="51" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="40"/>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="50"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="51"/>
     </row>
     <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="40">
+      <c r="A54" s="41">
         <v>27</v>
       </c>
-      <c r="B54" s="44">
+      <c r="B54" s="45">
         <v>43391</v>
       </c>
-      <c r="C54" s="41">
+      <c r="C54" s="42">
         <v>6.21</v>
       </c>
-      <c r="D54" s="41">
+      <c r="D54" s="42">
         <v>186.3</v>
       </c>
-      <c r="E54" s="41">
+      <c r="E54" s="42">
         <v>3.57</v>
       </c>
-      <c r="F54" s="41"/>
-      <c r="G54" s="41">
+      <c r="F54" s="42"/>
+      <c r="G54" s="42">
         <v>4</v>
       </c>
-      <c r="H54" s="41"/>
+      <c r="H54" s="42"/>
     </row>
     <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="40"/>
-      <c r="B55" s="41"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
     </row>
     <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="40">
+      <c r="A56" s="41">
         <v>28</v>
       </c>
-      <c r="B56" s="51">
+      <c r="B56" s="52">
         <v>43398</v>
       </c>
-      <c r="C56" s="52">
+      <c r="C56" s="53">
         <v>5.84</v>
       </c>
-      <c r="D56" s="52">
+      <c r="D56" s="53">
         <v>175.2</v>
       </c>
-      <c r="E56" s="52">
+      <c r="E56" s="53">
         <v>3.36</v>
       </c>
-      <c r="F56" s="52"/>
-      <c r="G56" s="52">
+      <c r="F56" s="53"/>
+      <c r="G56" s="53">
         <v>3</v>
       </c>
-      <c r="H56" s="52" t="s">
+      <c r="H56" s="53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="40"/>
-      <c r="B57" s="52"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
-      <c r="E57" s="52"/>
-      <c r="F57" s="52"/>
-      <c r="G57" s="52"/>
-      <c r="H57" s="52"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="53"/>
+      <c r="G57" s="53"/>
+      <c r="H57" s="53"/>
     </row>
     <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="40">
+      <c r="A58" s="41">
         <v>29</v>
       </c>
-      <c r="B58" s="44">
+      <c r="B58" s="45">
         <v>43405</v>
       </c>
-      <c r="C58" s="41">
+      <c r="C58" s="42">
         <v>6.21</v>
       </c>
-      <c r="D58" s="41">
+      <c r="D58" s="42">
         <v>186.3</v>
       </c>
-      <c r="E58" s="41">
+      <c r="E58" s="42">
         <v>3.57</v>
       </c>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41">
+      <c r="F58" s="42"/>
+      <c r="G58" s="42">
         <v>4</v>
       </c>
-      <c r="H58" s="41"/>
+      <c r="H58" s="42"/>
     </row>
     <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="40"/>
-      <c r="B59" s="41"/>
-      <c r="C59" s="41"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="41"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
     </row>
     <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="40">
+      <c r="A60" s="41">
         <v>30</v>
       </c>
-      <c r="B60" s="44">
+      <c r="B60" s="45">
         <v>43413</v>
       </c>
-      <c r="C60" s="41">
+      <c r="C60" s="42">
         <v>5.84</v>
       </c>
-      <c r="D60" s="52">
+      <c r="D60" s="53">
         <v>175.2</v>
       </c>
-      <c r="E60" s="52">
+      <c r="E60" s="53">
         <v>3.36</v>
       </c>
-      <c r="F60" s="52"/>
-      <c r="G60" s="52">
+      <c r="F60" s="53"/>
+      <c r="G60" s="53">
         <v>3</v>
       </c>
-      <c r="H60" s="41"/>
+      <c r="H60" s="42"/>
     </row>
     <row r="61" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="40"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="52"/>
-      <c r="E61" s="52"/>
-      <c r="F61" s="52"/>
-      <c r="G61" s="52"/>
-      <c r="H61" s="41"/>
+      <c r="A61" s="41"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="53"/>
+      <c r="G61" s="53"/>
+      <c r="H61" s="42"/>
     </row>
     <row r="62" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="40">
+      <c r="A62" s="41">
         <v>31</v>
       </c>
-      <c r="B62" s="44">
+      <c r="B62" s="45">
         <v>43419</v>
       </c>
-      <c r="C62" s="41">
+      <c r="C62" s="42">
         <v>5.48</v>
       </c>
-      <c r="D62" s="52">
+      <c r="D62" s="53">
         <v>164.4</v>
       </c>
-      <c r="E62" s="52">
+      <c r="E62" s="53">
         <v>3.15</v>
       </c>
-      <c r="F62" s="52"/>
-      <c r="G62" s="52">
+      <c r="F62" s="53"/>
+      <c r="G62" s="53">
         <v>3</v>
       </c>
-      <c r="H62" s="41"/>
+      <c r="H62" s="42"/>
     </row>
     <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="40"/>
-      <c r="B63" s="41"/>
-      <c r="C63" s="41"/>
-      <c r="D63" s="52"/>
-      <c r="E63" s="52"/>
-      <c r="F63" s="52"/>
-      <c r="G63" s="52"/>
-      <c r="H63" s="41"/>
+      <c r="A63" s="41"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="53"/>
+      <c r="G63" s="53"/>
+      <c r="H63" s="42"/>
     </row>
     <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="40">
+      <c r="A64" s="41">
         <v>32</v>
       </c>
-      <c r="B64" s="44">
+      <c r="B64" s="45">
         <v>43426</v>
       </c>
-      <c r="C64" s="41">
+      <c r="C64" s="42">
         <v>6.21</v>
       </c>
-      <c r="D64" s="41">
+      <c r="D64" s="42">
         <v>186.3</v>
       </c>
-      <c r="E64" s="41">
+      <c r="E64" s="42">
         <v>3.57</v>
       </c>
-      <c r="F64" s="41"/>
-      <c r="G64" s="41">
+      <c r="F64" s="42"/>
+      <c r="G64" s="42">
         <v>4</v>
       </c>
-      <c r="H64" s="41"/>
+      <c r="H64" s="42"/>
     </row>
     <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="40"/>
-      <c r="B65" s="41"/>
-      <c r="C65" s="41"/>
-      <c r="D65" s="41"/>
-      <c r="E65" s="41"/>
-      <c r="F65" s="41"/>
-      <c r="G65" s="41"/>
-      <c r="H65" s="41"/>
+      <c r="A65" s="41"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
     </row>
     <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="40">
+      <c r="A66" s="41">
         <v>33</v>
       </c>
-      <c r="B66" s="44">
+      <c r="B66" s="45">
         <v>43433</v>
       </c>
-      <c r="C66" s="41">
+      <c r="C66" s="42">
         <v>6.57</v>
       </c>
-      <c r="D66" s="41">
+      <c r="D66" s="42">
         <v>197.1</v>
       </c>
-      <c r="E66" s="41">
+      <c r="E66" s="42">
         <v>3.78</v>
       </c>
-      <c r="F66" s="41"/>
-      <c r="G66" s="41">
+      <c r="F66" s="42"/>
+      <c r="G66" s="42">
         <v>4</v>
       </c>
-      <c r="H66" s="41"/>
+      <c r="H66" s="42"/>
     </row>
     <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="40"/>
-      <c r="B67" s="41"/>
-      <c r="C67" s="41"/>
-      <c r="D67" s="41"/>
-      <c r="E67" s="41"/>
-      <c r="F67" s="41"/>
-      <c r="G67" s="41"/>
-      <c r="H67" s="41"/>
+      <c r="A67" s="41"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="40">
+      <c r="A68" s="41">
         <v>33</v>
       </c>
-      <c r="B68" s="44">
+      <c r="B68" s="45">
         <v>43440</v>
       </c>
-      <c r="C68" s="41">
+      <c r="C68" s="42">
         <v>5.48</v>
       </c>
-      <c r="D68" s="52">
+      <c r="D68" s="53">
         <v>164.4</v>
       </c>
-      <c r="E68" s="52">
+      <c r="E68" s="53">
         <v>3.15</v>
       </c>
-      <c r="F68" s="52"/>
-      <c r="G68" s="52">
+      <c r="F68" s="53"/>
+      <c r="G68" s="53">
         <v>3</v>
       </c>
-      <c r="H68" s="41"/>
+      <c r="H68" s="42"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="40"/>
-      <c r="B69" s="41"/>
-      <c r="C69" s="41"/>
-      <c r="D69" s="52"/>
-      <c r="E69" s="52"/>
-      <c r="F69" s="52"/>
-      <c r="G69" s="52"/>
-      <c r="H69" s="41"/>
+      <c r="A69" s="41"/>
+      <c r="B69" s="42"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="53"/>
+      <c r="G69" s="53"/>
+      <c r="H69" s="42"/>
     </row>
     <row r="70" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="40">
+      <c r="A70" s="41">
         <v>33</v>
       </c>
-      <c r="B70" s="44">
+      <c r="B70" s="45">
         <v>43447</v>
       </c>
-      <c r="C70" s="41">
+      <c r="C70" s="42">
         <v>6.57</v>
       </c>
-      <c r="D70" s="41">
+      <c r="D70" s="42">
         <v>197.1</v>
       </c>
-      <c r="E70" s="41">
+      <c r="E70" s="42">
         <v>3.78</v>
       </c>
-      <c r="F70" s="41"/>
-      <c r="G70" s="41">
+      <c r="F70" s="42"/>
+      <c r="G70" s="42">
         <v>4</v>
       </c>
-      <c r="H70" s="50" t="s">
+      <c r="H70" s="51" t="s">
         <v>17</v>
       </c>
       <c r="J70" s="4">
@@ -6319,46 +6363,46 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="40"/>
-      <c r="B71" s="41"/>
-      <c r="C71" s="41"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="41"/>
-      <c r="F71" s="41"/>
-      <c r="G71" s="41"/>
-      <c r="H71" s="50"/>
+      <c r="A71" s="41"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="51"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="40">
+      <c r="A72" s="41">
         <v>34</v>
       </c>
-      <c r="B72" s="44">
+      <c r="B72" s="45">
         <v>43454</v>
       </c>
-      <c r="C72" s="41">
+      <c r="C72" s="42">
         <v>6.21</v>
       </c>
-      <c r="D72" s="41">
+      <c r="D72" s="42">
         <v>186.3</v>
       </c>
-      <c r="E72" s="41">
+      <c r="E72" s="42">
         <v>3.57</v>
       </c>
-      <c r="F72" s="41"/>
-      <c r="G72" s="41">
+      <c r="F72" s="42"/>
+      <c r="G72" s="42">
         <v>4</v>
       </c>
-      <c r="H72" s="53"/>
+      <c r="H72" s="54"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="40"/>
-      <c r="B73" s="41"/>
-      <c r="C73" s="41"/>
-      <c r="D73" s="41"/>
-      <c r="E73" s="41"/>
-      <c r="F73" s="41"/>
-      <c r="G73" s="41"/>
-      <c r="H73" s="54"/>
+      <c r="A73" s="41"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="296">

--- a/source/excel/AifianExecl.xlsx
+++ b/source/excel/AifianExecl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="17784" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="18240" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="收益紀錄表(new) " sheetId="7" r:id="rId1"/>
@@ -474,22 +474,28 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -504,20 +510,14 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1038,7 +1038,7 @@
                   <c:v>2399.1</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>2085.6000000000004</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0</c:v>
@@ -1450,7 +1450,7 @@
                   <c:v>46.010136986301369</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>39.997808219178083</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0</c:v>
@@ -4778,24 +4778,28 @@
       <c r="B45" s="15">
         <v>43510</v>
       </c>
-      <c r="C45" s="19"/>
+      <c r="C45" s="19">
+        <v>6.3200000000000006E-2</v>
+      </c>
       <c r="D45" s="25">
         <f>投資金額!$B$2*'收益紀錄表(new) '!C45</f>
-        <v>0</v>
+        <v>2085.6000000000004</v>
       </c>
       <c r="E45" s="25">
         <f>D45/投資金額!$B$3*投資金額!$B$4</f>
-        <v>0</v>
+        <v>39.997808219178083</v>
       </c>
       <c r="F45" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39.997808219178083</v>
       </c>
       <c r="G45" s="37"/>
-      <c r="H45" s="33"/>
+      <c r="H45" s="33">
+        <v>40</v>
+      </c>
       <c r="I45" s="33">
         <f>(((H45/投資金額!$B$2)*投資金額!$B$3)/投資金額!$B$4)*100</f>
-        <v>0</v>
+        <v>6.3203463203463208</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -5094,7 +5098,7 @@
       </c>
       <c r="B5" s="26">
         <f>SUM('收益紀錄表(new) '!H19:H53)+1</f>
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>28</v>
@@ -5137,7 +5141,7 @@
       </c>
       <c r="B2" s="22">
         <f>SUM('收益紀錄表(new) '!C1:C53)/50</f>
-        <v>6.7280000000000006E-2</v>
+        <v>6.8544000000000008E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -5146,7 +5150,7 @@
       </c>
       <c r="B3" s="13">
         <f>SUM('收益紀錄表(new) '!E2:E100)/50</f>
-        <v>6.5945753424657543</v>
+        <v>7.3945315068493152</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -5155,7 +5159,7 @@
       </c>
       <c r="B4" s="39">
         <f>SUM('收益紀錄表(new) '!D2:D100)/50</f>
-        <v>343.86</v>
+        <v>385.57199999999995</v>
       </c>
     </row>
   </sheetData>
@@ -5227,1135 +5231,1135 @@
       <c r="M1" s="40"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41">
+      <c r="A2" s="42">
         <v>1</v>
       </c>
-      <c r="B2" s="45">
+      <c r="B2" s="43">
         <v>43209</v>
       </c>
-      <c r="C2" s="42">
+      <c r="C2" s="41">
         <v>5.81</v>
       </c>
-      <c r="D2" s="42">
+      <c r="D2" s="41">
         <v>174.3</v>
       </c>
-      <c r="E2" s="42">
+      <c r="E2" s="41">
         <v>3.34</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="50" t="s">
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="50"/>
-      <c r="L2" s="49">
+      <c r="K2" s="52"/>
+      <c r="L2" s="51">
         <f>SUM(C:C)/33</f>
         <v>8.4699999999999989</v>
       </c>
-      <c r="M2" s="49"/>
+      <c r="M2" s="51"/>
     </row>
     <row r="3" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="41"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="41">
+      <c r="A4" s="42">
         <v>2</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="43">
         <v>43216</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="41">
         <v>6.13</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="41">
         <v>183.9</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="41">
         <v>3.52</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="J4" s="47" t="s">
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="J4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="47"/>
-      <c r="L4" s="48">
+      <c r="K4" s="49"/>
+      <c r="L4" s="50">
         <f>SUM(E:E)/33</f>
         <v>4.8678787878787873</v>
       </c>
-      <c r="M4" s="48"/>
+      <c r="M4" s="50"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41">
+      <c r="A6" s="42">
         <v>3</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="43">
         <v>43223</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="41">
         <v>6.02</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="41">
         <v>180.6</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="41">
         <v>3.46</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="J6" s="47" t="s">
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="J6" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="47"/>
-      <c r="L6" s="48">
+      <c r="K6" s="49"/>
+      <c r="L6" s="50">
         <f>SUM(D:D)/33</f>
         <v>254.10000000000002</v>
       </c>
-      <c r="M6" s="48"/>
+      <c r="M6" s="50"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="41"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="41">
+      <c r="A8" s="42">
         <v>4</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="43">
         <v>43230</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="41">
         <v>5.96</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="41">
         <v>178.8</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="41">
         <v>3.42</v>
       </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="41"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41">
+      <c r="A10" s="42">
         <v>5</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="43">
         <v>43237</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="41">
         <v>5.27</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="41">
         <v>158.1</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="41">
         <v>3.03</v>
       </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="41"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41">
+      <c r="A12" s="42">
         <v>6</v>
       </c>
-      <c r="B12" s="45">
+      <c r="B12" s="43">
         <v>43244</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="41">
         <v>6.13</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="41">
         <v>183.9</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="41">
         <v>3.52</v>
       </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="41"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="41">
+      <c r="A14" s="42">
         <v>7</v>
       </c>
-      <c r="B14" s="45">
+      <c r="B14" s="43">
         <v>43251</v>
       </c>
-      <c r="C14" s="42">
+      <c r="C14" s="41">
         <v>6.13</v>
       </c>
-      <c r="D14" s="42">
+      <c r="D14" s="41">
         <v>183.9</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="41">
         <v>3.52</v>
       </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="41">
+      <c r="A16" s="42">
         <v>8</v>
       </c>
-      <c r="B16" s="45">
+      <c r="B16" s="43">
         <v>43258</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C16" s="41">
         <v>6.15</v>
       </c>
-      <c r="D16" s="42">
+      <c r="D16" s="41">
         <v>184.5</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="41">
         <v>3.53</v>
       </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="41"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="41">
+      <c r="A18" s="42">
         <v>9</v>
       </c>
-      <c r="B18" s="45">
+      <c r="B18" s="43">
         <v>43265</v>
       </c>
-      <c r="C18" s="42">
+      <c r="C18" s="41">
         <v>9.27</v>
       </c>
-      <c r="D18" s="42">
+      <c r="D18" s="41">
         <v>278.10000000000002</v>
       </c>
-      <c r="E18" s="42">
+      <c r="E18" s="41">
         <v>5.33</v>
       </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="46" t="s">
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="53" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="41"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="46"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="53"/>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="41">
+      <c r="A20" s="42">
         <v>10</v>
       </c>
-      <c r="B20" s="45">
+      <c r="B20" s="43">
         <v>43268</v>
       </c>
-      <c r="C20" s="42">
+      <c r="C20" s="41">
         <v>10.130000000000001</v>
       </c>
-      <c r="D20" s="42">
+      <c r="D20" s="41">
         <v>303.89999999999998</v>
       </c>
-      <c r="E20" s="42">
+      <c r="E20" s="41">
         <v>5.82</v>
       </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="41"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="41">
+      <c r="A22" s="42">
         <v>11</v>
       </c>
-      <c r="B22" s="45">
+      <c r="B22" s="43">
         <v>43279</v>
       </c>
-      <c r="C22" s="42">
+      <c r="C22" s="41">
         <v>12.41</v>
       </c>
-      <c r="D22" s="42">
+      <c r="D22" s="41">
         <v>372.3</v>
       </c>
-      <c r="E22" s="42">
+      <c r="E22" s="41">
         <v>7.14</v>
       </c>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="41"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="41">
+      <c r="A24" s="42">
         <v>12</v>
       </c>
-      <c r="B24" s="45">
+      <c r="B24" s="43">
         <v>43286</v>
       </c>
-      <c r="C24" s="42">
+      <c r="C24" s="41">
         <v>19.71</v>
       </c>
-      <c r="D24" s="42">
+      <c r="D24" s="41">
         <v>591.29999999999995</v>
       </c>
-      <c r="E24" s="42">
+      <c r="E24" s="41">
         <v>11.34</v>
       </c>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="41"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="41">
+      <c r="A26" s="42">
         <v>13</v>
       </c>
-      <c r="B26" s="45">
+      <c r="B26" s="43">
         <v>43293</v>
       </c>
-      <c r="C26" s="42">
+      <c r="C26" s="41">
         <v>23</v>
       </c>
-      <c r="D26" s="42">
+      <c r="D26" s="41">
         <v>690</v>
       </c>
-      <c r="E26" s="42">
+      <c r="E26" s="41">
         <v>13.23</v>
       </c>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="46" t="s">
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="53" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="41"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="46"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="53"/>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="41">
+      <c r="A28" s="42">
         <v>14</v>
       </c>
-      <c r="B28" s="45">
+      <c r="B28" s="43">
         <v>43300</v>
       </c>
-      <c r="C28" s="42">
+      <c r="C28" s="41">
         <v>14.97</v>
       </c>
-      <c r="D28" s="42">
+      <c r="D28" s="41">
         <v>449.1</v>
       </c>
-      <c r="E28" s="42">
+      <c r="E28" s="41">
         <v>8.61</v>
       </c>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="41"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="41">
+      <c r="A30" s="42">
         <v>15</v>
       </c>
-      <c r="B30" s="45">
+      <c r="B30" s="43">
         <v>43307</v>
       </c>
-      <c r="C30" s="42">
+      <c r="C30" s="41">
         <v>7.67</v>
       </c>
-      <c r="D30" s="42">
+      <c r="D30" s="41">
         <v>230.1</v>
       </c>
-      <c r="E30" s="42">
+      <c r="E30" s="41">
         <v>4.41</v>
       </c>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="41"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="41">
+      <c r="A32" s="42">
         <v>16</v>
       </c>
-      <c r="B32" s="45">
+      <c r="B32" s="43">
         <v>43314</v>
       </c>
-      <c r="C32" s="42">
+      <c r="C32" s="41">
         <v>8.0299999999999994</v>
       </c>
-      <c r="D32" s="42">
+      <c r="D32" s="41">
         <v>240.9</v>
       </c>
-      <c r="E32" s="42">
+      <c r="E32" s="41">
         <v>4.62</v>
       </c>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="41"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="41">
+      <c r="A34" s="42">
         <v>17</v>
       </c>
-      <c r="B34" s="45">
+      <c r="B34" s="43">
         <v>43321</v>
       </c>
-      <c r="C34" s="42">
+      <c r="C34" s="41">
         <v>6.21</v>
       </c>
-      <c r="D34" s="42">
+      <c r="D34" s="41">
         <v>186.3</v>
       </c>
-      <c r="E34" s="42">
+      <c r="E34" s="41">
         <v>3.5</v>
       </c>
-      <c r="F34" s="42">
+      <c r="F34" s="41">
         <v>3000</v>
       </c>
-      <c r="G34" s="42"/>
-      <c r="H34" s="46" t="s">
+      <c r="G34" s="41"/>
+      <c r="H34" s="53" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="41"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="46"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="53"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="41">
+      <c r="A36" s="42">
         <v>18</v>
       </c>
-      <c r="B36" s="45">
+      <c r="B36" s="43">
         <v>43328</v>
       </c>
-      <c r="C36" s="42">
+      <c r="C36" s="41">
         <v>6.57</v>
       </c>
-      <c r="D36" s="42">
+      <c r="D36" s="41">
         <v>197.1</v>
       </c>
-      <c r="E36" s="42">
+      <c r="E36" s="41">
         <v>3.78</v>
       </c>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42">
+      <c r="F36" s="41"/>
+      <c r="G36" s="41">
         <v>4</v>
       </c>
-      <c r="H36" s="42"/>
+      <c r="H36" s="41"/>
     </row>
     <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="41"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
     </row>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="41">
+      <c r="A38" s="42">
         <v>19</v>
       </c>
-      <c r="B38" s="45">
+      <c r="B38" s="43">
         <v>43335</v>
       </c>
-      <c r="C38" s="42">
+      <c r="C38" s="41">
         <v>6.94</v>
       </c>
-      <c r="D38" s="42">
+      <c r="D38" s="41">
         <v>208.2</v>
       </c>
-      <c r="E38" s="42">
+      <c r="E38" s="41">
         <v>3.99</v>
       </c>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42">
+      <c r="F38" s="41"/>
+      <c r="G38" s="41">
         <v>4</v>
       </c>
-      <c r="H38" s="42"/>
+      <c r="H38" s="41"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="41"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
+      <c r="A39" s="42"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="41">
+      <c r="A40" s="42">
         <v>20</v>
       </c>
-      <c r="B40" s="45">
+      <c r="B40" s="43">
         <v>43342</v>
       </c>
-      <c r="C40" s="42">
+      <c r="C40" s="41">
         <v>6.21</v>
       </c>
-      <c r="D40" s="42">
+      <c r="D40" s="41">
         <v>186.3</v>
       </c>
-      <c r="E40" s="42">
+      <c r="E40" s="41">
         <v>3.57</v>
       </c>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42">
+      <c r="F40" s="41"/>
+      <c r="G40" s="41">
         <v>4</v>
       </c>
-      <c r="H40" s="42"/>
+      <c r="H40" s="41"/>
     </row>
     <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="41"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
+      <c r="A41" s="42"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="41">
+      <c r="A42" s="42">
         <v>21</v>
       </c>
-      <c r="B42" s="45">
+      <c r="B42" s="43">
         <v>43349</v>
       </c>
-      <c r="C42" s="42">
+      <c r="C42" s="41">
         <v>6.21</v>
       </c>
-      <c r="D42" s="42">
+      <c r="D42" s="41">
         <v>186.3</v>
       </c>
-      <c r="E42" s="42">
+      <c r="E42" s="41">
         <v>3.57</v>
       </c>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42">
+      <c r="F42" s="41"/>
+      <c r="G42" s="41">
         <v>4</v>
       </c>
-      <c r="H42" s="42"/>
+      <c r="H42" s="41"/>
     </row>
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="41"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="41">
+      <c r="A44" s="42">
         <v>22</v>
       </c>
-      <c r="B44" s="45">
+      <c r="B44" s="43">
         <v>43356</v>
       </c>
-      <c r="C44" s="42">
+      <c r="C44" s="41">
         <v>7.67</v>
       </c>
-      <c r="D44" s="42">
+      <c r="D44" s="41">
         <v>230.1</v>
       </c>
-      <c r="E44" s="42">
+      <c r="E44" s="41">
         <v>4.41</v>
       </c>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42">
+      <c r="F44" s="41"/>
+      <c r="G44" s="41">
         <v>4</v>
       </c>
-      <c r="H44" s="51" t="s">
+      <c r="H44" s="46" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="41"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="51"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="46"/>
     </row>
     <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="41">
+      <c r="A46" s="42">
         <v>23</v>
       </c>
-      <c r="B46" s="45">
+      <c r="B46" s="43">
         <v>43363</v>
       </c>
-      <c r="C46" s="42">
+      <c r="C46" s="41">
         <v>6.94</v>
       </c>
-      <c r="D46" s="42">
+      <c r="D46" s="41">
         <v>208.2</v>
       </c>
-      <c r="E46" s="42">
+      <c r="E46" s="41">
         <v>3.99</v>
       </c>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42">
+      <c r="F46" s="41"/>
+      <c r="G46" s="41">
         <v>4</v>
       </c>
-      <c r="H46" s="42"/>
+      <c r="H46" s="41"/>
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="41"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
+      <c r="A47" s="42"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="41">
+      <c r="A48" s="42">
         <v>24</v>
       </c>
-      <c r="B48" s="45">
+      <c r="B48" s="43">
         <v>43370</v>
       </c>
-      <c r="C48" s="42">
+      <c r="C48" s="41">
         <v>6.57</v>
       </c>
-      <c r="D48" s="42">
+      <c r="D48" s="41">
         <v>197.1</v>
       </c>
-      <c r="E48" s="42">
+      <c r="E48" s="41">
         <v>3.78</v>
       </c>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42">
+      <c r="F48" s="41"/>
+      <c r="G48" s="41">
         <v>4</v>
       </c>
-      <c r="H48" s="42"/>
+      <c r="H48" s="41"/>
     </row>
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="41"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
+      <c r="A49" s="42"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="41">
+      <c r="A50" s="42">
         <v>25</v>
       </c>
-      <c r="B50" s="45">
+      <c r="B50" s="43">
         <v>43377</v>
       </c>
-      <c r="C50" s="42">
+      <c r="C50" s="41">
         <v>6.21</v>
       </c>
-      <c r="D50" s="42">
+      <c r="D50" s="41">
         <v>186.3</v>
       </c>
-      <c r="E50" s="42">
+      <c r="E50" s="41">
         <v>3.57</v>
       </c>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42">
+      <c r="F50" s="41"/>
+      <c r="G50" s="41">
         <v>4</v>
       </c>
-      <c r="H50" s="42"/>
+      <c r="H50" s="41"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="41"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
+      <c r="A51" s="42"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
     </row>
     <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="41">
+      <c r="A52" s="42">
         <v>26</v>
       </c>
-      <c r="B52" s="45">
+      <c r="B52" s="43">
         <v>43384</v>
       </c>
-      <c r="C52" s="42">
+      <c r="C52" s="41">
         <v>6.57</v>
       </c>
-      <c r="D52" s="42">
+      <c r="D52" s="41">
         <v>197.1</v>
       </c>
-      <c r="E52" s="42">
+      <c r="E52" s="41">
         <v>3.78</v>
       </c>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42">
+      <c r="F52" s="41"/>
+      <c r="G52" s="41">
         <v>4</v>
       </c>
-      <c r="H52" s="51" t="s">
+      <c r="H52" s="46" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="41"/>
-      <c r="B53" s="42"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="42"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="42"/>
-      <c r="H53" s="51"/>
+      <c r="A53" s="42"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="46"/>
     </row>
     <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="41">
+      <c r="A54" s="42">
         <v>27</v>
       </c>
-      <c r="B54" s="45">
+      <c r="B54" s="43">
         <v>43391</v>
       </c>
-      <c r="C54" s="42">
+      <c r="C54" s="41">
         <v>6.21</v>
       </c>
-      <c r="D54" s="42">
+      <c r="D54" s="41">
         <v>186.3</v>
       </c>
-      <c r="E54" s="42">
+      <c r="E54" s="41">
         <v>3.57</v>
       </c>
-      <c r="F54" s="42"/>
-      <c r="G54" s="42">
+      <c r="F54" s="41"/>
+      <c r="G54" s="41">
         <v>4</v>
       </c>
-      <c r="H54" s="42"/>
+      <c r="H54" s="41"/>
     </row>
     <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="41"/>
-      <c r="B55" s="42"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="42"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
     </row>
     <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="41">
+      <c r="A56" s="42">
         <v>28</v>
       </c>
-      <c r="B56" s="52">
+      <c r="B56" s="48">
         <v>43398</v>
       </c>
-      <c r="C56" s="53">
+      <c r="C56" s="47">
         <v>5.84</v>
       </c>
-      <c r="D56" s="53">
+      <c r="D56" s="47">
         <v>175.2</v>
       </c>
-      <c r="E56" s="53">
+      <c r="E56" s="47">
         <v>3.36</v>
       </c>
-      <c r="F56" s="53"/>
-      <c r="G56" s="53">
+      <c r="F56" s="47"/>
+      <c r="G56" s="47">
         <v>3</v>
       </c>
-      <c r="H56" s="53" t="s">
+      <c r="H56" s="47" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="41"/>
-      <c r="B57" s="53"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="53"/>
-      <c r="F57" s="53"/>
-      <c r="G57" s="53"/>
-      <c r="H57" s="53"/>
+      <c r="A57" s="42"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="47"/>
     </row>
     <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="41">
+      <c r="A58" s="42">
         <v>29</v>
       </c>
-      <c r="B58" s="45">
+      <c r="B58" s="43">
         <v>43405</v>
       </c>
-      <c r="C58" s="42">
+      <c r="C58" s="41">
         <v>6.21</v>
       </c>
-      <c r="D58" s="42">
+      <c r="D58" s="41">
         <v>186.3</v>
       </c>
-      <c r="E58" s="42">
+      <c r="E58" s="41">
         <v>3.57</v>
       </c>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42">
+      <c r="F58" s="41"/>
+      <c r="G58" s="41">
         <v>4</v>
       </c>
-      <c r="H58" s="42"/>
+      <c r="H58" s="41"/>
     </row>
     <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="41"/>
-      <c r="B59" s="42"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="42"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="42"/>
+      <c r="A59" s="42"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
     </row>
     <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="41">
+      <c r="A60" s="42">
         <v>30</v>
       </c>
-      <c r="B60" s="45">
+      <c r="B60" s="43">
         <v>43413</v>
       </c>
-      <c r="C60" s="42">
+      <c r="C60" s="41">
         <v>5.84</v>
       </c>
-      <c r="D60" s="53">
+      <c r="D60" s="47">
         <v>175.2</v>
       </c>
-      <c r="E60" s="53">
+      <c r="E60" s="47">
         <v>3.36</v>
       </c>
-      <c r="F60" s="53"/>
-      <c r="G60" s="53">
+      <c r="F60" s="47"/>
+      <c r="G60" s="47">
         <v>3</v>
       </c>
-      <c r="H60" s="42"/>
+      <c r="H60" s="41"/>
     </row>
     <row r="61" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="41"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="53"/>
-      <c r="E61" s="53"/>
-      <c r="F61" s="53"/>
-      <c r="G61" s="53"/>
-      <c r="H61" s="42"/>
+      <c r="A61" s="42"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="47"/>
+      <c r="H61" s="41"/>
     </row>
     <row r="62" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="41">
+      <c r="A62" s="42">
         <v>31</v>
       </c>
-      <c r="B62" s="45">
+      <c r="B62" s="43">
         <v>43419</v>
       </c>
-      <c r="C62" s="42">
+      <c r="C62" s="41">
         <v>5.48</v>
       </c>
-      <c r="D62" s="53">
+      <c r="D62" s="47">
         <v>164.4</v>
       </c>
-      <c r="E62" s="53">
+      <c r="E62" s="47">
         <v>3.15</v>
       </c>
-      <c r="F62" s="53"/>
-      <c r="G62" s="53">
+      <c r="F62" s="47"/>
+      <c r="G62" s="47">
         <v>3</v>
       </c>
-      <c r="H62" s="42"/>
+      <c r="H62" s="41"/>
     </row>
     <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="41"/>
-      <c r="B63" s="42"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="53"/>
-      <c r="E63" s="53"/>
-      <c r="F63" s="53"/>
-      <c r="G63" s="53"/>
-      <c r="H63" s="42"/>
+      <c r="A63" s="42"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="47"/>
+      <c r="E63" s="47"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="47"/>
+      <c r="H63" s="41"/>
     </row>
     <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="41">
+      <c r="A64" s="42">
         <v>32</v>
       </c>
-      <c r="B64" s="45">
+      <c r="B64" s="43">
         <v>43426</v>
       </c>
-      <c r="C64" s="42">
+      <c r="C64" s="41">
         <v>6.21</v>
       </c>
-      <c r="D64" s="42">
+      <c r="D64" s="41">
         <v>186.3</v>
       </c>
-      <c r="E64" s="42">
+      <c r="E64" s="41">
         <v>3.57</v>
       </c>
-      <c r="F64" s="42"/>
-      <c r="G64" s="42">
+      <c r="F64" s="41"/>
+      <c r="G64" s="41">
         <v>4</v>
       </c>
-      <c r="H64" s="42"/>
+      <c r="H64" s="41"/>
     </row>
     <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="41"/>
-      <c r="B65" s="42"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="42"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="42"/>
-      <c r="H65" s="42"/>
+      <c r="A65" s="42"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="41"/>
+      <c r="H65" s="41"/>
     </row>
     <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="41">
+      <c r="A66" s="42">
         <v>33</v>
       </c>
-      <c r="B66" s="45">
+      <c r="B66" s="43">
         <v>43433</v>
       </c>
-      <c r="C66" s="42">
+      <c r="C66" s="41">
         <v>6.57</v>
       </c>
-      <c r="D66" s="42">
+      <c r="D66" s="41">
         <v>197.1</v>
       </c>
-      <c r="E66" s="42">
+      <c r="E66" s="41">
         <v>3.78</v>
       </c>
-      <c r="F66" s="42"/>
-      <c r="G66" s="42">
+      <c r="F66" s="41"/>
+      <c r="G66" s="41">
         <v>4</v>
       </c>
-      <c r="H66" s="42"/>
+      <c r="H66" s="41"/>
     </row>
     <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="41"/>
-      <c r="B67" s="42"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="42"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="42"/>
-      <c r="G67" s="42"/>
-      <c r="H67" s="42"/>
+      <c r="A67" s="42"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="41"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="41"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="41">
+      <c r="A68" s="42">
         <v>33</v>
       </c>
-      <c r="B68" s="45">
+      <c r="B68" s="43">
         <v>43440</v>
       </c>
-      <c r="C68" s="42">
+      <c r="C68" s="41">
         <v>5.48</v>
       </c>
-      <c r="D68" s="53">
+      <c r="D68" s="47">
         <v>164.4</v>
       </c>
-      <c r="E68" s="53">
+      <c r="E68" s="47">
         <v>3.15</v>
       </c>
-      <c r="F68" s="53"/>
-      <c r="G68" s="53">
+      <c r="F68" s="47"/>
+      <c r="G68" s="47">
         <v>3</v>
       </c>
-      <c r="H68" s="42"/>
+      <c r="H68" s="41"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="41"/>
-      <c r="B69" s="42"/>
-      <c r="C69" s="42"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="53"/>
-      <c r="G69" s="53"/>
-      <c r="H69" s="42"/>
+      <c r="A69" s="42"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="41"/>
     </row>
     <row r="70" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="41">
+      <c r="A70" s="42">
         <v>33</v>
       </c>
-      <c r="B70" s="45">
+      <c r="B70" s="43">
         <v>43447</v>
       </c>
-      <c r="C70" s="42">
+      <c r="C70" s="41">
         <v>6.57</v>
       </c>
-      <c r="D70" s="42">
+      <c r="D70" s="41">
         <v>197.1</v>
       </c>
-      <c r="E70" s="42">
+      <c r="E70" s="41">
         <v>3.78</v>
       </c>
-      <c r="F70" s="42"/>
-      <c r="G70" s="42">
+      <c r="F70" s="41"/>
+      <c r="G70" s="41">
         <v>4</v>
       </c>
-      <c r="H70" s="51" t="s">
+      <c r="H70" s="46" t="s">
         <v>17</v>
       </c>
       <c r="J70" s="4">
@@ -6363,49 +6367,321 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="41"/>
-      <c r="B71" s="42"/>
-      <c r="C71" s="42"/>
-      <c r="D71" s="42"/>
-      <c r="E71" s="42"/>
-      <c r="F71" s="42"/>
-      <c r="G71" s="42"/>
-      <c r="H71" s="51"/>
+      <c r="A71" s="42"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="41"/>
+      <c r="F71" s="41"/>
+      <c r="G71" s="41"/>
+      <c r="H71" s="46"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="41">
+      <c r="A72" s="42">
         <v>34</v>
       </c>
-      <c r="B72" s="45">
+      <c r="B72" s="43">
         <v>43454</v>
       </c>
-      <c r="C72" s="42">
+      <c r="C72" s="41">
         <v>6.21</v>
       </c>
-      <c r="D72" s="42">
+      <c r="D72" s="41">
         <v>186.3</v>
       </c>
-      <c r="E72" s="42">
+      <c r="E72" s="41">
         <v>3.57</v>
       </c>
-      <c r="F72" s="42"/>
-      <c r="G72" s="42">
+      <c r="F72" s="41"/>
+      <c r="G72" s="41">
         <v>4</v>
       </c>
-      <c r="H72" s="54"/>
+      <c r="H72" s="44"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="41"/>
-      <c r="B73" s="42"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="42"/>
-      <c r="E73" s="42"/>
-      <c r="F73" s="42"/>
-      <c r="G73" s="42"/>
-      <c r="H73" s="55"/>
+      <c r="A73" s="42"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="41"/>
+      <c r="D73" s="41"/>
+      <c r="E73" s="41"/>
+      <c r="F73" s="41"/>
+      <c r="G73" s="41"/>
+      <c r="H73" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="296">
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="L6:M7"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="L2:M3"/>
+    <mergeCell ref="J2:K3"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="J4:K5"/>
+    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="B66:B67"/>
     <mergeCell ref="C72:C73"/>
     <mergeCell ref="D72:D73"/>
     <mergeCell ref="E72:E73"/>
@@ -6430,278 +6706,6 @@
     <mergeCell ref="G68:G69"/>
     <mergeCell ref="A68:A69"/>
     <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="J6:K7"/>
-    <mergeCell ref="L6:M7"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="L2:M3"/>
-    <mergeCell ref="J2:K3"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="J4:K5"/>
-    <mergeCell ref="L4:M5"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/source/excel/AifianExecl.xlsx
+++ b/source/excel/AifianExecl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="18240" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="18696" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="收益紀錄表(new) " sheetId="7" r:id="rId1"/>
@@ -474,28 +474,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -510,14 +504,20 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1041,7 +1041,7 @@
                   <c:v>2085.6000000000004</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>2191.1999999999998</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0</c:v>
@@ -1453,7 +1453,7 @@
                   <c:v>39.997808219178083</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>42.023013698630137</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0</c:v>
@@ -3691,7 +3691,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G46" sqref="G46"/>
+      <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4809,24 +4809,28 @@
       <c r="B46" s="15">
         <v>43517</v>
       </c>
-      <c r="C46" s="19"/>
+      <c r="C46" s="19">
+        <v>6.6400000000000001E-2</v>
+      </c>
       <c r="D46" s="25">
         <f>投資金額!$B$2*'收益紀錄表(new) '!C46</f>
-        <v>0</v>
+        <v>2191.1999999999998</v>
       </c>
       <c r="E46" s="25">
         <f>D46/投資金額!$B$3*投資金額!$B$4</f>
-        <v>0</v>
+        <v>42.023013698630137</v>
       </c>
       <c r="F46" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42.023013698630137</v>
       </c>
       <c r="G46" s="37"/>
-      <c r="H46" s="33"/>
+      <c r="H46" s="33">
+        <v>42</v>
+      </c>
       <c r="I46" s="33">
         <f>(((H46/投資金額!$B$2)*投資金額!$B$3)/投資金額!$B$4)*100</f>
-        <v>0</v>
+        <v>6.6363636363636376</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -5098,7 +5102,7 @@
       </c>
       <c r="B5" s="26">
         <f>SUM('收益紀錄表(new) '!H19:H53)+1</f>
-        <v>283</v>
+        <v>325</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>28</v>
@@ -5141,7 +5145,7 @@
       </c>
       <c r="B2" s="22">
         <f>SUM('收益紀錄表(new) '!C1:C53)/50</f>
-        <v>6.8544000000000008E-2</v>
+        <v>6.9872000000000004E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -5150,7 +5154,7 @@
       </c>
       <c r="B3" s="13">
         <f>SUM('收益紀錄表(new) '!E2:E100)/50</f>
-        <v>7.3945315068493152</v>
+        <v>8.2349917808219182</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -5159,7 +5163,7 @@
       </c>
       <c r="B4" s="39">
         <f>SUM('收益紀錄表(new) '!D2:D100)/50</f>
-        <v>385.57199999999995</v>
+        <v>429.39599999999996</v>
       </c>
     </row>
   </sheetData>
@@ -5231,1135 +5235,1135 @@
       <c r="M1" s="40"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42">
+      <c r="A2" s="41">
         <v>1</v>
       </c>
-      <c r="B2" s="43">
+      <c r="B2" s="45">
         <v>43209</v>
       </c>
-      <c r="C2" s="41">
+      <c r="C2" s="42">
         <v>5.81</v>
       </c>
-      <c r="D2" s="41">
+      <c r="D2" s="42">
         <v>174.3</v>
       </c>
-      <c r="E2" s="41">
+      <c r="E2" s="42">
         <v>3.34</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="52" t="s">
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="52"/>
-      <c r="L2" s="51">
+      <c r="K2" s="50"/>
+      <c r="L2" s="49">
         <f>SUM(C:C)/33</f>
         <v>8.4699999999999989</v>
       </c>
-      <c r="M2" s="51"/>
+      <c r="M2" s="49"/>
     </row>
     <row r="3" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="42"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42">
+      <c r="A4" s="41">
         <v>2</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="45">
         <v>43216</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="42">
         <v>6.13</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="42">
         <v>183.9</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="42">
         <v>3.52</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="J4" s="49" t="s">
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="J4" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="49"/>
-      <c r="L4" s="50">
+      <c r="K4" s="47"/>
+      <c r="L4" s="48">
         <f>SUM(E:E)/33</f>
         <v>4.8678787878787873</v>
       </c>
-      <c r="M4" s="50"/>
+      <c r="M4" s="48"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42">
+      <c r="A6" s="41">
         <v>3</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="45">
         <v>43223</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="42">
         <v>6.02</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="42">
         <v>180.6</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="42">
         <v>3.46</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="J6" s="49" t="s">
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="J6" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="49"/>
-      <c r="L6" s="50">
+      <c r="K6" s="47"/>
+      <c r="L6" s="48">
         <f>SUM(D:D)/33</f>
         <v>254.10000000000002</v>
       </c>
-      <c r="M6" s="50"/>
+      <c r="M6" s="48"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="42">
+      <c r="A8" s="41">
         <v>4</v>
       </c>
-      <c r="B8" s="43">
+      <c r="B8" s="45">
         <v>43230</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="42">
         <v>5.96</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="42">
         <v>178.8</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="42">
         <v>3.42</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="42">
+      <c r="A10" s="41">
         <v>5</v>
       </c>
-      <c r="B10" s="43">
+      <c r="B10" s="45">
         <v>43237</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="42">
         <v>5.27</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="42">
         <v>158.1</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="42">
         <v>3.03</v>
       </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="42">
+      <c r="A12" s="41">
         <v>6</v>
       </c>
-      <c r="B12" s="43">
+      <c r="B12" s="45">
         <v>43244</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="42">
         <v>6.13</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="42">
         <v>183.9</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="42">
         <v>3.52</v>
       </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="42">
+      <c r="A14" s="41">
         <v>7</v>
       </c>
-      <c r="B14" s="43">
+      <c r="B14" s="45">
         <v>43251</v>
       </c>
-      <c r="C14" s="41">
+      <c r="C14" s="42">
         <v>6.13</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="42">
         <v>183.9</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="42">
         <v>3.52</v>
       </c>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42">
+      <c r="A16" s="41">
         <v>8</v>
       </c>
-      <c r="B16" s="43">
+      <c r="B16" s="45">
         <v>43258</v>
       </c>
-      <c r="C16" s="41">
+      <c r="C16" s="42">
         <v>6.15</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="42">
         <v>184.5</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="42">
         <v>3.53</v>
       </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="42">
+      <c r="A18" s="41">
         <v>9</v>
       </c>
-      <c r="B18" s="43">
+      <c r="B18" s="45">
         <v>43265</v>
       </c>
-      <c r="C18" s="41">
+      <c r="C18" s="42">
         <v>9.27</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="42">
         <v>278.10000000000002</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E18" s="42">
         <v>5.33</v>
       </c>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="53" t="s">
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="46" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="53"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="46"/>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="42">
+      <c r="A20" s="41">
         <v>10</v>
       </c>
-      <c r="B20" s="43">
+      <c r="B20" s="45">
         <v>43268</v>
       </c>
-      <c r="C20" s="41">
+      <c r="C20" s="42">
         <v>10.130000000000001</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="42">
         <v>303.89999999999998</v>
       </c>
-      <c r="E20" s="41">
+      <c r="E20" s="42">
         <v>5.82</v>
       </c>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="42"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42">
+      <c r="A22" s="41">
         <v>11</v>
       </c>
-      <c r="B22" s="43">
+      <c r="B22" s="45">
         <v>43279</v>
       </c>
-      <c r="C22" s="41">
+      <c r="C22" s="42">
         <v>12.41</v>
       </c>
-      <c r="D22" s="41">
+      <c r="D22" s="42">
         <v>372.3</v>
       </c>
-      <c r="E22" s="41">
+      <c r="E22" s="42">
         <v>7.14</v>
       </c>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="42"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="42">
+      <c r="A24" s="41">
         <v>12</v>
       </c>
-      <c r="B24" s="43">
+      <c r="B24" s="45">
         <v>43286</v>
       </c>
-      <c r="C24" s="41">
+      <c r="C24" s="42">
         <v>19.71</v>
       </c>
-      <c r="D24" s="41">
+      <c r="D24" s="42">
         <v>591.29999999999995</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E24" s="42">
         <v>11.34</v>
       </c>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="42"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="42">
+      <c r="A26" s="41">
         <v>13</v>
       </c>
-      <c r="B26" s="43">
+      <c r="B26" s="45">
         <v>43293</v>
       </c>
-      <c r="C26" s="41">
+      <c r="C26" s="42">
         <v>23</v>
       </c>
-      <c r="D26" s="41">
+      <c r="D26" s="42">
         <v>690</v>
       </c>
-      <c r="E26" s="41">
+      <c r="E26" s="42">
         <v>13.23</v>
       </c>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="53" t="s">
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="46" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="42"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="53"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="46"/>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="42">
+      <c r="A28" s="41">
         <v>14</v>
       </c>
-      <c r="B28" s="43">
+      <c r="B28" s="45">
         <v>43300</v>
       </c>
-      <c r="C28" s="41">
+      <c r="C28" s="42">
         <v>14.97</v>
       </c>
-      <c r="D28" s="41">
+      <c r="D28" s="42">
         <v>449.1</v>
       </c>
-      <c r="E28" s="41">
+      <c r="E28" s="42">
         <v>8.61</v>
       </c>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="42"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="42">
+      <c r="A30" s="41">
         <v>15</v>
       </c>
-      <c r="B30" s="43">
+      <c r="B30" s="45">
         <v>43307</v>
       </c>
-      <c r="C30" s="41">
+      <c r="C30" s="42">
         <v>7.67</v>
       </c>
-      <c r="D30" s="41">
+      <c r="D30" s="42">
         <v>230.1</v>
       </c>
-      <c r="E30" s="41">
+      <c r="E30" s="42">
         <v>4.41</v>
       </c>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="42"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="42">
+      <c r="A32" s="41">
         <v>16</v>
       </c>
-      <c r="B32" s="43">
+      <c r="B32" s="45">
         <v>43314</v>
       </c>
-      <c r="C32" s="41">
+      <c r="C32" s="42">
         <v>8.0299999999999994</v>
       </c>
-      <c r="D32" s="41">
+      <c r="D32" s="42">
         <v>240.9</v>
       </c>
-      <c r="E32" s="41">
+      <c r="E32" s="42">
         <v>4.62</v>
       </c>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="42"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="42">
+      <c r="A34" s="41">
         <v>17</v>
       </c>
-      <c r="B34" s="43">
+      <c r="B34" s="45">
         <v>43321</v>
       </c>
-      <c r="C34" s="41">
+      <c r="C34" s="42">
         <v>6.21</v>
       </c>
-      <c r="D34" s="41">
+      <c r="D34" s="42">
         <v>186.3</v>
       </c>
-      <c r="E34" s="41">
+      <c r="E34" s="42">
         <v>3.5</v>
       </c>
-      <c r="F34" s="41">
+      <c r="F34" s="42">
         <v>3000</v>
       </c>
-      <c r="G34" s="41"/>
-      <c r="H34" s="53" t="s">
+      <c r="G34" s="42"/>
+      <c r="H34" s="46" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="42"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="53"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="46"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="42">
+      <c r="A36" s="41">
         <v>18</v>
       </c>
-      <c r="B36" s="43">
+      <c r="B36" s="45">
         <v>43328</v>
       </c>
-      <c r="C36" s="41">
+      <c r="C36" s="42">
         <v>6.57</v>
       </c>
-      <c r="D36" s="41">
+      <c r="D36" s="42">
         <v>197.1</v>
       </c>
-      <c r="E36" s="41">
+      <c r="E36" s="42">
         <v>3.78</v>
       </c>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41">
+      <c r="F36" s="42"/>
+      <c r="G36" s="42">
         <v>4</v>
       </c>
-      <c r="H36" s="41"/>
+      <c r="H36" s="42"/>
     </row>
     <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="42"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
     </row>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="42">
+      <c r="A38" s="41">
         <v>19</v>
       </c>
-      <c r="B38" s="43">
+      <c r="B38" s="45">
         <v>43335</v>
       </c>
-      <c r="C38" s="41">
+      <c r="C38" s="42">
         <v>6.94</v>
       </c>
-      <c r="D38" s="41">
+      <c r="D38" s="42">
         <v>208.2</v>
       </c>
-      <c r="E38" s="41">
+      <c r="E38" s="42">
         <v>3.99</v>
       </c>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41">
+      <c r="F38" s="42"/>
+      <c r="G38" s="42">
         <v>4</v>
       </c>
-      <c r="H38" s="41"/>
+      <c r="H38" s="42"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="42"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="42">
+      <c r="A40" s="41">
         <v>20</v>
       </c>
-      <c r="B40" s="43">
+      <c r="B40" s="45">
         <v>43342</v>
       </c>
-      <c r="C40" s="41">
+      <c r="C40" s="42">
         <v>6.21</v>
       </c>
-      <c r="D40" s="41">
+      <c r="D40" s="42">
         <v>186.3</v>
       </c>
-      <c r="E40" s="41">
+      <c r="E40" s="42">
         <v>3.57</v>
       </c>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41">
+      <c r="F40" s="42"/>
+      <c r="G40" s="42">
         <v>4</v>
       </c>
-      <c r="H40" s="41"/>
+      <c r="H40" s="42"/>
     </row>
     <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="42"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="42">
+      <c r="A42" s="41">
         <v>21</v>
       </c>
-      <c r="B42" s="43">
+      <c r="B42" s="45">
         <v>43349</v>
       </c>
-      <c r="C42" s="41">
+      <c r="C42" s="42">
         <v>6.21</v>
       </c>
-      <c r="D42" s="41">
+      <c r="D42" s="42">
         <v>186.3</v>
       </c>
-      <c r="E42" s="41">
+      <c r="E42" s="42">
         <v>3.57</v>
       </c>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41">
+      <c r="F42" s="42"/>
+      <c r="G42" s="42">
         <v>4</v>
       </c>
-      <c r="H42" s="41"/>
+      <c r="H42" s="42"/>
     </row>
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="42"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="42">
+      <c r="A44" s="41">
         <v>22</v>
       </c>
-      <c r="B44" s="43">
+      <c r="B44" s="45">
         <v>43356</v>
       </c>
-      <c r="C44" s="41">
+      <c r="C44" s="42">
         <v>7.67</v>
       </c>
-      <c r="D44" s="41">
+      <c r="D44" s="42">
         <v>230.1</v>
       </c>
-      <c r="E44" s="41">
+      <c r="E44" s="42">
         <v>4.41</v>
       </c>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41">
+      <c r="F44" s="42"/>
+      <c r="G44" s="42">
         <v>4</v>
       </c>
-      <c r="H44" s="46" t="s">
+      <c r="H44" s="51" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="42"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="46"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="51"/>
     </row>
     <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="42">
+      <c r="A46" s="41">
         <v>23</v>
       </c>
-      <c r="B46" s="43">
+      <c r="B46" s="45">
         <v>43363</v>
       </c>
-      <c r="C46" s="41">
+      <c r="C46" s="42">
         <v>6.94</v>
       </c>
-      <c r="D46" s="41">
+      <c r="D46" s="42">
         <v>208.2</v>
       </c>
-      <c r="E46" s="41">
+      <c r="E46" s="42">
         <v>3.99</v>
       </c>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41">
+      <c r="F46" s="42"/>
+      <c r="G46" s="42">
         <v>4</v>
       </c>
-      <c r="H46" s="41"/>
+      <c r="H46" s="42"/>
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="42"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="42">
+      <c r="A48" s="41">
         <v>24</v>
       </c>
-      <c r="B48" s="43">
+      <c r="B48" s="45">
         <v>43370</v>
       </c>
-      <c r="C48" s="41">
+      <c r="C48" s="42">
         <v>6.57</v>
       </c>
-      <c r="D48" s="41">
+      <c r="D48" s="42">
         <v>197.1</v>
       </c>
-      <c r="E48" s="41">
+      <c r="E48" s="42">
         <v>3.78</v>
       </c>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41">
+      <c r="F48" s="42"/>
+      <c r="G48" s="42">
         <v>4</v>
       </c>
-      <c r="H48" s="41"/>
+      <c r="H48" s="42"/>
     </row>
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="42"/>
-      <c r="B49" s="41"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="42">
+      <c r="A50" s="41">
         <v>25</v>
       </c>
-      <c r="B50" s="43">
+      <c r="B50" s="45">
         <v>43377</v>
       </c>
-      <c r="C50" s="41">
+      <c r="C50" s="42">
         <v>6.21</v>
       </c>
-      <c r="D50" s="41">
+      <c r="D50" s="42">
         <v>186.3</v>
       </c>
-      <c r="E50" s="41">
+      <c r="E50" s="42">
         <v>3.57</v>
       </c>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41">
+      <c r="F50" s="42"/>
+      <c r="G50" s="42">
         <v>4</v>
       </c>
-      <c r="H50" s="41"/>
+      <c r="H50" s="42"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="42"/>
-      <c r="B51" s="41"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
     </row>
     <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="42">
+      <c r="A52" s="41">
         <v>26</v>
       </c>
-      <c r="B52" s="43">
+      <c r="B52" s="45">
         <v>43384</v>
       </c>
-      <c r="C52" s="41">
+      <c r="C52" s="42">
         <v>6.57</v>
       </c>
-      <c r="D52" s="41">
+      <c r="D52" s="42">
         <v>197.1</v>
       </c>
-      <c r="E52" s="41">
+      <c r="E52" s="42">
         <v>3.78</v>
       </c>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41">
+      <c r="F52" s="42"/>
+      <c r="G52" s="42">
         <v>4</v>
       </c>
-      <c r="H52" s="46" t="s">
+      <c r="H52" s="51" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="42"/>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="46"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="51"/>
     </row>
     <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="42">
+      <c r="A54" s="41">
         <v>27</v>
       </c>
-      <c r="B54" s="43">
+      <c r="B54" s="45">
         <v>43391</v>
       </c>
-      <c r="C54" s="41">
+      <c r="C54" s="42">
         <v>6.21</v>
       </c>
-      <c r="D54" s="41">
+      <c r="D54" s="42">
         <v>186.3</v>
       </c>
-      <c r="E54" s="41">
+      <c r="E54" s="42">
         <v>3.57</v>
       </c>
-      <c r="F54" s="41"/>
-      <c r="G54" s="41">
+      <c r="F54" s="42"/>
+      <c r="G54" s="42">
         <v>4</v>
       </c>
-      <c r="H54" s="41"/>
+      <c r="H54" s="42"/>
     </row>
     <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="42"/>
-      <c r="B55" s="41"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
     </row>
     <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="42">
+      <c r="A56" s="41">
         <v>28</v>
       </c>
-      <c r="B56" s="48">
+      <c r="B56" s="52">
         <v>43398</v>
       </c>
-      <c r="C56" s="47">
+      <c r="C56" s="53">
         <v>5.84</v>
       </c>
-      <c r="D56" s="47">
+      <c r="D56" s="53">
         <v>175.2</v>
       </c>
-      <c r="E56" s="47">
+      <c r="E56" s="53">
         <v>3.36</v>
       </c>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47">
+      <c r="F56" s="53"/>
+      <c r="G56" s="53">
         <v>3</v>
       </c>
-      <c r="H56" s="47" t="s">
+      <c r="H56" s="53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="42"/>
-      <c r="B57" s="47"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="47"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="53"/>
+      <c r="G57" s="53"/>
+      <c r="H57" s="53"/>
     </row>
     <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="42">
+      <c r="A58" s="41">
         <v>29</v>
       </c>
-      <c r="B58" s="43">
+      <c r="B58" s="45">
         <v>43405</v>
       </c>
-      <c r="C58" s="41">
+      <c r="C58" s="42">
         <v>6.21</v>
       </c>
-      <c r="D58" s="41">
+      <c r="D58" s="42">
         <v>186.3</v>
       </c>
-      <c r="E58" s="41">
+      <c r="E58" s="42">
         <v>3.57</v>
       </c>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41">
+      <c r="F58" s="42"/>
+      <c r="G58" s="42">
         <v>4</v>
       </c>
-      <c r="H58" s="41"/>
+      <c r="H58" s="42"/>
     </row>
     <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="42"/>
-      <c r="B59" s="41"/>
-      <c r="C59" s="41"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="41"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
     </row>
     <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="42">
+      <c r="A60" s="41">
         <v>30</v>
       </c>
-      <c r="B60" s="43">
+      <c r="B60" s="45">
         <v>43413</v>
       </c>
-      <c r="C60" s="41">
+      <c r="C60" s="42">
         <v>5.84</v>
       </c>
-      <c r="D60" s="47">
+      <c r="D60" s="53">
         <v>175.2</v>
       </c>
-      <c r="E60" s="47">
+      <c r="E60" s="53">
         <v>3.36</v>
       </c>
-      <c r="F60" s="47"/>
-      <c r="G60" s="47">
+      <c r="F60" s="53"/>
+      <c r="G60" s="53">
         <v>3</v>
       </c>
-      <c r="H60" s="41"/>
+      <c r="H60" s="42"/>
     </row>
     <row r="61" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="42"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="47"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="47"/>
-      <c r="H61" s="41"/>
+      <c r="A61" s="41"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="53"/>
+      <c r="G61" s="53"/>
+      <c r="H61" s="42"/>
     </row>
     <row r="62" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="42">
+      <c r="A62" s="41">
         <v>31</v>
       </c>
-      <c r="B62" s="43">
+      <c r="B62" s="45">
         <v>43419</v>
       </c>
-      <c r="C62" s="41">
+      <c r="C62" s="42">
         <v>5.48</v>
       </c>
-      <c r="D62" s="47">
+      <c r="D62" s="53">
         <v>164.4</v>
       </c>
-      <c r="E62" s="47">
+      <c r="E62" s="53">
         <v>3.15</v>
       </c>
-      <c r="F62" s="47"/>
-      <c r="G62" s="47">
+      <c r="F62" s="53"/>
+      <c r="G62" s="53">
         <v>3</v>
       </c>
-      <c r="H62" s="41"/>
+      <c r="H62" s="42"/>
     </row>
     <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="42"/>
-      <c r="B63" s="41"/>
-      <c r="C63" s="41"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="47"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="47"/>
-      <c r="H63" s="41"/>
+      <c r="A63" s="41"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="53"/>
+      <c r="G63" s="53"/>
+      <c r="H63" s="42"/>
     </row>
     <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="42">
+      <c r="A64" s="41">
         <v>32</v>
       </c>
-      <c r="B64" s="43">
+      <c r="B64" s="45">
         <v>43426</v>
       </c>
-      <c r="C64" s="41">
+      <c r="C64" s="42">
         <v>6.21</v>
       </c>
-      <c r="D64" s="41">
+      <c r="D64" s="42">
         <v>186.3</v>
       </c>
-      <c r="E64" s="41">
+      <c r="E64" s="42">
         <v>3.57</v>
       </c>
-      <c r="F64" s="41"/>
-      <c r="G64" s="41">
+      <c r="F64" s="42"/>
+      <c r="G64" s="42">
         <v>4</v>
       </c>
-      <c r="H64" s="41"/>
+      <c r="H64" s="42"/>
     </row>
     <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="42"/>
-      <c r="B65" s="41"/>
-      <c r="C65" s="41"/>
-      <c r="D65" s="41"/>
-      <c r="E65" s="41"/>
-      <c r="F65" s="41"/>
-      <c r="G65" s="41"/>
-      <c r="H65" s="41"/>
+      <c r="A65" s="41"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
     </row>
     <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="42">
+      <c r="A66" s="41">
         <v>33</v>
       </c>
-      <c r="B66" s="43">
+      <c r="B66" s="45">
         <v>43433</v>
       </c>
-      <c r="C66" s="41">
+      <c r="C66" s="42">
         <v>6.57</v>
       </c>
-      <c r="D66" s="41">
+      <c r="D66" s="42">
         <v>197.1</v>
       </c>
-      <c r="E66" s="41">
+      <c r="E66" s="42">
         <v>3.78</v>
       </c>
-      <c r="F66" s="41"/>
-      <c r="G66" s="41">
+      <c r="F66" s="42"/>
+      <c r="G66" s="42">
         <v>4</v>
       </c>
-      <c r="H66" s="41"/>
+      <c r="H66" s="42"/>
     </row>
     <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="42"/>
-      <c r="B67" s="41"/>
-      <c r="C67" s="41"/>
-      <c r="D67" s="41"/>
-      <c r="E67" s="41"/>
-      <c r="F67" s="41"/>
-      <c r="G67" s="41"/>
-      <c r="H67" s="41"/>
+      <c r="A67" s="41"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="42">
+      <c r="A68" s="41">
         <v>33</v>
       </c>
-      <c r="B68" s="43">
+      <c r="B68" s="45">
         <v>43440</v>
       </c>
-      <c r="C68" s="41">
+      <c r="C68" s="42">
         <v>5.48</v>
       </c>
-      <c r="D68" s="47">
+      <c r="D68" s="53">
         <v>164.4</v>
       </c>
-      <c r="E68" s="47">
+      <c r="E68" s="53">
         <v>3.15</v>
       </c>
-      <c r="F68" s="47"/>
-      <c r="G68" s="47">
+      <c r="F68" s="53"/>
+      <c r="G68" s="53">
         <v>3</v>
       </c>
-      <c r="H68" s="41"/>
+      <c r="H68" s="42"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="42"/>
-      <c r="B69" s="41"/>
-      <c r="C69" s="41"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="47"/>
-      <c r="F69" s="47"/>
-      <c r="G69" s="47"/>
-      <c r="H69" s="41"/>
+      <c r="A69" s="41"/>
+      <c r="B69" s="42"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="53"/>
+      <c r="G69" s="53"/>
+      <c r="H69" s="42"/>
     </row>
     <row r="70" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="42">
+      <c r="A70" s="41">
         <v>33</v>
       </c>
-      <c r="B70" s="43">
+      <c r="B70" s="45">
         <v>43447</v>
       </c>
-      <c r="C70" s="41">
+      <c r="C70" s="42">
         <v>6.57</v>
       </c>
-      <c r="D70" s="41">
+      <c r="D70" s="42">
         <v>197.1</v>
       </c>
-      <c r="E70" s="41">
+      <c r="E70" s="42">
         <v>3.78</v>
       </c>
-      <c r="F70" s="41"/>
-      <c r="G70" s="41">
+      <c r="F70" s="42"/>
+      <c r="G70" s="42">
         <v>4</v>
       </c>
-      <c r="H70" s="46" t="s">
+      <c r="H70" s="51" t="s">
         <v>17</v>
       </c>
       <c r="J70" s="4">
@@ -6367,113 +6371,257 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="42"/>
-      <c r="B71" s="41"/>
-      <c r="C71" s="41"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="41"/>
-      <c r="F71" s="41"/>
-      <c r="G71" s="41"/>
-      <c r="H71" s="46"/>
+      <c r="A71" s="41"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="51"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="42">
+      <c r="A72" s="41">
         <v>34</v>
       </c>
-      <c r="B72" s="43">
+      <c r="B72" s="45">
         <v>43454</v>
       </c>
-      <c r="C72" s="41">
+      <c r="C72" s="42">
         <v>6.21</v>
       </c>
-      <c r="D72" s="41">
+      <c r="D72" s="42">
         <v>186.3</v>
       </c>
-      <c r="E72" s="41">
+      <c r="E72" s="42">
         <v>3.57</v>
       </c>
-      <c r="F72" s="41"/>
-      <c r="G72" s="41">
+      <c r="F72" s="42"/>
+      <c r="G72" s="42">
         <v>4</v>
       </c>
-      <c r="H72" s="44"/>
+      <c r="H72" s="54"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="42"/>
-      <c r="B73" s="41"/>
-      <c r="C73" s="41"/>
-      <c r="D73" s="41"/>
-      <c r="E73" s="41"/>
-      <c r="F73" s="41"/>
-      <c r="G73" s="41"/>
-      <c r="H73" s="45"/>
+      <c r="A73" s="41"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="296">
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="L6:M7"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="L2:M3"/>
+    <mergeCell ref="J2:K3"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="J4:K5"/>
+    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="G16:G17"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="B14:B15"/>
@@ -6498,214 +6646,70 @@
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="J6:K7"/>
-    <mergeCell ref="L6:M7"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="L2:M3"/>
-    <mergeCell ref="J2:K3"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="J4:K5"/>
-    <mergeCell ref="L4:M5"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/source/excel/AifianExecl.xlsx
+++ b/source/excel/AifianExecl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="18696" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="19152" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="收益紀錄表(new) " sheetId="7" r:id="rId1"/>
@@ -474,22 +474,28 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -504,20 +510,14 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1044,7 +1044,7 @@
                   <c:v>2191.1999999999998</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>2032.8</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0</c:v>
@@ -1456,7 +1456,7 @@
                   <c:v>42.023013698630137</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>38.985205479452048</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0</c:v>
@@ -3690,8 +3690,8 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4840,24 +4840,28 @@
       <c r="B47" s="15">
         <v>43524</v>
       </c>
-      <c r="C47" s="19"/>
+      <c r="C47" s="19">
+        <v>6.1600000000000002E-2</v>
+      </c>
       <c r="D47" s="25">
         <f>投資金額!$B$2*'收益紀錄表(new) '!C47</f>
-        <v>0</v>
+        <v>2032.8</v>
       </c>
       <c r="E47" s="25">
         <f>D47/投資金額!$B$3*投資金額!$B$4</f>
-        <v>0</v>
+        <v>38.985205479452048</v>
       </c>
       <c r="F47" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>38.985205479452048</v>
       </c>
       <c r="G47" s="37"/>
-      <c r="H47" s="33"/>
+      <c r="H47" s="33">
+        <v>39</v>
+      </c>
       <c r="I47" s="33">
         <f>(((H47/投資金額!$B$2)*投資金額!$B$3)/投資金額!$B$4)*100</f>
-        <v>0</v>
+        <v>6.1623376623376629</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -5102,7 +5106,7 @@
       </c>
       <c r="B5" s="26">
         <f>SUM('收益紀錄表(new) '!H19:H53)+1</f>
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>28</v>
@@ -5145,7 +5149,7 @@
       </c>
       <c r="B2" s="22">
         <f>SUM('收益紀錄表(new) '!C1:C53)/50</f>
-        <v>6.9872000000000004E-2</v>
+        <v>7.1104000000000001E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -5154,7 +5158,7 @@
       </c>
       <c r="B3" s="13">
         <f>SUM('收益紀錄表(new) '!E2:E100)/50</f>
-        <v>8.2349917808219182</v>
+        <v>9.0146958904109571</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -5163,7 +5167,7 @@
       </c>
       <c r="B4" s="39">
         <f>SUM('收益紀錄表(new) '!D2:D100)/50</f>
-        <v>429.39599999999996</v>
+        <v>470.05199999999996</v>
       </c>
     </row>
   </sheetData>
@@ -5235,1135 +5239,1135 @@
       <c r="M1" s="40"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41">
+      <c r="A2" s="42">
         <v>1</v>
       </c>
-      <c r="B2" s="45">
+      <c r="B2" s="43">
         <v>43209</v>
       </c>
-      <c r="C2" s="42">
+      <c r="C2" s="41">
         <v>5.81</v>
       </c>
-      <c r="D2" s="42">
+      <c r="D2" s="41">
         <v>174.3</v>
       </c>
-      <c r="E2" s="42">
+      <c r="E2" s="41">
         <v>3.34</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="50" t="s">
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="50"/>
-      <c r="L2" s="49">
+      <c r="K2" s="52"/>
+      <c r="L2" s="51">
         <f>SUM(C:C)/33</f>
         <v>8.4699999999999989</v>
       </c>
-      <c r="M2" s="49"/>
+      <c r="M2" s="51"/>
     </row>
     <row r="3" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="41"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="41">
+      <c r="A4" s="42">
         <v>2</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="43">
         <v>43216</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="41">
         <v>6.13</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="41">
         <v>183.9</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="41">
         <v>3.52</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="J4" s="47" t="s">
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="J4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="47"/>
-      <c r="L4" s="48">
+      <c r="K4" s="49"/>
+      <c r="L4" s="50">
         <f>SUM(E:E)/33</f>
         <v>4.8678787878787873</v>
       </c>
-      <c r="M4" s="48"/>
+      <c r="M4" s="50"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41">
+      <c r="A6" s="42">
         <v>3</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="43">
         <v>43223</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="41">
         <v>6.02</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="41">
         <v>180.6</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="41">
         <v>3.46</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="J6" s="47" t="s">
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="J6" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="47"/>
-      <c r="L6" s="48">
+      <c r="K6" s="49"/>
+      <c r="L6" s="50">
         <f>SUM(D:D)/33</f>
         <v>254.10000000000002</v>
       </c>
-      <c r="M6" s="48"/>
+      <c r="M6" s="50"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="41"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="41">
+      <c r="A8" s="42">
         <v>4</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="43">
         <v>43230</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="41">
         <v>5.96</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="41">
         <v>178.8</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="41">
         <v>3.42</v>
       </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="41"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41">
+      <c r="A10" s="42">
         <v>5</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="43">
         <v>43237</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="41">
         <v>5.27</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="41">
         <v>158.1</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="41">
         <v>3.03</v>
       </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="41"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41">
+      <c r="A12" s="42">
         <v>6</v>
       </c>
-      <c r="B12" s="45">
+      <c r="B12" s="43">
         <v>43244</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="41">
         <v>6.13</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="41">
         <v>183.9</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="41">
         <v>3.52</v>
       </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="41"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="41">
+      <c r="A14" s="42">
         <v>7</v>
       </c>
-      <c r="B14" s="45">
+      <c r="B14" s="43">
         <v>43251</v>
       </c>
-      <c r="C14" s="42">
+      <c r="C14" s="41">
         <v>6.13</v>
       </c>
-      <c r="D14" s="42">
+      <c r="D14" s="41">
         <v>183.9</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="41">
         <v>3.52</v>
       </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="41">
+      <c r="A16" s="42">
         <v>8</v>
       </c>
-      <c r="B16" s="45">
+      <c r="B16" s="43">
         <v>43258</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C16" s="41">
         <v>6.15</v>
       </c>
-      <c r="D16" s="42">
+      <c r="D16" s="41">
         <v>184.5</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="41">
         <v>3.53</v>
       </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="41"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="41">
+      <c r="A18" s="42">
         <v>9</v>
       </c>
-      <c r="B18" s="45">
+      <c r="B18" s="43">
         <v>43265</v>
       </c>
-      <c r="C18" s="42">
+      <c r="C18" s="41">
         <v>9.27</v>
       </c>
-      <c r="D18" s="42">
+      <c r="D18" s="41">
         <v>278.10000000000002</v>
       </c>
-      <c r="E18" s="42">
+      <c r="E18" s="41">
         <v>5.33</v>
       </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="46" t="s">
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="53" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="41"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="46"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="53"/>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="41">
+      <c r="A20" s="42">
         <v>10</v>
       </c>
-      <c r="B20" s="45">
+      <c r="B20" s="43">
         <v>43268</v>
       </c>
-      <c r="C20" s="42">
+      <c r="C20" s="41">
         <v>10.130000000000001</v>
       </c>
-      <c r="D20" s="42">
+      <c r="D20" s="41">
         <v>303.89999999999998</v>
       </c>
-      <c r="E20" s="42">
+      <c r="E20" s="41">
         <v>5.82</v>
       </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="41"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="41">
+      <c r="A22" s="42">
         <v>11</v>
       </c>
-      <c r="B22" s="45">
+      <c r="B22" s="43">
         <v>43279</v>
       </c>
-      <c r="C22" s="42">
+      <c r="C22" s="41">
         <v>12.41</v>
       </c>
-      <c r="D22" s="42">
+      <c r="D22" s="41">
         <v>372.3</v>
       </c>
-      <c r="E22" s="42">
+      <c r="E22" s="41">
         <v>7.14</v>
       </c>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="41"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="41">
+      <c r="A24" s="42">
         <v>12</v>
       </c>
-      <c r="B24" s="45">
+      <c r="B24" s="43">
         <v>43286</v>
       </c>
-      <c r="C24" s="42">
+      <c r="C24" s="41">
         <v>19.71</v>
       </c>
-      <c r="D24" s="42">
+      <c r="D24" s="41">
         <v>591.29999999999995</v>
       </c>
-      <c r="E24" s="42">
+      <c r="E24" s="41">
         <v>11.34</v>
       </c>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="41"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="41">
+      <c r="A26" s="42">
         <v>13</v>
       </c>
-      <c r="B26" s="45">
+      <c r="B26" s="43">
         <v>43293</v>
       </c>
-      <c r="C26" s="42">
+      <c r="C26" s="41">
         <v>23</v>
       </c>
-      <c r="D26" s="42">
+      <c r="D26" s="41">
         <v>690</v>
       </c>
-      <c r="E26" s="42">
+      <c r="E26" s="41">
         <v>13.23</v>
       </c>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="46" t="s">
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="53" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="41"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="46"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="53"/>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="41">
+      <c r="A28" s="42">
         <v>14</v>
       </c>
-      <c r="B28" s="45">
+      <c r="B28" s="43">
         <v>43300</v>
       </c>
-      <c r="C28" s="42">
+      <c r="C28" s="41">
         <v>14.97</v>
       </c>
-      <c r="D28" s="42">
+      <c r="D28" s="41">
         <v>449.1</v>
       </c>
-      <c r="E28" s="42">
+      <c r="E28" s="41">
         <v>8.61</v>
       </c>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="41"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="41">
+      <c r="A30" s="42">
         <v>15</v>
       </c>
-      <c r="B30" s="45">
+      <c r="B30" s="43">
         <v>43307</v>
       </c>
-      <c r="C30" s="42">
+      <c r="C30" s="41">
         <v>7.67</v>
       </c>
-      <c r="D30" s="42">
+      <c r="D30" s="41">
         <v>230.1</v>
       </c>
-      <c r="E30" s="42">
+      <c r="E30" s="41">
         <v>4.41</v>
       </c>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="41"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="41">
+      <c r="A32" s="42">
         <v>16</v>
       </c>
-      <c r="B32" s="45">
+      <c r="B32" s="43">
         <v>43314</v>
       </c>
-      <c r="C32" s="42">
+      <c r="C32" s="41">
         <v>8.0299999999999994</v>
       </c>
-      <c r="D32" s="42">
+      <c r="D32" s="41">
         <v>240.9</v>
       </c>
-      <c r="E32" s="42">
+      <c r="E32" s="41">
         <v>4.62</v>
       </c>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="41"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="41">
+      <c r="A34" s="42">
         <v>17</v>
       </c>
-      <c r="B34" s="45">
+      <c r="B34" s="43">
         <v>43321</v>
       </c>
-      <c r="C34" s="42">
+      <c r="C34" s="41">
         <v>6.21</v>
       </c>
-      <c r="D34" s="42">
+      <c r="D34" s="41">
         <v>186.3</v>
       </c>
-      <c r="E34" s="42">
+      <c r="E34" s="41">
         <v>3.5</v>
       </c>
-      <c r="F34" s="42">
+      <c r="F34" s="41">
         <v>3000</v>
       </c>
-      <c r="G34" s="42"/>
-      <c r="H34" s="46" t="s">
+      <c r="G34" s="41"/>
+      <c r="H34" s="53" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="41"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="46"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="53"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="41">
+      <c r="A36" s="42">
         <v>18</v>
       </c>
-      <c r="B36" s="45">
+      <c r="B36" s="43">
         <v>43328</v>
       </c>
-      <c r="C36" s="42">
+      <c r="C36" s="41">
         <v>6.57</v>
       </c>
-      <c r="D36" s="42">
+      <c r="D36" s="41">
         <v>197.1</v>
       </c>
-      <c r="E36" s="42">
+      <c r="E36" s="41">
         <v>3.78</v>
       </c>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42">
+      <c r="F36" s="41"/>
+      <c r="G36" s="41">
         <v>4</v>
       </c>
-      <c r="H36" s="42"/>
+      <c r="H36" s="41"/>
     </row>
     <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="41"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
     </row>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="41">
+      <c r="A38" s="42">
         <v>19</v>
       </c>
-      <c r="B38" s="45">
+      <c r="B38" s="43">
         <v>43335</v>
       </c>
-      <c r="C38" s="42">
+      <c r="C38" s="41">
         <v>6.94</v>
       </c>
-      <c r="D38" s="42">
+      <c r="D38" s="41">
         <v>208.2</v>
       </c>
-      <c r="E38" s="42">
+      <c r="E38" s="41">
         <v>3.99</v>
       </c>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42">
+      <c r="F38" s="41"/>
+      <c r="G38" s="41">
         <v>4</v>
       </c>
-      <c r="H38" s="42"/>
+      <c r="H38" s="41"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="41"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
+      <c r="A39" s="42"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="41">
+      <c r="A40" s="42">
         <v>20</v>
       </c>
-      <c r="B40" s="45">
+      <c r="B40" s="43">
         <v>43342</v>
       </c>
-      <c r="C40" s="42">
+      <c r="C40" s="41">
         <v>6.21</v>
       </c>
-      <c r="D40" s="42">
+      <c r="D40" s="41">
         <v>186.3</v>
       </c>
-      <c r="E40" s="42">
+      <c r="E40" s="41">
         <v>3.57</v>
       </c>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42">
+      <c r="F40" s="41"/>
+      <c r="G40" s="41">
         <v>4</v>
       </c>
-      <c r="H40" s="42"/>
+      <c r="H40" s="41"/>
     </row>
     <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="41"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
+      <c r="A41" s="42"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="41">
+      <c r="A42" s="42">
         <v>21</v>
       </c>
-      <c r="B42" s="45">
+      <c r="B42" s="43">
         <v>43349</v>
       </c>
-      <c r="C42" s="42">
+      <c r="C42" s="41">
         <v>6.21</v>
       </c>
-      <c r="D42" s="42">
+      <c r="D42" s="41">
         <v>186.3</v>
       </c>
-      <c r="E42" s="42">
+      <c r="E42" s="41">
         <v>3.57</v>
       </c>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42">
+      <c r="F42" s="41"/>
+      <c r="G42" s="41">
         <v>4</v>
       </c>
-      <c r="H42" s="42"/>
+      <c r="H42" s="41"/>
     </row>
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="41"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="41">
+      <c r="A44" s="42">
         <v>22</v>
       </c>
-      <c r="B44" s="45">
+      <c r="B44" s="43">
         <v>43356</v>
       </c>
-      <c r="C44" s="42">
+      <c r="C44" s="41">
         <v>7.67</v>
       </c>
-      <c r="D44" s="42">
+      <c r="D44" s="41">
         <v>230.1</v>
       </c>
-      <c r="E44" s="42">
+      <c r="E44" s="41">
         <v>4.41</v>
       </c>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42">
+      <c r="F44" s="41"/>
+      <c r="G44" s="41">
         <v>4</v>
       </c>
-      <c r="H44" s="51" t="s">
+      <c r="H44" s="46" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="41"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="51"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="46"/>
     </row>
     <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="41">
+      <c r="A46" s="42">
         <v>23</v>
       </c>
-      <c r="B46" s="45">
+      <c r="B46" s="43">
         <v>43363</v>
       </c>
-      <c r="C46" s="42">
+      <c r="C46" s="41">
         <v>6.94</v>
       </c>
-      <c r="D46" s="42">
+      <c r="D46" s="41">
         <v>208.2</v>
       </c>
-      <c r="E46" s="42">
+      <c r="E46" s="41">
         <v>3.99</v>
       </c>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42">
+      <c r="F46" s="41"/>
+      <c r="G46" s="41">
         <v>4</v>
       </c>
-      <c r="H46" s="42"/>
+      <c r="H46" s="41"/>
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="41"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
+      <c r="A47" s="42"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="41">
+      <c r="A48" s="42">
         <v>24</v>
       </c>
-      <c r="B48" s="45">
+      <c r="B48" s="43">
         <v>43370</v>
       </c>
-      <c r="C48" s="42">
+      <c r="C48" s="41">
         <v>6.57</v>
       </c>
-      <c r="D48" s="42">
+      <c r="D48" s="41">
         <v>197.1</v>
       </c>
-      <c r="E48" s="42">
+      <c r="E48" s="41">
         <v>3.78</v>
       </c>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42">
+      <c r="F48" s="41"/>
+      <c r="G48" s="41">
         <v>4</v>
       </c>
-      <c r="H48" s="42"/>
+      <c r="H48" s="41"/>
     </row>
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="41"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
+      <c r="A49" s="42"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="41">
+      <c r="A50" s="42">
         <v>25</v>
       </c>
-      <c r="B50" s="45">
+      <c r="B50" s="43">
         <v>43377</v>
       </c>
-      <c r="C50" s="42">
+      <c r="C50" s="41">
         <v>6.21</v>
       </c>
-      <c r="D50" s="42">
+      <c r="D50" s="41">
         <v>186.3</v>
       </c>
-      <c r="E50" s="42">
+      <c r="E50" s="41">
         <v>3.57</v>
       </c>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42">
+      <c r="F50" s="41"/>
+      <c r="G50" s="41">
         <v>4</v>
       </c>
-      <c r="H50" s="42"/>
+      <c r="H50" s="41"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="41"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
+      <c r="A51" s="42"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
     </row>
     <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="41">
+      <c r="A52" s="42">
         <v>26</v>
       </c>
-      <c r="B52" s="45">
+      <c r="B52" s="43">
         <v>43384</v>
       </c>
-      <c r="C52" s="42">
+      <c r="C52" s="41">
         <v>6.57</v>
       </c>
-      <c r="D52" s="42">
+      <c r="D52" s="41">
         <v>197.1</v>
       </c>
-      <c r="E52" s="42">
+      <c r="E52" s="41">
         <v>3.78</v>
       </c>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42">
+      <c r="F52" s="41"/>
+      <c r="G52" s="41">
         <v>4</v>
       </c>
-      <c r="H52" s="51" t="s">
+      <c r="H52" s="46" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="41"/>
-      <c r="B53" s="42"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="42"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="42"/>
-      <c r="H53" s="51"/>
+      <c r="A53" s="42"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="46"/>
     </row>
     <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="41">
+      <c r="A54" s="42">
         <v>27</v>
       </c>
-      <c r="B54" s="45">
+      <c r="B54" s="43">
         <v>43391</v>
       </c>
-      <c r="C54" s="42">
+      <c r="C54" s="41">
         <v>6.21</v>
       </c>
-      <c r="D54" s="42">
+      <c r="D54" s="41">
         <v>186.3</v>
       </c>
-      <c r="E54" s="42">
+      <c r="E54" s="41">
         <v>3.57</v>
       </c>
-      <c r="F54" s="42"/>
-      <c r="G54" s="42">
+      <c r="F54" s="41"/>
+      <c r="G54" s="41">
         <v>4</v>
       </c>
-      <c r="H54" s="42"/>
+      <c r="H54" s="41"/>
     </row>
     <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="41"/>
-      <c r="B55" s="42"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="42"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
     </row>
     <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="41">
+      <c r="A56" s="42">
         <v>28</v>
       </c>
-      <c r="B56" s="52">
+      <c r="B56" s="48">
         <v>43398</v>
       </c>
-      <c r="C56" s="53">
+      <c r="C56" s="47">
         <v>5.84</v>
       </c>
-      <c r="D56" s="53">
+      <c r="D56" s="47">
         <v>175.2</v>
       </c>
-      <c r="E56" s="53">
+      <c r="E56" s="47">
         <v>3.36</v>
       </c>
-      <c r="F56" s="53"/>
-      <c r="G56" s="53">
+      <c r="F56" s="47"/>
+      <c r="G56" s="47">
         <v>3</v>
       </c>
-      <c r="H56" s="53" t="s">
+      <c r="H56" s="47" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="41"/>
-      <c r="B57" s="53"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="53"/>
-      <c r="F57" s="53"/>
-      <c r="G57" s="53"/>
-      <c r="H57" s="53"/>
+      <c r="A57" s="42"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="47"/>
     </row>
     <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="41">
+      <c r="A58" s="42">
         <v>29</v>
       </c>
-      <c r="B58" s="45">
+      <c r="B58" s="43">
         <v>43405</v>
       </c>
-      <c r="C58" s="42">
+      <c r="C58" s="41">
         <v>6.21</v>
       </c>
-      <c r="D58" s="42">
+      <c r="D58" s="41">
         <v>186.3</v>
       </c>
-      <c r="E58" s="42">
+      <c r="E58" s="41">
         <v>3.57</v>
       </c>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42">
+      <c r="F58" s="41"/>
+      <c r="G58" s="41">
         <v>4</v>
       </c>
-      <c r="H58" s="42"/>
+      <c r="H58" s="41"/>
     </row>
     <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="41"/>
-      <c r="B59" s="42"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="42"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="42"/>
+      <c r="A59" s="42"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
     </row>
     <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="41">
+      <c r="A60" s="42">
         <v>30</v>
       </c>
-      <c r="B60" s="45">
+      <c r="B60" s="43">
         <v>43413</v>
       </c>
-      <c r="C60" s="42">
+      <c r="C60" s="41">
         <v>5.84</v>
       </c>
-      <c r="D60" s="53">
+      <c r="D60" s="47">
         <v>175.2</v>
       </c>
-      <c r="E60" s="53">
+      <c r="E60" s="47">
         <v>3.36</v>
       </c>
-      <c r="F60" s="53"/>
-      <c r="G60" s="53">
+      <c r="F60" s="47"/>
+      <c r="G60" s="47">
         <v>3</v>
       </c>
-      <c r="H60" s="42"/>
+      <c r="H60" s="41"/>
     </row>
     <row r="61" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="41"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="53"/>
-      <c r="E61" s="53"/>
-      <c r="F61" s="53"/>
-      <c r="G61" s="53"/>
-      <c r="H61" s="42"/>
+      <c r="A61" s="42"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="47"/>
+      <c r="H61" s="41"/>
     </row>
     <row r="62" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="41">
+      <c r="A62" s="42">
         <v>31</v>
       </c>
-      <c r="B62" s="45">
+      <c r="B62" s="43">
         <v>43419</v>
       </c>
-      <c r="C62" s="42">
+      <c r="C62" s="41">
         <v>5.48</v>
       </c>
-      <c r="D62" s="53">
+      <c r="D62" s="47">
         <v>164.4</v>
       </c>
-      <c r="E62" s="53">
+      <c r="E62" s="47">
         <v>3.15</v>
       </c>
-      <c r="F62" s="53"/>
-      <c r="G62" s="53">
+      <c r="F62" s="47"/>
+      <c r="G62" s="47">
         <v>3</v>
       </c>
-      <c r="H62" s="42"/>
+      <c r="H62" s="41"/>
     </row>
     <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="41"/>
-      <c r="B63" s="42"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="53"/>
-      <c r="E63" s="53"/>
-      <c r="F63" s="53"/>
-      <c r="G63" s="53"/>
-      <c r="H63" s="42"/>
+      <c r="A63" s="42"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="47"/>
+      <c r="E63" s="47"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="47"/>
+      <c r="H63" s="41"/>
     </row>
     <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="41">
+      <c r="A64" s="42">
         <v>32</v>
       </c>
-      <c r="B64" s="45">
+      <c r="B64" s="43">
         <v>43426</v>
       </c>
-      <c r="C64" s="42">
+      <c r="C64" s="41">
         <v>6.21</v>
       </c>
-      <c r="D64" s="42">
+      <c r="D64" s="41">
         <v>186.3</v>
       </c>
-      <c r="E64" s="42">
+      <c r="E64" s="41">
         <v>3.57</v>
       </c>
-      <c r="F64" s="42"/>
-      <c r="G64" s="42">
+      <c r="F64" s="41"/>
+      <c r="G64" s="41">
         <v>4</v>
       </c>
-      <c r="H64" s="42"/>
+      <c r="H64" s="41"/>
     </row>
     <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="41"/>
-      <c r="B65" s="42"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="42"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="42"/>
-      <c r="H65" s="42"/>
+      <c r="A65" s="42"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="41"/>
+      <c r="H65" s="41"/>
     </row>
     <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="41">
+      <c r="A66" s="42">
         <v>33</v>
       </c>
-      <c r="B66" s="45">
+      <c r="B66" s="43">
         <v>43433</v>
       </c>
-      <c r="C66" s="42">
+      <c r="C66" s="41">
         <v>6.57</v>
       </c>
-      <c r="D66" s="42">
+      <c r="D66" s="41">
         <v>197.1</v>
       </c>
-      <c r="E66" s="42">
+      <c r="E66" s="41">
         <v>3.78</v>
       </c>
-      <c r="F66" s="42"/>
-      <c r="G66" s="42">
+      <c r="F66" s="41"/>
+      <c r="G66" s="41">
         <v>4</v>
       </c>
-      <c r="H66" s="42"/>
+      <c r="H66" s="41"/>
     </row>
     <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="41"/>
-      <c r="B67" s="42"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="42"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="42"/>
-      <c r="G67" s="42"/>
-      <c r="H67" s="42"/>
+      <c r="A67" s="42"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="41"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="41"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="41">
+      <c r="A68" s="42">
         <v>33</v>
       </c>
-      <c r="B68" s="45">
+      <c r="B68" s="43">
         <v>43440</v>
       </c>
-      <c r="C68" s="42">
+      <c r="C68" s="41">
         <v>5.48</v>
       </c>
-      <c r="D68" s="53">
+      <c r="D68" s="47">
         <v>164.4</v>
       </c>
-      <c r="E68" s="53">
+      <c r="E68" s="47">
         <v>3.15</v>
       </c>
-      <c r="F68" s="53"/>
-      <c r="G68" s="53">
+      <c r="F68" s="47"/>
+      <c r="G68" s="47">
         <v>3</v>
       </c>
-      <c r="H68" s="42"/>
+      <c r="H68" s="41"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="41"/>
-      <c r="B69" s="42"/>
-      <c r="C69" s="42"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="53"/>
-      <c r="G69" s="53"/>
-      <c r="H69" s="42"/>
+      <c r="A69" s="42"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="41"/>
     </row>
     <row r="70" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="41">
+      <c r="A70" s="42">
         <v>33</v>
       </c>
-      <c r="B70" s="45">
+      <c r="B70" s="43">
         <v>43447</v>
       </c>
-      <c r="C70" s="42">
+      <c r="C70" s="41">
         <v>6.57</v>
       </c>
-      <c r="D70" s="42">
+      <c r="D70" s="41">
         <v>197.1</v>
       </c>
-      <c r="E70" s="42">
+      <c r="E70" s="41">
         <v>3.78</v>
       </c>
-      <c r="F70" s="42"/>
-      <c r="G70" s="42">
+      <c r="F70" s="41"/>
+      <c r="G70" s="41">
         <v>4</v>
       </c>
-      <c r="H70" s="51" t="s">
+      <c r="H70" s="46" t="s">
         <v>17</v>
       </c>
       <c r="J70" s="4">
@@ -6371,49 +6375,321 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="41"/>
-      <c r="B71" s="42"/>
-      <c r="C71" s="42"/>
-      <c r="D71" s="42"/>
-      <c r="E71" s="42"/>
-      <c r="F71" s="42"/>
-      <c r="G71" s="42"/>
-      <c r="H71" s="51"/>
+      <c r="A71" s="42"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="41"/>
+      <c r="F71" s="41"/>
+      <c r="G71" s="41"/>
+      <c r="H71" s="46"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="41">
+      <c r="A72" s="42">
         <v>34</v>
       </c>
-      <c r="B72" s="45">
+      <c r="B72" s="43">
         <v>43454</v>
       </c>
-      <c r="C72" s="42">
+      <c r="C72" s="41">
         <v>6.21</v>
       </c>
-      <c r="D72" s="42">
+      <c r="D72" s="41">
         <v>186.3</v>
       </c>
-      <c r="E72" s="42">
+      <c r="E72" s="41">
         <v>3.57</v>
       </c>
-      <c r="F72" s="42"/>
-      <c r="G72" s="42">
+      <c r="F72" s="41"/>
+      <c r="G72" s="41">
         <v>4</v>
       </c>
-      <c r="H72" s="54"/>
+      <c r="H72" s="44"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="41"/>
-      <c r="B73" s="42"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="42"/>
-      <c r="E73" s="42"/>
-      <c r="F73" s="42"/>
-      <c r="G73" s="42"/>
-      <c r="H73" s="55"/>
+      <c r="A73" s="42"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="41"/>
+      <c r="D73" s="41"/>
+      <c r="E73" s="41"/>
+      <c r="F73" s="41"/>
+      <c r="G73" s="41"/>
+      <c r="H73" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="296">
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="L6:M7"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="L2:M3"/>
+    <mergeCell ref="J2:K3"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="J4:K5"/>
+    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="B66:B67"/>
     <mergeCell ref="C72:C73"/>
     <mergeCell ref="D72:D73"/>
     <mergeCell ref="E72:E73"/>
@@ -6438,278 +6714,6 @@
     <mergeCell ref="G68:G69"/>
     <mergeCell ref="A68:A69"/>
     <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="J6:K7"/>
-    <mergeCell ref="L6:M7"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="L2:M3"/>
-    <mergeCell ref="J2:K3"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="J4:K5"/>
-    <mergeCell ref="L4:M5"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/source/excel/AifianExecl.xlsx
+++ b/source/excel/AifianExecl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="19152" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="19608" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="收益紀錄表(new) " sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>日期</t>
   </si>
@@ -186,6 +186,10 @@
   </si>
   <si>
     <t>收益金回推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aifian贊助35$，開放贊助功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -474,28 +478,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -510,14 +508,20 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3690,8 +3694,8 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4855,7 +4859,9 @@
         <f t="shared" si="0"/>
         <v>38.985205479452048</v>
       </c>
-      <c r="G47" s="37"/>
+      <c r="G47" s="37" t="s">
+        <v>43</v>
+      </c>
       <c r="H47" s="33">
         <v>39</v>
       </c>
@@ -5038,7 +5044,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q72" sqref="Q72"/>
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -5054,7 +5060,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -5105,8 +5111,8 @@
         <v>26</v>
       </c>
       <c r="B5" s="26">
-        <f>SUM('收益紀錄表(new) '!H19:H53)+1</f>
-        <v>364</v>
+        <f>SUM('收益紀錄表(new) '!H19:H53)+1+35</f>
+        <v>399</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>28</v>
@@ -5239,1135 +5245,1135 @@
       <c r="M1" s="40"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42">
+      <c r="A2" s="41">
         <v>1</v>
       </c>
-      <c r="B2" s="43">
+      <c r="B2" s="45">
         <v>43209</v>
       </c>
-      <c r="C2" s="41">
+      <c r="C2" s="42">
         <v>5.81</v>
       </c>
-      <c r="D2" s="41">
+      <c r="D2" s="42">
         <v>174.3</v>
       </c>
-      <c r="E2" s="41">
+      <c r="E2" s="42">
         <v>3.34</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="52" t="s">
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="52"/>
-      <c r="L2" s="51">
+      <c r="K2" s="50"/>
+      <c r="L2" s="49">
         <f>SUM(C:C)/33</f>
         <v>8.4699999999999989</v>
       </c>
-      <c r="M2" s="51"/>
+      <c r="M2" s="49"/>
     </row>
     <row r="3" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="42"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42">
+      <c r="A4" s="41">
         <v>2</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="45">
         <v>43216</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="42">
         <v>6.13</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="42">
         <v>183.9</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="42">
         <v>3.52</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="J4" s="49" t="s">
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="J4" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="49"/>
-      <c r="L4" s="50">
+      <c r="K4" s="47"/>
+      <c r="L4" s="48">
         <f>SUM(E:E)/33</f>
         <v>4.8678787878787873</v>
       </c>
-      <c r="M4" s="50"/>
+      <c r="M4" s="48"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42">
+      <c r="A6" s="41">
         <v>3</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="45">
         <v>43223</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="42">
         <v>6.02</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="42">
         <v>180.6</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="42">
         <v>3.46</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="J6" s="49" t="s">
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="J6" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="49"/>
-      <c r="L6" s="50">
+      <c r="K6" s="47"/>
+      <c r="L6" s="48">
         <f>SUM(D:D)/33</f>
         <v>254.10000000000002</v>
       </c>
-      <c r="M6" s="50"/>
+      <c r="M6" s="48"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="42">
+      <c r="A8" s="41">
         <v>4</v>
       </c>
-      <c r="B8" s="43">
+      <c r="B8" s="45">
         <v>43230</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="42">
         <v>5.96</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="42">
         <v>178.8</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="42">
         <v>3.42</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="42">
+      <c r="A10" s="41">
         <v>5</v>
       </c>
-      <c r="B10" s="43">
+      <c r="B10" s="45">
         <v>43237</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="42">
         <v>5.27</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="42">
         <v>158.1</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="42">
         <v>3.03</v>
       </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="42">
+      <c r="A12" s="41">
         <v>6</v>
       </c>
-      <c r="B12" s="43">
+      <c r="B12" s="45">
         <v>43244</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="42">
         <v>6.13</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="42">
         <v>183.9</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="42">
         <v>3.52</v>
       </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="42">
+      <c r="A14" s="41">
         <v>7</v>
       </c>
-      <c r="B14" s="43">
+      <c r="B14" s="45">
         <v>43251</v>
       </c>
-      <c r="C14" s="41">
+      <c r="C14" s="42">
         <v>6.13</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="42">
         <v>183.9</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="42">
         <v>3.52</v>
       </c>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42">
+      <c r="A16" s="41">
         <v>8</v>
       </c>
-      <c r="B16" s="43">
+      <c r="B16" s="45">
         <v>43258</v>
       </c>
-      <c r="C16" s="41">
+      <c r="C16" s="42">
         <v>6.15</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="42">
         <v>184.5</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="42">
         <v>3.53</v>
       </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="42">
+      <c r="A18" s="41">
         <v>9</v>
       </c>
-      <c r="B18" s="43">
+      <c r="B18" s="45">
         <v>43265</v>
       </c>
-      <c r="C18" s="41">
+      <c r="C18" s="42">
         <v>9.27</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="42">
         <v>278.10000000000002</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E18" s="42">
         <v>5.33</v>
       </c>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="53" t="s">
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="46" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="53"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="46"/>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="42">
+      <c r="A20" s="41">
         <v>10</v>
       </c>
-      <c r="B20" s="43">
+      <c r="B20" s="45">
         <v>43268</v>
       </c>
-      <c r="C20" s="41">
+      <c r="C20" s="42">
         <v>10.130000000000001</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="42">
         <v>303.89999999999998</v>
       </c>
-      <c r="E20" s="41">
+      <c r="E20" s="42">
         <v>5.82</v>
       </c>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="42"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42">
+      <c r="A22" s="41">
         <v>11</v>
       </c>
-      <c r="B22" s="43">
+      <c r="B22" s="45">
         <v>43279</v>
       </c>
-      <c r="C22" s="41">
+      <c r="C22" s="42">
         <v>12.41</v>
       </c>
-      <c r="D22" s="41">
+      <c r="D22" s="42">
         <v>372.3</v>
       </c>
-      <c r="E22" s="41">
+      <c r="E22" s="42">
         <v>7.14</v>
       </c>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="42"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="42">
+      <c r="A24" s="41">
         <v>12</v>
       </c>
-      <c r="B24" s="43">
+      <c r="B24" s="45">
         <v>43286</v>
       </c>
-      <c r="C24" s="41">
+      <c r="C24" s="42">
         <v>19.71</v>
       </c>
-      <c r="D24" s="41">
+      <c r="D24" s="42">
         <v>591.29999999999995</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E24" s="42">
         <v>11.34</v>
       </c>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="42"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="42">
+      <c r="A26" s="41">
         <v>13</v>
       </c>
-      <c r="B26" s="43">
+      <c r="B26" s="45">
         <v>43293</v>
       </c>
-      <c r="C26" s="41">
+      <c r="C26" s="42">
         <v>23</v>
       </c>
-      <c r="D26" s="41">
+      <c r="D26" s="42">
         <v>690</v>
       </c>
-      <c r="E26" s="41">
+      <c r="E26" s="42">
         <v>13.23</v>
       </c>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="53" t="s">
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="46" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="42"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="53"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="46"/>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="42">
+      <c r="A28" s="41">
         <v>14</v>
       </c>
-      <c r="B28" s="43">
+      <c r="B28" s="45">
         <v>43300</v>
       </c>
-      <c r="C28" s="41">
+      <c r="C28" s="42">
         <v>14.97</v>
       </c>
-      <c r="D28" s="41">
+      <c r="D28" s="42">
         <v>449.1</v>
       </c>
-      <c r="E28" s="41">
+      <c r="E28" s="42">
         <v>8.61</v>
       </c>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="42"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="42">
+      <c r="A30" s="41">
         <v>15</v>
       </c>
-      <c r="B30" s="43">
+      <c r="B30" s="45">
         <v>43307</v>
       </c>
-      <c r="C30" s="41">
+      <c r="C30" s="42">
         <v>7.67</v>
       </c>
-      <c r="D30" s="41">
+      <c r="D30" s="42">
         <v>230.1</v>
       </c>
-      <c r="E30" s="41">
+      <c r="E30" s="42">
         <v>4.41</v>
       </c>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="42"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="42">
+      <c r="A32" s="41">
         <v>16</v>
       </c>
-      <c r="B32" s="43">
+      <c r="B32" s="45">
         <v>43314</v>
       </c>
-      <c r="C32" s="41">
+      <c r="C32" s="42">
         <v>8.0299999999999994</v>
       </c>
-      <c r="D32" s="41">
+      <c r="D32" s="42">
         <v>240.9</v>
       </c>
-      <c r="E32" s="41">
+      <c r="E32" s="42">
         <v>4.62</v>
       </c>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="42"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="42">
+      <c r="A34" s="41">
         <v>17</v>
       </c>
-      <c r="B34" s="43">
+      <c r="B34" s="45">
         <v>43321</v>
       </c>
-      <c r="C34" s="41">
+      <c r="C34" s="42">
         <v>6.21</v>
       </c>
-      <c r="D34" s="41">
+      <c r="D34" s="42">
         <v>186.3</v>
       </c>
-      <c r="E34" s="41">
+      <c r="E34" s="42">
         <v>3.5</v>
       </c>
-      <c r="F34" s="41">
+      <c r="F34" s="42">
         <v>3000</v>
       </c>
-      <c r="G34" s="41"/>
-      <c r="H34" s="53" t="s">
+      <c r="G34" s="42"/>
+      <c r="H34" s="46" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="42"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="53"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="46"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="42">
+      <c r="A36" s="41">
         <v>18</v>
       </c>
-      <c r="B36" s="43">
+      <c r="B36" s="45">
         <v>43328</v>
       </c>
-      <c r="C36" s="41">
+      <c r="C36" s="42">
         <v>6.57</v>
       </c>
-      <c r="D36" s="41">
+      <c r="D36" s="42">
         <v>197.1</v>
       </c>
-      <c r="E36" s="41">
+      <c r="E36" s="42">
         <v>3.78</v>
       </c>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41">
+      <c r="F36" s="42"/>
+      <c r="G36" s="42">
         <v>4</v>
       </c>
-      <c r="H36" s="41"/>
+      <c r="H36" s="42"/>
     </row>
     <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="42"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
     </row>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="42">
+      <c r="A38" s="41">
         <v>19</v>
       </c>
-      <c r="B38" s="43">
+      <c r="B38" s="45">
         <v>43335</v>
       </c>
-      <c r="C38" s="41">
+      <c r="C38" s="42">
         <v>6.94</v>
       </c>
-      <c r="D38" s="41">
+      <c r="D38" s="42">
         <v>208.2</v>
       </c>
-      <c r="E38" s="41">
+      <c r="E38" s="42">
         <v>3.99</v>
       </c>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41">
+      <c r="F38" s="42"/>
+      <c r="G38" s="42">
         <v>4</v>
       </c>
-      <c r="H38" s="41"/>
+      <c r="H38" s="42"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="42"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="42">
+      <c r="A40" s="41">
         <v>20</v>
       </c>
-      <c r="B40" s="43">
+      <c r="B40" s="45">
         <v>43342</v>
       </c>
-      <c r="C40" s="41">
+      <c r="C40" s="42">
         <v>6.21</v>
       </c>
-      <c r="D40" s="41">
+      <c r="D40" s="42">
         <v>186.3</v>
       </c>
-      <c r="E40" s="41">
+      <c r="E40" s="42">
         <v>3.57</v>
       </c>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41">
+      <c r="F40" s="42"/>
+      <c r="G40" s="42">
         <v>4</v>
       </c>
-      <c r="H40" s="41"/>
+      <c r="H40" s="42"/>
     </row>
     <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="42"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="42">
+      <c r="A42" s="41">
         <v>21</v>
       </c>
-      <c r="B42" s="43">
+      <c r="B42" s="45">
         <v>43349</v>
       </c>
-      <c r="C42" s="41">
+      <c r="C42" s="42">
         <v>6.21</v>
       </c>
-      <c r="D42" s="41">
+      <c r="D42" s="42">
         <v>186.3</v>
       </c>
-      <c r="E42" s="41">
+      <c r="E42" s="42">
         <v>3.57</v>
       </c>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41">
+      <c r="F42" s="42"/>
+      <c r="G42" s="42">
         <v>4</v>
       </c>
-      <c r="H42" s="41"/>
+      <c r="H42" s="42"/>
     </row>
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="42"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="42">
+      <c r="A44" s="41">
         <v>22</v>
       </c>
-      <c r="B44" s="43">
+      <c r="B44" s="45">
         <v>43356</v>
       </c>
-      <c r="C44" s="41">
+      <c r="C44" s="42">
         <v>7.67</v>
       </c>
-      <c r="D44" s="41">
+      <c r="D44" s="42">
         <v>230.1</v>
       </c>
-      <c r="E44" s="41">
+      <c r="E44" s="42">
         <v>4.41</v>
       </c>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41">
+      <c r="F44" s="42"/>
+      <c r="G44" s="42">
         <v>4</v>
       </c>
-      <c r="H44" s="46" t="s">
+      <c r="H44" s="51" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="42"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="46"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="51"/>
     </row>
     <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="42">
+      <c r="A46" s="41">
         <v>23</v>
       </c>
-      <c r="B46" s="43">
+      <c r="B46" s="45">
         <v>43363</v>
       </c>
-      <c r="C46" s="41">
+      <c r="C46" s="42">
         <v>6.94</v>
       </c>
-      <c r="D46" s="41">
+      <c r="D46" s="42">
         <v>208.2</v>
       </c>
-      <c r="E46" s="41">
+      <c r="E46" s="42">
         <v>3.99</v>
       </c>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41">
+      <c r="F46" s="42"/>
+      <c r="G46" s="42">
         <v>4</v>
       </c>
-      <c r="H46" s="41"/>
+      <c r="H46" s="42"/>
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="42"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="42">
+      <c r="A48" s="41">
         <v>24</v>
       </c>
-      <c r="B48" s="43">
+      <c r="B48" s="45">
         <v>43370</v>
       </c>
-      <c r="C48" s="41">
+      <c r="C48" s="42">
         <v>6.57</v>
       </c>
-      <c r="D48" s="41">
+      <c r="D48" s="42">
         <v>197.1</v>
       </c>
-      <c r="E48" s="41">
+      <c r="E48" s="42">
         <v>3.78</v>
       </c>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41">
+      <c r="F48" s="42"/>
+      <c r="G48" s="42">
         <v>4</v>
       </c>
-      <c r="H48" s="41"/>
+      <c r="H48" s="42"/>
     </row>
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="42"/>
-      <c r="B49" s="41"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="42">
+      <c r="A50" s="41">
         <v>25</v>
       </c>
-      <c r="B50" s="43">
+      <c r="B50" s="45">
         <v>43377</v>
       </c>
-      <c r="C50" s="41">
+      <c r="C50" s="42">
         <v>6.21</v>
       </c>
-      <c r="D50" s="41">
+      <c r="D50" s="42">
         <v>186.3</v>
       </c>
-      <c r="E50" s="41">
+      <c r="E50" s="42">
         <v>3.57</v>
       </c>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41">
+      <c r="F50" s="42"/>
+      <c r="G50" s="42">
         <v>4</v>
       </c>
-      <c r="H50" s="41"/>
+      <c r="H50" s="42"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="42"/>
-      <c r="B51" s="41"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
     </row>
     <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="42">
+      <c r="A52" s="41">
         <v>26</v>
       </c>
-      <c r="B52" s="43">
+      <c r="B52" s="45">
         <v>43384</v>
       </c>
-      <c r="C52" s="41">
+      <c r="C52" s="42">
         <v>6.57</v>
       </c>
-      <c r="D52" s="41">
+      <c r="D52" s="42">
         <v>197.1</v>
       </c>
-      <c r="E52" s="41">
+      <c r="E52" s="42">
         <v>3.78</v>
       </c>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41">
+      <c r="F52" s="42"/>
+      <c r="G52" s="42">
         <v>4</v>
       </c>
-      <c r="H52" s="46" t="s">
+      <c r="H52" s="51" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="42"/>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="46"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="51"/>
     </row>
     <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="42">
+      <c r="A54" s="41">
         <v>27</v>
       </c>
-      <c r="B54" s="43">
+      <c r="B54" s="45">
         <v>43391</v>
       </c>
-      <c r="C54" s="41">
+      <c r="C54" s="42">
         <v>6.21</v>
       </c>
-      <c r="D54" s="41">
+      <c r="D54" s="42">
         <v>186.3</v>
       </c>
-      <c r="E54" s="41">
+      <c r="E54" s="42">
         <v>3.57</v>
       </c>
-      <c r="F54" s="41"/>
-      <c r="G54" s="41">
+      <c r="F54" s="42"/>
+      <c r="G54" s="42">
         <v>4</v>
       </c>
-      <c r="H54" s="41"/>
+      <c r="H54" s="42"/>
     </row>
     <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="42"/>
-      <c r="B55" s="41"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
     </row>
     <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="42">
+      <c r="A56" s="41">
         <v>28</v>
       </c>
-      <c r="B56" s="48">
+      <c r="B56" s="52">
         <v>43398</v>
       </c>
-      <c r="C56" s="47">
+      <c r="C56" s="53">
         <v>5.84</v>
       </c>
-      <c r="D56" s="47">
+      <c r="D56" s="53">
         <v>175.2</v>
       </c>
-      <c r="E56" s="47">
+      <c r="E56" s="53">
         <v>3.36</v>
       </c>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47">
+      <c r="F56" s="53"/>
+      <c r="G56" s="53">
         <v>3</v>
       </c>
-      <c r="H56" s="47" t="s">
+      <c r="H56" s="53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="42"/>
-      <c r="B57" s="47"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="47"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="53"/>
+      <c r="G57" s="53"/>
+      <c r="H57" s="53"/>
     </row>
     <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="42">
+      <c r="A58" s="41">
         <v>29</v>
       </c>
-      <c r="B58" s="43">
+      <c r="B58" s="45">
         <v>43405</v>
       </c>
-      <c r="C58" s="41">
+      <c r="C58" s="42">
         <v>6.21</v>
       </c>
-      <c r="D58" s="41">
+      <c r="D58" s="42">
         <v>186.3</v>
       </c>
-      <c r="E58" s="41">
+      <c r="E58" s="42">
         <v>3.57</v>
       </c>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41">
+      <c r="F58" s="42"/>
+      <c r="G58" s="42">
         <v>4</v>
       </c>
-      <c r="H58" s="41"/>
+      <c r="H58" s="42"/>
     </row>
     <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="42"/>
-      <c r="B59" s="41"/>
-      <c r="C59" s="41"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="41"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
     </row>
     <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="42">
+      <c r="A60" s="41">
         <v>30</v>
       </c>
-      <c r="B60" s="43">
+      <c r="B60" s="45">
         <v>43413</v>
       </c>
-      <c r="C60" s="41">
+      <c r="C60" s="42">
         <v>5.84</v>
       </c>
-      <c r="D60" s="47">
+      <c r="D60" s="53">
         <v>175.2</v>
       </c>
-      <c r="E60" s="47">
+      <c r="E60" s="53">
         <v>3.36</v>
       </c>
-      <c r="F60" s="47"/>
-      <c r="G60" s="47">
+      <c r="F60" s="53"/>
+      <c r="G60" s="53">
         <v>3</v>
       </c>
-      <c r="H60" s="41"/>
+      <c r="H60" s="42"/>
     </row>
     <row r="61" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="42"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="47"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="47"/>
-      <c r="H61" s="41"/>
+      <c r="A61" s="41"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="53"/>
+      <c r="G61" s="53"/>
+      <c r="H61" s="42"/>
     </row>
     <row r="62" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="42">
+      <c r="A62" s="41">
         <v>31</v>
       </c>
-      <c r="B62" s="43">
+      <c r="B62" s="45">
         <v>43419</v>
       </c>
-      <c r="C62" s="41">
+      <c r="C62" s="42">
         <v>5.48</v>
       </c>
-      <c r="D62" s="47">
+      <c r="D62" s="53">
         <v>164.4</v>
       </c>
-      <c r="E62" s="47">
+      <c r="E62" s="53">
         <v>3.15</v>
       </c>
-      <c r="F62" s="47"/>
-      <c r="G62" s="47">
+      <c r="F62" s="53"/>
+      <c r="G62" s="53">
         <v>3</v>
       </c>
-      <c r="H62" s="41"/>
+      <c r="H62" s="42"/>
     </row>
     <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="42"/>
-      <c r="B63" s="41"/>
-      <c r="C63" s="41"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="47"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="47"/>
-      <c r="H63" s="41"/>
+      <c r="A63" s="41"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="53"/>
+      <c r="G63" s="53"/>
+      <c r="H63" s="42"/>
     </row>
     <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="42">
+      <c r="A64" s="41">
         <v>32</v>
       </c>
-      <c r="B64" s="43">
+      <c r="B64" s="45">
         <v>43426</v>
       </c>
-      <c r="C64" s="41">
+      <c r="C64" s="42">
         <v>6.21</v>
       </c>
-      <c r="D64" s="41">
+      <c r="D64" s="42">
         <v>186.3</v>
       </c>
-      <c r="E64" s="41">
+      <c r="E64" s="42">
         <v>3.57</v>
       </c>
-      <c r="F64" s="41"/>
-      <c r="G64" s="41">
+      <c r="F64" s="42"/>
+      <c r="G64" s="42">
         <v>4</v>
       </c>
-      <c r="H64" s="41"/>
+      <c r="H64" s="42"/>
     </row>
     <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="42"/>
-      <c r="B65" s="41"/>
-      <c r="C65" s="41"/>
-      <c r="D65" s="41"/>
-      <c r="E65" s="41"/>
-      <c r="F65" s="41"/>
-      <c r="G65" s="41"/>
-      <c r="H65" s="41"/>
+      <c r="A65" s="41"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
     </row>
     <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="42">
+      <c r="A66" s="41">
         <v>33</v>
       </c>
-      <c r="B66" s="43">
+      <c r="B66" s="45">
         <v>43433</v>
       </c>
-      <c r="C66" s="41">
+      <c r="C66" s="42">
         <v>6.57</v>
       </c>
-      <c r="D66" s="41">
+      <c r="D66" s="42">
         <v>197.1</v>
       </c>
-      <c r="E66" s="41">
+      <c r="E66" s="42">
         <v>3.78</v>
       </c>
-      <c r="F66" s="41"/>
-      <c r="G66" s="41">
+      <c r="F66" s="42"/>
+      <c r="G66" s="42">
         <v>4</v>
       </c>
-      <c r="H66" s="41"/>
+      <c r="H66" s="42"/>
     </row>
     <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="42"/>
-      <c r="B67" s="41"/>
-      <c r="C67" s="41"/>
-      <c r="D67" s="41"/>
-      <c r="E67" s="41"/>
-      <c r="F67" s="41"/>
-      <c r="G67" s="41"/>
-      <c r="H67" s="41"/>
+      <c r="A67" s="41"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="42">
+      <c r="A68" s="41">
         <v>33</v>
       </c>
-      <c r="B68" s="43">
+      <c r="B68" s="45">
         <v>43440</v>
       </c>
-      <c r="C68" s="41">
+      <c r="C68" s="42">
         <v>5.48</v>
       </c>
-      <c r="D68" s="47">
+      <c r="D68" s="53">
         <v>164.4</v>
       </c>
-      <c r="E68" s="47">
+      <c r="E68" s="53">
         <v>3.15</v>
       </c>
-      <c r="F68" s="47"/>
-      <c r="G68" s="47">
+      <c r="F68" s="53"/>
+      <c r="G68" s="53">
         <v>3</v>
       </c>
-      <c r="H68" s="41"/>
+      <c r="H68" s="42"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="42"/>
-      <c r="B69" s="41"/>
-      <c r="C69" s="41"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="47"/>
-      <c r="F69" s="47"/>
-      <c r="G69" s="47"/>
-      <c r="H69" s="41"/>
+      <c r="A69" s="41"/>
+      <c r="B69" s="42"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="53"/>
+      <c r="G69" s="53"/>
+      <c r="H69" s="42"/>
     </row>
     <row r="70" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="42">
+      <c r="A70" s="41">
         <v>33</v>
       </c>
-      <c r="B70" s="43">
+      <c r="B70" s="45">
         <v>43447</v>
       </c>
-      <c r="C70" s="41">
+      <c r="C70" s="42">
         <v>6.57</v>
       </c>
-      <c r="D70" s="41">
+      <c r="D70" s="42">
         <v>197.1</v>
       </c>
-      <c r="E70" s="41">
+      <c r="E70" s="42">
         <v>3.78</v>
       </c>
-      <c r="F70" s="41"/>
-      <c r="G70" s="41">
+      <c r="F70" s="42"/>
+      <c r="G70" s="42">
         <v>4</v>
       </c>
-      <c r="H70" s="46" t="s">
+      <c r="H70" s="51" t="s">
         <v>17</v>
       </c>
       <c r="J70" s="4">
@@ -6375,113 +6381,257 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="42"/>
-      <c r="B71" s="41"/>
-      <c r="C71" s="41"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="41"/>
-      <c r="F71" s="41"/>
-      <c r="G71" s="41"/>
-      <c r="H71" s="46"/>
+      <c r="A71" s="41"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="51"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="42">
+      <c r="A72" s="41">
         <v>34</v>
       </c>
-      <c r="B72" s="43">
+      <c r="B72" s="45">
         <v>43454</v>
       </c>
-      <c r="C72" s="41">
+      <c r="C72" s="42">
         <v>6.21</v>
       </c>
-      <c r="D72" s="41">
+      <c r="D72" s="42">
         <v>186.3</v>
       </c>
-      <c r="E72" s="41">
+      <c r="E72" s="42">
         <v>3.57</v>
       </c>
-      <c r="F72" s="41"/>
-      <c r="G72" s="41">
+      <c r="F72" s="42"/>
+      <c r="G72" s="42">
         <v>4</v>
       </c>
-      <c r="H72" s="44"/>
+      <c r="H72" s="54"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="42"/>
-      <c r="B73" s="41"/>
-      <c r="C73" s="41"/>
-      <c r="D73" s="41"/>
-      <c r="E73" s="41"/>
-      <c r="F73" s="41"/>
-      <c r="G73" s="41"/>
-      <c r="H73" s="45"/>
+      <c r="A73" s="41"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="296">
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="L6:M7"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="L2:M3"/>
+    <mergeCell ref="J2:K3"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="J4:K5"/>
+    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="G16:G17"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="B14:B15"/>
@@ -6506,214 +6656,70 @@
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="J6:K7"/>
-    <mergeCell ref="L6:M7"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="L2:M3"/>
-    <mergeCell ref="J2:K3"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="J4:K5"/>
-    <mergeCell ref="L4:M5"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/source/excel/AifianExecl.xlsx
+++ b/source/excel/AifianExecl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="19608" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="20064" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="收益紀錄表(new) " sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>日期</t>
   </si>
@@ -190,6 +190,10 @@
   </si>
   <si>
     <t>Aifian贊助35$，開放贊助功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aifian再度開放回饋率，所以1/31號開始重新修正歷史收益</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,22 +482,28 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -508,20 +518,14 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1036,22 +1040,22 @@
                   <c:v>2649.9</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2762.1</c:v>
+                  <c:v>2772</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2399.1</c:v>
+                  <c:v>2409</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>2085.6000000000004</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2191.1999999999998</c:v>
+                  <c:v>2168.1</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2032.8</c:v>
+                  <c:v>2049.3000000000002</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>2049.3000000000002</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0</c:v>
@@ -1448,22 +1452,22 @@
                   <c:v>50.820000000000007</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>52.971780821917811</c:v>
+                  <c:v>53.161643835616438</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>46.010136986301369</c:v>
+                  <c:v>46.199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>39.997808219178083</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>42.023013698630137</c:v>
+                  <c:v>41.58</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>38.985205479452048</c:v>
+                  <c:v>39.301643835616446</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>39.301643835616446</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0</c:v>
@@ -3693,9 +3697,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
+      <selection pane="bottomLeft" activeCell="P48" sqref="P48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4719,19 +4723,19 @@
         <v>43496</v>
       </c>
       <c r="C43" s="19">
-        <v>8.3699999999999997E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="D43" s="25">
         <f>投資金額!$B$2*'收益紀錄表(new) '!C43</f>
-        <v>2762.1</v>
+        <v>2772</v>
       </c>
       <c r="E43" s="25">
         <f>D43/投資金額!$B$3*投資金額!$B$4</f>
-        <v>52.971780821917811</v>
+        <v>53.161643835616438</v>
       </c>
       <c r="F43" s="24">
         <f t="shared" ref="F43:F53" si="0">E43</f>
-        <v>52.971780821917811</v>
+        <v>53.161643835616438</v>
       </c>
       <c r="G43" s="37" t="s">
         <v>41</v>
@@ -4739,10 +4743,7 @@
       <c r="H43" s="33">
         <v>53</v>
       </c>
-      <c r="I43" s="33">
-        <f>(((H43/投資金額!$B$2)*投資金額!$B$3)/投資金額!$B$4)*100</f>
-        <v>8.3744588744588739</v>
-      </c>
+      <c r="I43" s="33"/>
     </row>
     <row r="44" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="36">
@@ -4752,28 +4753,25 @@
         <v>43503</v>
       </c>
       <c r="C44" s="19">
-        <v>7.2700000000000001E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="D44" s="25">
         <f>投資金額!$B$2*'收益紀錄表(new) '!C44</f>
-        <v>2399.1</v>
+        <v>2409</v>
       </c>
       <c r="E44" s="25">
         <f>D44/投資金額!$B$3*投資金額!$B$4</f>
-        <v>46.010136986301369</v>
+        <v>46.199999999999996</v>
       </c>
       <c r="F44" s="24">
         <f t="shared" si="0"/>
-        <v>46.010136986301369</v>
+        <v>46.199999999999996</v>
       </c>
       <c r="G44" s="37"/>
       <c r="H44" s="33">
         <v>46</v>
       </c>
-      <c r="I44" s="33">
-        <f>(((H44/投資金額!$B$2)*投資金額!$B$3)/投資金額!$B$4)*100</f>
-        <v>7.2683982683982684</v>
-      </c>
+      <c r="I44" s="33"/>
     </row>
     <row r="45" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="36">
@@ -4801,10 +4799,7 @@
       <c r="H45" s="33">
         <v>40</v>
       </c>
-      <c r="I45" s="33">
-        <f>(((H45/投資金額!$B$2)*投資金額!$B$3)/投資金額!$B$4)*100</f>
-        <v>6.3203463203463208</v>
-      </c>
+      <c r="I45" s="33"/>
     </row>
     <row r="46" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="36">
@@ -4814,28 +4809,25 @@
         <v>43517</v>
       </c>
       <c r="C46" s="19">
-        <v>6.6400000000000001E-2</v>
+        <v>6.5699999999999995E-2</v>
       </c>
       <c r="D46" s="25">
         <f>投資金額!$B$2*'收益紀錄表(new) '!C46</f>
-        <v>2191.1999999999998</v>
+        <v>2168.1</v>
       </c>
       <c r="E46" s="25">
         <f>D46/投資金額!$B$3*投資金額!$B$4</f>
-        <v>42.023013698630137</v>
+        <v>41.58</v>
       </c>
       <c r="F46" s="24">
         <f t="shared" si="0"/>
-        <v>42.023013698630137</v>
+        <v>41.58</v>
       </c>
       <c r="G46" s="37"/>
       <c r="H46" s="33">
         <v>42</v>
       </c>
-      <c r="I46" s="33">
-        <f>(((H46/投資金額!$B$2)*投資金額!$B$3)/投資金額!$B$4)*100</f>
-        <v>6.6363636363636376</v>
-      </c>
+      <c r="I46" s="33"/>
     </row>
     <row r="47" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="36">
@@ -4845,19 +4837,19 @@
         <v>43524</v>
       </c>
       <c r="C47" s="19">
-        <v>6.1600000000000002E-2</v>
+        <v>6.2100000000000002E-2</v>
       </c>
       <c r="D47" s="25">
         <f>投資金額!$B$2*'收益紀錄表(new) '!C47</f>
-        <v>2032.8</v>
+        <v>2049.3000000000002</v>
       </c>
       <c r="E47" s="25">
         <f>D47/投資金額!$B$3*投資金額!$B$4</f>
-        <v>38.985205479452048</v>
+        <v>39.301643835616446</v>
       </c>
       <c r="F47" s="24">
         <f t="shared" si="0"/>
-        <v>38.985205479452048</v>
+        <v>39.301643835616446</v>
       </c>
       <c r="G47" s="37" t="s">
         <v>43</v>
@@ -4865,37 +4857,37 @@
       <c r="H47" s="33">
         <v>39</v>
       </c>
-      <c r="I47" s="33">
-        <f>(((H47/投資金額!$B$2)*投資金額!$B$3)/投資金額!$B$4)*100</f>
-        <v>6.1623376623376629</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I47" s="33"/>
+    </row>
+    <row r="48" spans="1:9" ht="61.2" x14ac:dyDescent="0.3">
       <c r="A48" s="36">
         <v>47</v>
       </c>
       <c r="B48" s="15">
         <v>43531</v>
       </c>
-      <c r="C48" s="19"/>
+      <c r="C48" s="19">
+        <v>6.2100000000000002E-2</v>
+      </c>
       <c r="D48" s="25">
         <f>投資金額!$B$2*'收益紀錄表(new) '!C48</f>
-        <v>0</v>
+        <v>2049.3000000000002</v>
       </c>
       <c r="E48" s="25">
         <f>D48/投資金額!$B$3*投資金額!$B$4</f>
-        <v>0</v>
+        <v>39.301643835616446</v>
       </c>
       <c r="F48" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G48" s="37"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="33">
-        <f>(((H48/投資金額!$B$2)*投資金額!$B$3)/投資金額!$B$4)*100</f>
-        <v>0</v>
-      </c>
+        <v>39.301643835616446</v>
+      </c>
+      <c r="G48" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="H48" s="33">
+        <v>39</v>
+      </c>
+      <c r="I48" s="33"/>
     </row>
     <row r="49" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="36">
@@ -4919,10 +4911,7 @@
       </c>
       <c r="G49" s="37"/>
       <c r="H49" s="33"/>
-      <c r="I49" s="33">
-        <f>(((H49/投資金額!$B$2)*投資金額!$B$3)/投資金額!$B$4)*100</f>
-        <v>0</v>
-      </c>
+      <c r="I49" s="33"/>
     </row>
     <row r="50" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="36">
@@ -4946,10 +4935,7 @@
       </c>
       <c r="G50" s="37"/>
       <c r="H50" s="33"/>
-      <c r="I50" s="33">
-        <f>(((H50/投資金額!$B$2)*投資金額!$B$3)/投資金額!$B$4)*100</f>
-        <v>0</v>
-      </c>
+      <c r="I50" s="33"/>
     </row>
     <row r="51" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="36">
@@ -4973,10 +4959,7 @@
       </c>
       <c r="G51" s="37"/>
       <c r="H51" s="33"/>
-      <c r="I51" s="33">
-        <f>(((H51/投資金額!$B$2)*投資金額!$B$3)/投資金額!$B$4)*100</f>
-        <v>0</v>
-      </c>
+      <c r="I51" s="33"/>
     </row>
     <row r="52" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="36">
@@ -5000,10 +4983,7 @@
       </c>
       <c r="G52" s="37"/>
       <c r="H52" s="33"/>
-      <c r="I52" s="33">
-        <f>(((H52/投資金額!$B$2)*投資金額!$B$3)/投資金額!$B$4)*100</f>
-        <v>0</v>
-      </c>
+      <c r="I52" s="33"/>
     </row>
     <row r="53" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="36">
@@ -5027,10 +5007,7 @@
       </c>
       <c r="G53" s="37"/>
       <c r="H53" s="33"/>
-      <c r="I53" s="33">
-        <f>(((H53/投資金額!$B$2)*投資金額!$B$3)/投資金額!$B$4)*100</f>
-        <v>0</v>
-      </c>
+      <c r="I53" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5112,7 +5089,7 @@
       </c>
       <c r="B5" s="26">
         <f>SUM('收益紀錄表(new) '!H19:H53)+1+35</f>
-        <v>399</v>
+        <v>438</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>28</v>
@@ -5155,7 +5132,7 @@
       </c>
       <c r="B2" s="22">
         <f>SUM('收益紀錄表(new) '!C1:C53)/50</f>
-        <v>7.1104000000000001E-2</v>
+        <v>7.2354000000000016E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -5164,7 +5141,7 @@
       </c>
       <c r="B3" s="13">
         <f>SUM('收益紀錄表(new) '!E2:E100)/50</f>
-        <v>9.0146958904109571</v>
+        <v>9.8057917808219184</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -5173,7 +5150,7 @@
       </c>
       <c r="B4" s="39">
         <f>SUM('收益紀錄表(new) '!D2:D100)/50</f>
-        <v>470.05199999999996</v>
+        <v>511.30199999999996</v>
       </c>
     </row>
   </sheetData>
@@ -5245,1135 +5222,1135 @@
       <c r="M1" s="40"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41">
+      <c r="A2" s="42">
         <v>1</v>
       </c>
-      <c r="B2" s="45">
+      <c r="B2" s="43">
         <v>43209</v>
       </c>
-      <c r="C2" s="42">
+      <c r="C2" s="41">
         <v>5.81</v>
       </c>
-      <c r="D2" s="42">
+      <c r="D2" s="41">
         <v>174.3</v>
       </c>
-      <c r="E2" s="42">
+      <c r="E2" s="41">
         <v>3.34</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="50" t="s">
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="50"/>
-      <c r="L2" s="49">
+      <c r="K2" s="52"/>
+      <c r="L2" s="51">
         <f>SUM(C:C)/33</f>
         <v>8.4699999999999989</v>
       </c>
-      <c r="M2" s="49"/>
+      <c r="M2" s="51"/>
     </row>
     <row r="3" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="41"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="41">
+      <c r="A4" s="42">
         <v>2</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="43">
         <v>43216</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="41">
         <v>6.13</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="41">
         <v>183.9</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="41">
         <v>3.52</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="J4" s="47" t="s">
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="J4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="47"/>
-      <c r="L4" s="48">
+      <c r="K4" s="49"/>
+      <c r="L4" s="50">
         <f>SUM(E:E)/33</f>
         <v>4.8678787878787873</v>
       </c>
-      <c r="M4" s="48"/>
+      <c r="M4" s="50"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41">
+      <c r="A6" s="42">
         <v>3</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="43">
         <v>43223</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="41">
         <v>6.02</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="41">
         <v>180.6</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="41">
         <v>3.46</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="J6" s="47" t="s">
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="J6" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="47"/>
-      <c r="L6" s="48">
+      <c r="K6" s="49"/>
+      <c r="L6" s="50">
         <f>SUM(D:D)/33</f>
         <v>254.10000000000002</v>
       </c>
-      <c r="M6" s="48"/>
+      <c r="M6" s="50"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="41"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="41">
+      <c r="A8" s="42">
         <v>4</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="43">
         <v>43230</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="41">
         <v>5.96</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="41">
         <v>178.8</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="41">
         <v>3.42</v>
       </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="41"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41">
+      <c r="A10" s="42">
         <v>5</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="43">
         <v>43237</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="41">
         <v>5.27</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="41">
         <v>158.1</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="41">
         <v>3.03</v>
       </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="41"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41">
+      <c r="A12" s="42">
         <v>6</v>
       </c>
-      <c r="B12" s="45">
+      <c r="B12" s="43">
         <v>43244</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="41">
         <v>6.13</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="41">
         <v>183.9</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="41">
         <v>3.52</v>
       </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="41"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="41">
+      <c r="A14" s="42">
         <v>7</v>
       </c>
-      <c r="B14" s="45">
+      <c r="B14" s="43">
         <v>43251</v>
       </c>
-      <c r="C14" s="42">
+      <c r="C14" s="41">
         <v>6.13</v>
       </c>
-      <c r="D14" s="42">
+      <c r="D14" s="41">
         <v>183.9</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="41">
         <v>3.52</v>
       </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="41">
+      <c r="A16" s="42">
         <v>8</v>
       </c>
-      <c r="B16" s="45">
+      <c r="B16" s="43">
         <v>43258</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C16" s="41">
         <v>6.15</v>
       </c>
-      <c r="D16" s="42">
+      <c r="D16" s="41">
         <v>184.5</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="41">
         <v>3.53</v>
       </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="41"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="41">
+      <c r="A18" s="42">
         <v>9</v>
       </c>
-      <c r="B18" s="45">
+      <c r="B18" s="43">
         <v>43265</v>
       </c>
-      <c r="C18" s="42">
+      <c r="C18" s="41">
         <v>9.27</v>
       </c>
-      <c r="D18" s="42">
+      <c r="D18" s="41">
         <v>278.10000000000002</v>
       </c>
-      <c r="E18" s="42">
+      <c r="E18" s="41">
         <v>5.33</v>
       </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="46" t="s">
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="53" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="41"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="46"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="53"/>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="41">
+      <c r="A20" s="42">
         <v>10</v>
       </c>
-      <c r="B20" s="45">
+      <c r="B20" s="43">
         <v>43268</v>
       </c>
-      <c r="C20" s="42">
+      <c r="C20" s="41">
         <v>10.130000000000001</v>
       </c>
-      <c r="D20" s="42">
+      <c r="D20" s="41">
         <v>303.89999999999998</v>
       </c>
-      <c r="E20" s="42">
+      <c r="E20" s="41">
         <v>5.82</v>
       </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="41"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="41">
+      <c r="A22" s="42">
         <v>11</v>
       </c>
-      <c r="B22" s="45">
+      <c r="B22" s="43">
         <v>43279</v>
       </c>
-      <c r="C22" s="42">
+      <c r="C22" s="41">
         <v>12.41</v>
       </c>
-      <c r="D22" s="42">
+      <c r="D22" s="41">
         <v>372.3</v>
       </c>
-      <c r="E22" s="42">
+      <c r="E22" s="41">
         <v>7.14</v>
       </c>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="41"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="41">
+      <c r="A24" s="42">
         <v>12</v>
       </c>
-      <c r="B24" s="45">
+      <c r="B24" s="43">
         <v>43286</v>
       </c>
-      <c r="C24" s="42">
+      <c r="C24" s="41">
         <v>19.71</v>
       </c>
-      <c r="D24" s="42">
+      <c r="D24" s="41">
         <v>591.29999999999995</v>
       </c>
-      <c r="E24" s="42">
+      <c r="E24" s="41">
         <v>11.34</v>
       </c>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="41"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="41">
+      <c r="A26" s="42">
         <v>13</v>
       </c>
-      <c r="B26" s="45">
+      <c r="B26" s="43">
         <v>43293</v>
       </c>
-      <c r="C26" s="42">
+      <c r="C26" s="41">
         <v>23</v>
       </c>
-      <c r="D26" s="42">
+      <c r="D26" s="41">
         <v>690</v>
       </c>
-      <c r="E26" s="42">
+      <c r="E26" s="41">
         <v>13.23</v>
       </c>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="46" t="s">
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="53" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="41"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="46"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="53"/>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="41">
+      <c r="A28" s="42">
         <v>14</v>
       </c>
-      <c r="B28" s="45">
+      <c r="B28" s="43">
         <v>43300</v>
       </c>
-      <c r="C28" s="42">
+      <c r="C28" s="41">
         <v>14.97</v>
       </c>
-      <c r="D28" s="42">
+      <c r="D28" s="41">
         <v>449.1</v>
       </c>
-      <c r="E28" s="42">
+      <c r="E28" s="41">
         <v>8.61</v>
       </c>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="41"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="41">
+      <c r="A30" s="42">
         <v>15</v>
       </c>
-      <c r="B30" s="45">
+      <c r="B30" s="43">
         <v>43307</v>
       </c>
-      <c r="C30" s="42">
+      <c r="C30" s="41">
         <v>7.67</v>
       </c>
-      <c r="D30" s="42">
+      <c r="D30" s="41">
         <v>230.1</v>
       </c>
-      <c r="E30" s="42">
+      <c r="E30" s="41">
         <v>4.41</v>
       </c>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="41"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="41">
+      <c r="A32" s="42">
         <v>16</v>
       </c>
-      <c r="B32" s="45">
+      <c r="B32" s="43">
         <v>43314</v>
       </c>
-      <c r="C32" s="42">
+      <c r="C32" s="41">
         <v>8.0299999999999994</v>
       </c>
-      <c r="D32" s="42">
+      <c r="D32" s="41">
         <v>240.9</v>
       </c>
-      <c r="E32" s="42">
+      <c r="E32" s="41">
         <v>4.62</v>
       </c>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="41"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="41">
+      <c r="A34" s="42">
         <v>17</v>
       </c>
-      <c r="B34" s="45">
+      <c r="B34" s="43">
         <v>43321</v>
       </c>
-      <c r="C34" s="42">
+      <c r="C34" s="41">
         <v>6.21</v>
       </c>
-      <c r="D34" s="42">
+      <c r="D34" s="41">
         <v>186.3</v>
       </c>
-      <c r="E34" s="42">
+      <c r="E34" s="41">
         <v>3.5</v>
       </c>
-      <c r="F34" s="42">
+      <c r="F34" s="41">
         <v>3000</v>
       </c>
-      <c r="G34" s="42"/>
-      <c r="H34" s="46" t="s">
+      <c r="G34" s="41"/>
+      <c r="H34" s="53" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="41"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="46"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="53"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="41">
+      <c r="A36" s="42">
         <v>18</v>
       </c>
-      <c r="B36" s="45">
+      <c r="B36" s="43">
         <v>43328</v>
       </c>
-      <c r="C36" s="42">
+      <c r="C36" s="41">
         <v>6.57</v>
       </c>
-      <c r="D36" s="42">
+      <c r="D36" s="41">
         <v>197.1</v>
       </c>
-      <c r="E36" s="42">
+      <c r="E36" s="41">
         <v>3.78</v>
       </c>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42">
+      <c r="F36" s="41"/>
+      <c r="G36" s="41">
         <v>4</v>
       </c>
-      <c r="H36" s="42"/>
+      <c r="H36" s="41"/>
     </row>
     <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="41"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
     </row>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="41">
+      <c r="A38" s="42">
         <v>19</v>
       </c>
-      <c r="B38" s="45">
+      <c r="B38" s="43">
         <v>43335</v>
       </c>
-      <c r="C38" s="42">
+      <c r="C38" s="41">
         <v>6.94</v>
       </c>
-      <c r="D38" s="42">
+      <c r="D38" s="41">
         <v>208.2</v>
       </c>
-      <c r="E38" s="42">
+      <c r="E38" s="41">
         <v>3.99</v>
       </c>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42">
+      <c r="F38" s="41"/>
+      <c r="G38" s="41">
         <v>4</v>
       </c>
-      <c r="H38" s="42"/>
+      <c r="H38" s="41"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="41"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
+      <c r="A39" s="42"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="41">
+      <c r="A40" s="42">
         <v>20</v>
       </c>
-      <c r="B40" s="45">
+      <c r="B40" s="43">
         <v>43342</v>
       </c>
-      <c r="C40" s="42">
+      <c r="C40" s="41">
         <v>6.21</v>
       </c>
-      <c r="D40" s="42">
+      <c r="D40" s="41">
         <v>186.3</v>
       </c>
-      <c r="E40" s="42">
+      <c r="E40" s="41">
         <v>3.57</v>
       </c>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42">
+      <c r="F40" s="41"/>
+      <c r="G40" s="41">
         <v>4</v>
       </c>
-      <c r="H40" s="42"/>
+      <c r="H40" s="41"/>
     </row>
     <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="41"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
+      <c r="A41" s="42"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="41">
+      <c r="A42" s="42">
         <v>21</v>
       </c>
-      <c r="B42" s="45">
+      <c r="B42" s="43">
         <v>43349</v>
       </c>
-      <c r="C42" s="42">
+      <c r="C42" s="41">
         <v>6.21</v>
       </c>
-      <c r="D42" s="42">
+      <c r="D42" s="41">
         <v>186.3</v>
       </c>
-      <c r="E42" s="42">
+      <c r="E42" s="41">
         <v>3.57</v>
       </c>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42">
+      <c r="F42" s="41"/>
+      <c r="G42" s="41">
         <v>4</v>
       </c>
-      <c r="H42" s="42"/>
+      <c r="H42" s="41"/>
     </row>
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="41"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="41">
+      <c r="A44" s="42">
         <v>22</v>
       </c>
-      <c r="B44" s="45">
+      <c r="B44" s="43">
         <v>43356</v>
       </c>
-      <c r="C44" s="42">
+      <c r="C44" s="41">
         <v>7.67</v>
       </c>
-      <c r="D44" s="42">
+      <c r="D44" s="41">
         <v>230.1</v>
       </c>
-      <c r="E44" s="42">
+      <c r="E44" s="41">
         <v>4.41</v>
       </c>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42">
+      <c r="F44" s="41"/>
+      <c r="G44" s="41">
         <v>4</v>
       </c>
-      <c r="H44" s="51" t="s">
+      <c r="H44" s="46" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="41"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="51"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="46"/>
     </row>
     <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="41">
+      <c r="A46" s="42">
         <v>23</v>
       </c>
-      <c r="B46" s="45">
+      <c r="B46" s="43">
         <v>43363</v>
       </c>
-      <c r="C46" s="42">
+      <c r="C46" s="41">
         <v>6.94</v>
       </c>
-      <c r="D46" s="42">
+      <c r="D46" s="41">
         <v>208.2</v>
       </c>
-      <c r="E46" s="42">
+      <c r="E46" s="41">
         <v>3.99</v>
       </c>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42">
+      <c r="F46" s="41"/>
+      <c r="G46" s="41">
         <v>4</v>
       </c>
-      <c r="H46" s="42"/>
+      <c r="H46" s="41"/>
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="41"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
+      <c r="A47" s="42"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="41">
+      <c r="A48" s="42">
         <v>24</v>
       </c>
-      <c r="B48" s="45">
+      <c r="B48" s="43">
         <v>43370</v>
       </c>
-      <c r="C48" s="42">
+      <c r="C48" s="41">
         <v>6.57</v>
       </c>
-      <c r="D48" s="42">
+      <c r="D48" s="41">
         <v>197.1</v>
       </c>
-      <c r="E48" s="42">
+      <c r="E48" s="41">
         <v>3.78</v>
       </c>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42">
+      <c r="F48" s="41"/>
+      <c r="G48" s="41">
         <v>4</v>
       </c>
-      <c r="H48" s="42"/>
+      <c r="H48" s="41"/>
     </row>
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="41"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
+      <c r="A49" s="42"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="41">
+      <c r="A50" s="42">
         <v>25</v>
       </c>
-      <c r="B50" s="45">
+      <c r="B50" s="43">
         <v>43377</v>
       </c>
-      <c r="C50" s="42">
+      <c r="C50" s="41">
         <v>6.21</v>
       </c>
-      <c r="D50" s="42">
+      <c r="D50" s="41">
         <v>186.3</v>
       </c>
-      <c r="E50" s="42">
+      <c r="E50" s="41">
         <v>3.57</v>
       </c>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42">
+      <c r="F50" s="41"/>
+      <c r="G50" s="41">
         <v>4</v>
       </c>
-      <c r="H50" s="42"/>
+      <c r="H50" s="41"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="41"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
+      <c r="A51" s="42"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
     </row>
     <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="41">
+      <c r="A52" s="42">
         <v>26</v>
       </c>
-      <c r="B52" s="45">
+      <c r="B52" s="43">
         <v>43384</v>
       </c>
-      <c r="C52" s="42">
+      <c r="C52" s="41">
         <v>6.57</v>
       </c>
-      <c r="D52" s="42">
+      <c r="D52" s="41">
         <v>197.1</v>
       </c>
-      <c r="E52" s="42">
+      <c r="E52" s="41">
         <v>3.78</v>
       </c>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42">
+      <c r="F52" s="41"/>
+      <c r="G52" s="41">
         <v>4</v>
       </c>
-      <c r="H52" s="51" t="s">
+      <c r="H52" s="46" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="41"/>
-      <c r="B53" s="42"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="42"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="42"/>
-      <c r="H53" s="51"/>
+      <c r="A53" s="42"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="46"/>
     </row>
     <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="41">
+      <c r="A54" s="42">
         <v>27</v>
       </c>
-      <c r="B54" s="45">
+      <c r="B54" s="43">
         <v>43391</v>
       </c>
-      <c r="C54" s="42">
+      <c r="C54" s="41">
         <v>6.21</v>
       </c>
-      <c r="D54" s="42">
+      <c r="D54" s="41">
         <v>186.3</v>
       </c>
-      <c r="E54" s="42">
+      <c r="E54" s="41">
         <v>3.57</v>
       </c>
-      <c r="F54" s="42"/>
-      <c r="G54" s="42">
+      <c r="F54" s="41"/>
+      <c r="G54" s="41">
         <v>4</v>
       </c>
-      <c r="H54" s="42"/>
+      <c r="H54" s="41"/>
     </row>
     <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="41"/>
-      <c r="B55" s="42"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="42"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
     </row>
     <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="41">
+      <c r="A56" s="42">
         <v>28</v>
       </c>
-      <c r="B56" s="52">
+      <c r="B56" s="48">
         <v>43398</v>
       </c>
-      <c r="C56" s="53">
+      <c r="C56" s="47">
         <v>5.84</v>
       </c>
-      <c r="D56" s="53">
+      <c r="D56" s="47">
         <v>175.2</v>
       </c>
-      <c r="E56" s="53">
+      <c r="E56" s="47">
         <v>3.36</v>
       </c>
-      <c r="F56" s="53"/>
-      <c r="G56" s="53">
+      <c r="F56" s="47"/>
+      <c r="G56" s="47">
         <v>3</v>
       </c>
-      <c r="H56" s="53" t="s">
+      <c r="H56" s="47" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="41"/>
-      <c r="B57" s="53"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="53"/>
-      <c r="F57" s="53"/>
-      <c r="G57" s="53"/>
-      <c r="H57" s="53"/>
+      <c r="A57" s="42"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="47"/>
     </row>
     <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="41">
+      <c r="A58" s="42">
         <v>29</v>
       </c>
-      <c r="B58" s="45">
+      <c r="B58" s="43">
         <v>43405</v>
       </c>
-      <c r="C58" s="42">
+      <c r="C58" s="41">
         <v>6.21</v>
       </c>
-      <c r="D58" s="42">
+      <c r="D58" s="41">
         <v>186.3</v>
       </c>
-      <c r="E58" s="42">
+      <c r="E58" s="41">
         <v>3.57</v>
       </c>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42">
+      <c r="F58" s="41"/>
+      <c r="G58" s="41">
         <v>4</v>
       </c>
-      <c r="H58" s="42"/>
+      <c r="H58" s="41"/>
     </row>
     <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="41"/>
-      <c r="B59" s="42"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="42"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="42"/>
+      <c r="A59" s="42"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
     </row>
     <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="41">
+      <c r="A60" s="42">
         <v>30</v>
       </c>
-      <c r="B60" s="45">
+      <c r="B60" s="43">
         <v>43413</v>
       </c>
-      <c r="C60" s="42">
+      <c r="C60" s="41">
         <v>5.84</v>
       </c>
-      <c r="D60" s="53">
+      <c r="D60" s="47">
         <v>175.2</v>
       </c>
-      <c r="E60" s="53">
+      <c r="E60" s="47">
         <v>3.36</v>
       </c>
-      <c r="F60" s="53"/>
-      <c r="G60" s="53">
+      <c r="F60" s="47"/>
+      <c r="G60" s="47">
         <v>3</v>
       </c>
-      <c r="H60" s="42"/>
+      <c r="H60" s="41"/>
     </row>
     <row r="61" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="41"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="53"/>
-      <c r="E61" s="53"/>
-      <c r="F61" s="53"/>
-      <c r="G61" s="53"/>
-      <c r="H61" s="42"/>
+      <c r="A61" s="42"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="47"/>
+      <c r="H61" s="41"/>
     </row>
     <row r="62" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="41">
+      <c r="A62" s="42">
         <v>31</v>
       </c>
-      <c r="B62" s="45">
+      <c r="B62" s="43">
         <v>43419</v>
       </c>
-      <c r="C62" s="42">
+      <c r="C62" s="41">
         <v>5.48</v>
       </c>
-      <c r="D62" s="53">
+      <c r="D62" s="47">
         <v>164.4</v>
       </c>
-      <c r="E62" s="53">
+      <c r="E62" s="47">
         <v>3.15</v>
       </c>
-      <c r="F62" s="53"/>
-      <c r="G62" s="53">
+      <c r="F62" s="47"/>
+      <c r="G62" s="47">
         <v>3</v>
       </c>
-      <c r="H62" s="42"/>
+      <c r="H62" s="41"/>
     </row>
     <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="41"/>
-      <c r="B63" s="42"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="53"/>
-      <c r="E63" s="53"/>
-      <c r="F63" s="53"/>
-      <c r="G63" s="53"/>
-      <c r="H63" s="42"/>
+      <c r="A63" s="42"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="47"/>
+      <c r="E63" s="47"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="47"/>
+      <c r="H63" s="41"/>
     </row>
     <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="41">
+      <c r="A64" s="42">
         <v>32</v>
       </c>
-      <c r="B64" s="45">
+      <c r="B64" s="43">
         <v>43426</v>
       </c>
-      <c r="C64" s="42">
+      <c r="C64" s="41">
         <v>6.21</v>
       </c>
-      <c r="D64" s="42">
+      <c r="D64" s="41">
         <v>186.3</v>
       </c>
-      <c r="E64" s="42">
+      <c r="E64" s="41">
         <v>3.57</v>
       </c>
-      <c r="F64" s="42"/>
-      <c r="G64" s="42">
+      <c r="F64" s="41"/>
+      <c r="G64" s="41">
         <v>4</v>
       </c>
-      <c r="H64" s="42"/>
+      <c r="H64" s="41"/>
     </row>
     <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="41"/>
-      <c r="B65" s="42"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="42"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="42"/>
-      <c r="H65" s="42"/>
+      <c r="A65" s="42"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="41"/>
+      <c r="H65" s="41"/>
     </row>
     <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="41">
+      <c r="A66" s="42">
         <v>33</v>
       </c>
-      <c r="B66" s="45">
+      <c r="B66" s="43">
         <v>43433</v>
       </c>
-      <c r="C66" s="42">
+      <c r="C66" s="41">
         <v>6.57</v>
       </c>
-      <c r="D66" s="42">
+      <c r="D66" s="41">
         <v>197.1</v>
       </c>
-      <c r="E66" s="42">
+      <c r="E66" s="41">
         <v>3.78</v>
       </c>
-      <c r="F66" s="42"/>
-      <c r="G66" s="42">
+      <c r="F66" s="41"/>
+      <c r="G66" s="41">
         <v>4</v>
       </c>
-      <c r="H66" s="42"/>
+      <c r="H66" s="41"/>
     </row>
     <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="41"/>
-      <c r="B67" s="42"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="42"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="42"/>
-      <c r="G67" s="42"/>
-      <c r="H67" s="42"/>
+      <c r="A67" s="42"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="41"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="41"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="41">
+      <c r="A68" s="42">
         <v>33</v>
       </c>
-      <c r="B68" s="45">
+      <c r="B68" s="43">
         <v>43440</v>
       </c>
-      <c r="C68" s="42">
+      <c r="C68" s="41">
         <v>5.48</v>
       </c>
-      <c r="D68" s="53">
+      <c r="D68" s="47">
         <v>164.4</v>
       </c>
-      <c r="E68" s="53">
+      <c r="E68" s="47">
         <v>3.15</v>
       </c>
-      <c r="F68" s="53"/>
-      <c r="G68" s="53">
+      <c r="F68" s="47"/>
+      <c r="G68" s="47">
         <v>3</v>
       </c>
-      <c r="H68" s="42"/>
+      <c r="H68" s="41"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="41"/>
-      <c r="B69" s="42"/>
-      <c r="C69" s="42"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="53"/>
-      <c r="G69" s="53"/>
-      <c r="H69" s="42"/>
+      <c r="A69" s="42"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="41"/>
     </row>
     <row r="70" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="41">
+      <c r="A70" s="42">
         <v>33</v>
       </c>
-      <c r="B70" s="45">
+      <c r="B70" s="43">
         <v>43447</v>
       </c>
-      <c r="C70" s="42">
+      <c r="C70" s="41">
         <v>6.57</v>
       </c>
-      <c r="D70" s="42">
+      <c r="D70" s="41">
         <v>197.1</v>
       </c>
-      <c r="E70" s="42">
+      <c r="E70" s="41">
         <v>3.78</v>
       </c>
-      <c r="F70" s="42"/>
-      <c r="G70" s="42">
+      <c r="F70" s="41"/>
+      <c r="G70" s="41">
         <v>4</v>
       </c>
-      <c r="H70" s="51" t="s">
+      <c r="H70" s="46" t="s">
         <v>17</v>
       </c>
       <c r="J70" s="4">
@@ -6381,49 +6358,321 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="41"/>
-      <c r="B71" s="42"/>
-      <c r="C71" s="42"/>
-      <c r="D71" s="42"/>
-      <c r="E71" s="42"/>
-      <c r="F71" s="42"/>
-      <c r="G71" s="42"/>
-      <c r="H71" s="51"/>
+      <c r="A71" s="42"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="41"/>
+      <c r="F71" s="41"/>
+      <c r="G71" s="41"/>
+      <c r="H71" s="46"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="41">
+      <c r="A72" s="42">
         <v>34</v>
       </c>
-      <c r="B72" s="45">
+      <c r="B72" s="43">
         <v>43454</v>
       </c>
-      <c r="C72" s="42">
+      <c r="C72" s="41">
         <v>6.21</v>
       </c>
-      <c r="D72" s="42">
+      <c r="D72" s="41">
         <v>186.3</v>
       </c>
-      <c r="E72" s="42">
+      <c r="E72" s="41">
         <v>3.57</v>
       </c>
-      <c r="F72" s="42"/>
-      <c r="G72" s="42">
+      <c r="F72" s="41"/>
+      <c r="G72" s="41">
         <v>4</v>
       </c>
-      <c r="H72" s="54"/>
+      <c r="H72" s="44"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="41"/>
-      <c r="B73" s="42"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="42"/>
-      <c r="E73" s="42"/>
-      <c r="F73" s="42"/>
-      <c r="G73" s="42"/>
-      <c r="H73" s="55"/>
+      <c r="A73" s="42"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="41"/>
+      <c r="D73" s="41"/>
+      <c r="E73" s="41"/>
+      <c r="F73" s="41"/>
+      <c r="G73" s="41"/>
+      <c r="H73" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="296">
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="L6:M7"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="L2:M3"/>
+    <mergeCell ref="J2:K3"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="J4:K5"/>
+    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="B66:B67"/>
     <mergeCell ref="C72:C73"/>
     <mergeCell ref="D72:D73"/>
     <mergeCell ref="E72:E73"/>
@@ -6448,278 +6697,6 @@
     <mergeCell ref="G68:G69"/>
     <mergeCell ref="A68:A69"/>
     <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="J6:K7"/>
-    <mergeCell ref="L6:M7"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="L2:M3"/>
-    <mergeCell ref="J2:K3"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="J4:K5"/>
-    <mergeCell ref="L4:M5"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/source/excel/AifianExecl.xlsx
+++ b/source/excel/AifianExecl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="20064" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="20520" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="收益紀錄表(new) " sheetId="7" r:id="rId1"/>
@@ -482,28 +482,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -518,14 +512,20 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1058,7 +1058,7 @@
                   <c:v>2049.3000000000002</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>2168.1</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0</c:v>
@@ -1470,7 +1470,7 @@
                   <c:v>39.301643835616446</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>41.58</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0</c:v>
@@ -3698,8 +3698,8 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P48" sqref="P48"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4896,21 +4896,25 @@
       <c r="B49" s="15">
         <v>43538</v>
       </c>
-      <c r="C49" s="19"/>
+      <c r="C49" s="19">
+        <v>6.5699999999999995E-2</v>
+      </c>
       <c r="D49" s="25">
         <f>投資金額!$B$2*'收益紀錄表(new) '!C49</f>
-        <v>0</v>
+        <v>2168.1</v>
       </c>
       <c r="E49" s="25">
         <f>D49/投資金額!$B$3*投資金額!$B$4</f>
-        <v>0</v>
+        <v>41.58</v>
       </c>
       <c r="F49" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41.58</v>
       </c>
       <c r="G49" s="37"/>
-      <c r="H49" s="33"/>
+      <c r="H49" s="33">
+        <v>42</v>
+      </c>
       <c r="I49" s="33"/>
     </row>
     <row r="50" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -5089,7 +5093,7 @@
       </c>
       <c r="B5" s="26">
         <f>SUM('收益紀錄表(new) '!H19:H53)+1+35</f>
-        <v>438</v>
+        <v>480</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>28</v>
@@ -5132,7 +5136,7 @@
       </c>
       <c r="B2" s="22">
         <f>SUM('收益紀錄表(new) '!C1:C53)/50</f>
-        <v>7.2354000000000016E-2</v>
+        <v>7.3668000000000011E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -5141,7 +5145,7 @@
       </c>
       <c r="B3" s="13">
         <f>SUM('收益紀錄表(new) '!E2:E100)/50</f>
-        <v>9.8057917808219184</v>
+        <v>10.637391780821918</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -5150,7 +5154,7 @@
       </c>
       <c r="B4" s="39">
         <f>SUM('收益紀錄表(new) '!D2:D100)/50</f>
-        <v>511.30199999999996</v>
+        <v>554.66399999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5222,1135 +5226,1135 @@
       <c r="M1" s="40"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42">
+      <c r="A2" s="41">
         <v>1</v>
       </c>
-      <c r="B2" s="43">
+      <c r="B2" s="45">
         <v>43209</v>
       </c>
-      <c r="C2" s="41">
+      <c r="C2" s="42">
         <v>5.81</v>
       </c>
-      <c r="D2" s="41">
+      <c r="D2" s="42">
         <v>174.3</v>
       </c>
-      <c r="E2" s="41">
+      <c r="E2" s="42">
         <v>3.34</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="52" t="s">
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="52"/>
-      <c r="L2" s="51">
+      <c r="K2" s="50"/>
+      <c r="L2" s="49">
         <f>SUM(C:C)/33</f>
         <v>8.4699999999999989</v>
       </c>
-      <c r="M2" s="51"/>
+      <c r="M2" s="49"/>
     </row>
     <row r="3" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="42"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42">
+      <c r="A4" s="41">
         <v>2</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="45">
         <v>43216</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="42">
         <v>6.13</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="42">
         <v>183.9</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="42">
         <v>3.52</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="J4" s="49" t="s">
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="J4" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="49"/>
-      <c r="L4" s="50">
+      <c r="K4" s="47"/>
+      <c r="L4" s="48">
         <f>SUM(E:E)/33</f>
         <v>4.8678787878787873</v>
       </c>
-      <c r="M4" s="50"/>
+      <c r="M4" s="48"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42">
+      <c r="A6" s="41">
         <v>3</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="45">
         <v>43223</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="42">
         <v>6.02</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="42">
         <v>180.6</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="42">
         <v>3.46</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="J6" s="49" t="s">
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="J6" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="49"/>
-      <c r="L6" s="50">
+      <c r="K6" s="47"/>
+      <c r="L6" s="48">
         <f>SUM(D:D)/33</f>
         <v>254.10000000000002</v>
       </c>
-      <c r="M6" s="50"/>
+      <c r="M6" s="48"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="42">
+      <c r="A8" s="41">
         <v>4</v>
       </c>
-      <c r="B8" s="43">
+      <c r="B8" s="45">
         <v>43230</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="42">
         <v>5.96</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="42">
         <v>178.8</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="42">
         <v>3.42</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="42">
+      <c r="A10" s="41">
         <v>5</v>
       </c>
-      <c r="B10" s="43">
+      <c r="B10" s="45">
         <v>43237</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="42">
         <v>5.27</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="42">
         <v>158.1</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="42">
         <v>3.03</v>
       </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="42">
+      <c r="A12" s="41">
         <v>6</v>
       </c>
-      <c r="B12" s="43">
+      <c r="B12" s="45">
         <v>43244</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="42">
         <v>6.13</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="42">
         <v>183.9</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="42">
         <v>3.52</v>
       </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="42">
+      <c r="A14" s="41">
         <v>7</v>
       </c>
-      <c r="B14" s="43">
+      <c r="B14" s="45">
         <v>43251</v>
       </c>
-      <c r="C14" s="41">
+      <c r="C14" s="42">
         <v>6.13</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="42">
         <v>183.9</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="42">
         <v>3.52</v>
       </c>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42">
+      <c r="A16" s="41">
         <v>8</v>
       </c>
-      <c r="B16" s="43">
+      <c r="B16" s="45">
         <v>43258</v>
       </c>
-      <c r="C16" s="41">
+      <c r="C16" s="42">
         <v>6.15</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="42">
         <v>184.5</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="42">
         <v>3.53</v>
       </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="42">
+      <c r="A18" s="41">
         <v>9</v>
       </c>
-      <c r="B18" s="43">
+      <c r="B18" s="45">
         <v>43265</v>
       </c>
-      <c r="C18" s="41">
+      <c r="C18" s="42">
         <v>9.27</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="42">
         <v>278.10000000000002</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E18" s="42">
         <v>5.33</v>
       </c>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="53" t="s">
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="46" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="53"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="46"/>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="42">
+      <c r="A20" s="41">
         <v>10</v>
       </c>
-      <c r="B20" s="43">
+      <c r="B20" s="45">
         <v>43268</v>
       </c>
-      <c r="C20" s="41">
+      <c r="C20" s="42">
         <v>10.130000000000001</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="42">
         <v>303.89999999999998</v>
       </c>
-      <c r="E20" s="41">
+      <c r="E20" s="42">
         <v>5.82</v>
       </c>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="42"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42">
+      <c r="A22" s="41">
         <v>11</v>
       </c>
-      <c r="B22" s="43">
+      <c r="B22" s="45">
         <v>43279</v>
       </c>
-      <c r="C22" s="41">
+      <c r="C22" s="42">
         <v>12.41</v>
       </c>
-      <c r="D22" s="41">
+      <c r="D22" s="42">
         <v>372.3</v>
       </c>
-      <c r="E22" s="41">
+      <c r="E22" s="42">
         <v>7.14</v>
       </c>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="42"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="42">
+      <c r="A24" s="41">
         <v>12</v>
       </c>
-      <c r="B24" s="43">
+      <c r="B24" s="45">
         <v>43286</v>
       </c>
-      <c r="C24" s="41">
+      <c r="C24" s="42">
         <v>19.71</v>
       </c>
-      <c r="D24" s="41">
+      <c r="D24" s="42">
         <v>591.29999999999995</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E24" s="42">
         <v>11.34</v>
       </c>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="42"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="42">
+      <c r="A26" s="41">
         <v>13</v>
       </c>
-      <c r="B26" s="43">
+      <c r="B26" s="45">
         <v>43293</v>
       </c>
-      <c r="C26" s="41">
+      <c r="C26" s="42">
         <v>23</v>
       </c>
-      <c r="D26" s="41">
+      <c r="D26" s="42">
         <v>690</v>
       </c>
-      <c r="E26" s="41">
+      <c r="E26" s="42">
         <v>13.23</v>
       </c>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="53" t="s">
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="46" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="42"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="53"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="46"/>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="42">
+      <c r="A28" s="41">
         <v>14</v>
       </c>
-      <c r="B28" s="43">
+      <c r="B28" s="45">
         <v>43300</v>
       </c>
-      <c r="C28" s="41">
+      <c r="C28" s="42">
         <v>14.97</v>
       </c>
-      <c r="D28" s="41">
+      <c r="D28" s="42">
         <v>449.1</v>
       </c>
-      <c r="E28" s="41">
+      <c r="E28" s="42">
         <v>8.61</v>
       </c>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="42"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="42">
+      <c r="A30" s="41">
         <v>15</v>
       </c>
-      <c r="B30" s="43">
+      <c r="B30" s="45">
         <v>43307</v>
       </c>
-      <c r="C30" s="41">
+      <c r="C30" s="42">
         <v>7.67</v>
       </c>
-      <c r="D30" s="41">
+      <c r="D30" s="42">
         <v>230.1</v>
       </c>
-      <c r="E30" s="41">
+      <c r="E30" s="42">
         <v>4.41</v>
       </c>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="42"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="42">
+      <c r="A32" s="41">
         <v>16</v>
       </c>
-      <c r="B32" s="43">
+      <c r="B32" s="45">
         <v>43314</v>
       </c>
-      <c r="C32" s="41">
+      <c r="C32" s="42">
         <v>8.0299999999999994</v>
       </c>
-      <c r="D32" s="41">
+      <c r="D32" s="42">
         <v>240.9</v>
       </c>
-      <c r="E32" s="41">
+      <c r="E32" s="42">
         <v>4.62</v>
       </c>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="42"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="42">
+      <c r="A34" s="41">
         <v>17</v>
       </c>
-      <c r="B34" s="43">
+      <c r="B34" s="45">
         <v>43321</v>
       </c>
-      <c r="C34" s="41">
+      <c r="C34" s="42">
         <v>6.21</v>
       </c>
-      <c r="D34" s="41">
+      <c r="D34" s="42">
         <v>186.3</v>
       </c>
-      <c r="E34" s="41">
+      <c r="E34" s="42">
         <v>3.5</v>
       </c>
-      <c r="F34" s="41">
+      <c r="F34" s="42">
         <v>3000</v>
       </c>
-      <c r="G34" s="41"/>
-      <c r="H34" s="53" t="s">
+      <c r="G34" s="42"/>
+      <c r="H34" s="46" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="42"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="53"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="46"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="42">
+      <c r="A36" s="41">
         <v>18</v>
       </c>
-      <c r="B36" s="43">
+      <c r="B36" s="45">
         <v>43328</v>
       </c>
-      <c r="C36" s="41">
+      <c r="C36" s="42">
         <v>6.57</v>
       </c>
-      <c r="D36" s="41">
+      <c r="D36" s="42">
         <v>197.1</v>
       </c>
-      <c r="E36" s="41">
+      <c r="E36" s="42">
         <v>3.78</v>
       </c>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41">
+      <c r="F36" s="42"/>
+      <c r="G36" s="42">
         <v>4</v>
       </c>
-      <c r="H36" s="41"/>
+      <c r="H36" s="42"/>
     </row>
     <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="42"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
     </row>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="42">
+      <c r="A38" s="41">
         <v>19</v>
       </c>
-      <c r="B38" s="43">
+      <c r="B38" s="45">
         <v>43335</v>
       </c>
-      <c r="C38" s="41">
+      <c r="C38" s="42">
         <v>6.94</v>
       </c>
-      <c r="D38" s="41">
+      <c r="D38" s="42">
         <v>208.2</v>
       </c>
-      <c r="E38" s="41">
+      <c r="E38" s="42">
         <v>3.99</v>
       </c>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41">
+      <c r="F38" s="42"/>
+      <c r="G38" s="42">
         <v>4</v>
       </c>
-      <c r="H38" s="41"/>
+      <c r="H38" s="42"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="42"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="42">
+      <c r="A40" s="41">
         <v>20</v>
       </c>
-      <c r="B40" s="43">
+      <c r="B40" s="45">
         <v>43342</v>
       </c>
-      <c r="C40" s="41">
+      <c r="C40" s="42">
         <v>6.21</v>
       </c>
-      <c r="D40" s="41">
+      <c r="D40" s="42">
         <v>186.3</v>
       </c>
-      <c r="E40" s="41">
+      <c r="E40" s="42">
         <v>3.57</v>
       </c>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41">
+      <c r="F40" s="42"/>
+      <c r="G40" s="42">
         <v>4</v>
       </c>
-      <c r="H40" s="41"/>
+      <c r="H40" s="42"/>
     </row>
     <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="42"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="42">
+      <c r="A42" s="41">
         <v>21</v>
       </c>
-      <c r="B42" s="43">
+      <c r="B42" s="45">
         <v>43349</v>
       </c>
-      <c r="C42" s="41">
+      <c r="C42" s="42">
         <v>6.21</v>
       </c>
-      <c r="D42" s="41">
+      <c r="D42" s="42">
         <v>186.3</v>
       </c>
-      <c r="E42" s="41">
+      <c r="E42" s="42">
         <v>3.57</v>
       </c>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41">
+      <c r="F42" s="42"/>
+      <c r="G42" s="42">
         <v>4</v>
       </c>
-      <c r="H42" s="41"/>
+      <c r="H42" s="42"/>
     </row>
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="42"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="42">
+      <c r="A44" s="41">
         <v>22</v>
       </c>
-      <c r="B44" s="43">
+      <c r="B44" s="45">
         <v>43356</v>
       </c>
-      <c r="C44" s="41">
+      <c r="C44" s="42">
         <v>7.67</v>
       </c>
-      <c r="D44" s="41">
+      <c r="D44" s="42">
         <v>230.1</v>
       </c>
-      <c r="E44" s="41">
+      <c r="E44" s="42">
         <v>4.41</v>
       </c>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41">
+      <c r="F44" s="42"/>
+      <c r="G44" s="42">
         <v>4</v>
       </c>
-      <c r="H44" s="46" t="s">
+      <c r="H44" s="51" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="42"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="46"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="51"/>
     </row>
     <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="42">
+      <c r="A46" s="41">
         <v>23</v>
       </c>
-      <c r="B46" s="43">
+      <c r="B46" s="45">
         <v>43363</v>
       </c>
-      <c r="C46" s="41">
+      <c r="C46" s="42">
         <v>6.94</v>
       </c>
-      <c r="D46" s="41">
+      <c r="D46" s="42">
         <v>208.2</v>
       </c>
-      <c r="E46" s="41">
+      <c r="E46" s="42">
         <v>3.99</v>
       </c>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41">
+      <c r="F46" s="42"/>
+      <c r="G46" s="42">
         <v>4</v>
       </c>
-      <c r="H46" s="41"/>
+      <c r="H46" s="42"/>
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="42"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="42">
+      <c r="A48" s="41">
         <v>24</v>
       </c>
-      <c r="B48" s="43">
+      <c r="B48" s="45">
         <v>43370</v>
       </c>
-      <c r="C48" s="41">
+      <c r="C48" s="42">
         <v>6.57</v>
       </c>
-      <c r="D48" s="41">
+      <c r="D48" s="42">
         <v>197.1</v>
       </c>
-      <c r="E48" s="41">
+      <c r="E48" s="42">
         <v>3.78</v>
       </c>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41">
+      <c r="F48" s="42"/>
+      <c r="G48" s="42">
         <v>4</v>
       </c>
-      <c r="H48" s="41"/>
+      <c r="H48" s="42"/>
     </row>
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="42"/>
-      <c r="B49" s="41"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="42">
+      <c r="A50" s="41">
         <v>25</v>
       </c>
-      <c r="B50" s="43">
+      <c r="B50" s="45">
         <v>43377</v>
       </c>
-      <c r="C50" s="41">
+      <c r="C50" s="42">
         <v>6.21</v>
       </c>
-      <c r="D50" s="41">
+      <c r="D50" s="42">
         <v>186.3</v>
       </c>
-      <c r="E50" s="41">
+      <c r="E50" s="42">
         <v>3.57</v>
       </c>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41">
+      <c r="F50" s="42"/>
+      <c r="G50" s="42">
         <v>4</v>
       </c>
-      <c r="H50" s="41"/>
+      <c r="H50" s="42"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="42"/>
-      <c r="B51" s="41"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
     </row>
     <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="42">
+      <c r="A52" s="41">
         <v>26</v>
       </c>
-      <c r="B52" s="43">
+      <c r="B52" s="45">
         <v>43384</v>
       </c>
-      <c r="C52" s="41">
+      <c r="C52" s="42">
         <v>6.57</v>
       </c>
-      <c r="D52" s="41">
+      <c r="D52" s="42">
         <v>197.1</v>
       </c>
-      <c r="E52" s="41">
+      <c r="E52" s="42">
         <v>3.78</v>
       </c>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41">
+      <c r="F52" s="42"/>
+      <c r="G52" s="42">
         <v>4</v>
       </c>
-      <c r="H52" s="46" t="s">
+      <c r="H52" s="51" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="42"/>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="46"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="51"/>
     </row>
     <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="42">
+      <c r="A54" s="41">
         <v>27</v>
       </c>
-      <c r="B54" s="43">
+      <c r="B54" s="45">
         <v>43391</v>
       </c>
-      <c r="C54" s="41">
+      <c r="C54" s="42">
         <v>6.21</v>
       </c>
-      <c r="D54" s="41">
+      <c r="D54" s="42">
         <v>186.3</v>
       </c>
-      <c r="E54" s="41">
+      <c r="E54" s="42">
         <v>3.57</v>
       </c>
-      <c r="F54" s="41"/>
-      <c r="G54" s="41">
+      <c r="F54" s="42"/>
+      <c r="G54" s="42">
         <v>4</v>
       </c>
-      <c r="H54" s="41"/>
+      <c r="H54" s="42"/>
     </row>
     <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="42"/>
-      <c r="B55" s="41"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
     </row>
     <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="42">
+      <c r="A56" s="41">
         <v>28</v>
       </c>
-      <c r="B56" s="48">
+      <c r="B56" s="52">
         <v>43398</v>
       </c>
-      <c r="C56" s="47">
+      <c r="C56" s="53">
         <v>5.84</v>
       </c>
-      <c r="D56" s="47">
+      <c r="D56" s="53">
         <v>175.2</v>
       </c>
-      <c r="E56" s="47">
+      <c r="E56" s="53">
         <v>3.36</v>
       </c>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47">
+      <c r="F56" s="53"/>
+      <c r="G56" s="53">
         <v>3</v>
       </c>
-      <c r="H56" s="47" t="s">
+      <c r="H56" s="53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="42"/>
-      <c r="B57" s="47"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="47"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="53"/>
+      <c r="G57" s="53"/>
+      <c r="H57" s="53"/>
     </row>
     <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="42">
+      <c r="A58" s="41">
         <v>29</v>
       </c>
-      <c r="B58" s="43">
+      <c r="B58" s="45">
         <v>43405</v>
       </c>
-      <c r="C58" s="41">
+      <c r="C58" s="42">
         <v>6.21</v>
       </c>
-      <c r="D58" s="41">
+      <c r="D58" s="42">
         <v>186.3</v>
       </c>
-      <c r="E58" s="41">
+      <c r="E58" s="42">
         <v>3.57</v>
       </c>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41">
+      <c r="F58" s="42"/>
+      <c r="G58" s="42">
         <v>4</v>
       </c>
-      <c r="H58" s="41"/>
+      <c r="H58" s="42"/>
     </row>
     <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="42"/>
-      <c r="B59" s="41"/>
-      <c r="C59" s="41"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="41"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
     </row>
     <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="42">
+      <c r="A60" s="41">
         <v>30</v>
       </c>
-      <c r="B60" s="43">
+      <c r="B60" s="45">
         <v>43413</v>
       </c>
-      <c r="C60" s="41">
+      <c r="C60" s="42">
         <v>5.84</v>
       </c>
-      <c r="D60" s="47">
+      <c r="D60" s="53">
         <v>175.2</v>
       </c>
-      <c r="E60" s="47">
+      <c r="E60" s="53">
         <v>3.36</v>
       </c>
-      <c r="F60" s="47"/>
-      <c r="G60" s="47">
+      <c r="F60" s="53"/>
+      <c r="G60" s="53">
         <v>3</v>
       </c>
-      <c r="H60" s="41"/>
+      <c r="H60" s="42"/>
     </row>
     <row r="61" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="42"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="47"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="47"/>
-      <c r="H61" s="41"/>
+      <c r="A61" s="41"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="53"/>
+      <c r="G61" s="53"/>
+      <c r="H61" s="42"/>
     </row>
     <row r="62" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="42">
+      <c r="A62" s="41">
         <v>31</v>
       </c>
-      <c r="B62" s="43">
+      <c r="B62" s="45">
         <v>43419</v>
       </c>
-      <c r="C62" s="41">
+      <c r="C62" s="42">
         <v>5.48</v>
       </c>
-      <c r="D62" s="47">
+      <c r="D62" s="53">
         <v>164.4</v>
       </c>
-      <c r="E62" s="47">
+      <c r="E62" s="53">
         <v>3.15</v>
       </c>
-      <c r="F62" s="47"/>
-      <c r="G62" s="47">
+      <c r="F62" s="53"/>
+      <c r="G62" s="53">
         <v>3</v>
       </c>
-      <c r="H62" s="41"/>
+      <c r="H62" s="42"/>
     </row>
     <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="42"/>
-      <c r="B63" s="41"/>
-      <c r="C63" s="41"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="47"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="47"/>
-      <c r="H63" s="41"/>
+      <c r="A63" s="41"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="53"/>
+      <c r="G63" s="53"/>
+      <c r="H63" s="42"/>
     </row>
     <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="42">
+      <c r="A64" s="41">
         <v>32</v>
       </c>
-      <c r="B64" s="43">
+      <c r="B64" s="45">
         <v>43426</v>
       </c>
-      <c r="C64" s="41">
+      <c r="C64" s="42">
         <v>6.21</v>
       </c>
-      <c r="D64" s="41">
+      <c r="D64" s="42">
         <v>186.3</v>
       </c>
-      <c r="E64" s="41">
+      <c r="E64" s="42">
         <v>3.57</v>
       </c>
-      <c r="F64" s="41"/>
-      <c r="G64" s="41">
+      <c r="F64" s="42"/>
+      <c r="G64" s="42">
         <v>4</v>
       </c>
-      <c r="H64" s="41"/>
+      <c r="H64" s="42"/>
     </row>
     <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="42"/>
-      <c r="B65" s="41"/>
-      <c r="C65" s="41"/>
-      <c r="D65" s="41"/>
-      <c r="E65" s="41"/>
-      <c r="F65" s="41"/>
-      <c r="G65" s="41"/>
-      <c r="H65" s="41"/>
+      <c r="A65" s="41"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
     </row>
     <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="42">
+      <c r="A66" s="41">
         <v>33</v>
       </c>
-      <c r="B66" s="43">
+      <c r="B66" s="45">
         <v>43433</v>
       </c>
-      <c r="C66" s="41">
+      <c r="C66" s="42">
         <v>6.57</v>
       </c>
-      <c r="D66" s="41">
+      <c r="D66" s="42">
         <v>197.1</v>
       </c>
-      <c r="E66" s="41">
+      <c r="E66" s="42">
         <v>3.78</v>
       </c>
-      <c r="F66" s="41"/>
-      <c r="G66" s="41">
+      <c r="F66" s="42"/>
+      <c r="G66" s="42">
         <v>4</v>
       </c>
-      <c r="H66" s="41"/>
+      <c r="H66" s="42"/>
     </row>
     <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="42"/>
-      <c r="B67" s="41"/>
-      <c r="C67" s="41"/>
-      <c r="D67" s="41"/>
-      <c r="E67" s="41"/>
-      <c r="F67" s="41"/>
-      <c r="G67" s="41"/>
-      <c r="H67" s="41"/>
+      <c r="A67" s="41"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="42">
+      <c r="A68" s="41">
         <v>33</v>
       </c>
-      <c r="B68" s="43">
+      <c r="B68" s="45">
         <v>43440</v>
       </c>
-      <c r="C68" s="41">
+      <c r="C68" s="42">
         <v>5.48</v>
       </c>
-      <c r="D68" s="47">
+      <c r="D68" s="53">
         <v>164.4</v>
       </c>
-      <c r="E68" s="47">
+      <c r="E68" s="53">
         <v>3.15</v>
       </c>
-      <c r="F68" s="47"/>
-      <c r="G68" s="47">
+      <c r="F68" s="53"/>
+      <c r="G68" s="53">
         <v>3</v>
       </c>
-      <c r="H68" s="41"/>
+      <c r="H68" s="42"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="42"/>
-      <c r="B69" s="41"/>
-      <c r="C69" s="41"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="47"/>
-      <c r="F69" s="47"/>
-      <c r="G69" s="47"/>
-      <c r="H69" s="41"/>
+      <c r="A69" s="41"/>
+      <c r="B69" s="42"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="53"/>
+      <c r="G69" s="53"/>
+      <c r="H69" s="42"/>
     </row>
     <row r="70" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="42">
+      <c r="A70" s="41">
         <v>33</v>
       </c>
-      <c r="B70" s="43">
+      <c r="B70" s="45">
         <v>43447</v>
       </c>
-      <c r="C70" s="41">
+      <c r="C70" s="42">
         <v>6.57</v>
       </c>
-      <c r="D70" s="41">
+      <c r="D70" s="42">
         <v>197.1</v>
       </c>
-      <c r="E70" s="41">
+      <c r="E70" s="42">
         <v>3.78</v>
       </c>
-      <c r="F70" s="41"/>
-      <c r="G70" s="41">
+      <c r="F70" s="42"/>
+      <c r="G70" s="42">
         <v>4</v>
       </c>
-      <c r="H70" s="46" t="s">
+      <c r="H70" s="51" t="s">
         <v>17</v>
       </c>
       <c r="J70" s="4">
@@ -6358,113 +6362,257 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="42"/>
-      <c r="B71" s="41"/>
-      <c r="C71" s="41"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="41"/>
-      <c r="F71" s="41"/>
-      <c r="G71" s="41"/>
-      <c r="H71" s="46"/>
+      <c r="A71" s="41"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="51"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="42">
+      <c r="A72" s="41">
         <v>34</v>
       </c>
-      <c r="B72" s="43">
+      <c r="B72" s="45">
         <v>43454</v>
       </c>
-      <c r="C72" s="41">
+      <c r="C72" s="42">
         <v>6.21</v>
       </c>
-      <c r="D72" s="41">
+      <c r="D72" s="42">
         <v>186.3</v>
       </c>
-      <c r="E72" s="41">
+      <c r="E72" s="42">
         <v>3.57</v>
       </c>
-      <c r="F72" s="41"/>
-      <c r="G72" s="41">
+      <c r="F72" s="42"/>
+      <c r="G72" s="42">
         <v>4</v>
       </c>
-      <c r="H72" s="44"/>
+      <c r="H72" s="54"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="42"/>
-      <c r="B73" s="41"/>
-      <c r="C73" s="41"/>
-      <c r="D73" s="41"/>
-      <c r="E73" s="41"/>
-      <c r="F73" s="41"/>
-      <c r="G73" s="41"/>
-      <c r="H73" s="45"/>
+      <c r="A73" s="41"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="296">
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="L6:M7"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="L2:M3"/>
+    <mergeCell ref="J2:K3"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="J4:K5"/>
+    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="G16:G17"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="B14:B15"/>
@@ -6489,214 +6637,70 @@
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="J6:K7"/>
-    <mergeCell ref="L6:M7"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="L2:M3"/>
-    <mergeCell ref="J2:K3"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="J4:K5"/>
-    <mergeCell ref="L4:M5"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/source/excel/AifianExecl.xlsx
+++ b/source/excel/AifianExecl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="20520" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="20976" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="收益紀錄表(new) " sheetId="7" r:id="rId1"/>
@@ -482,22 +482,28 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -512,20 +518,14 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1061,7 +1061,7 @@
                   <c:v>2168.1</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>2049.3000000000002</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0</c:v>
@@ -1473,7 +1473,7 @@
                   <c:v>41.58</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>39.301643835616446</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0</c:v>
@@ -3699,7 +3699,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H54" sqref="H54"/>
+      <selection pane="bottomLeft" activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4924,21 +4924,25 @@
       <c r="B50" s="15">
         <v>43545</v>
       </c>
-      <c r="C50" s="19"/>
+      <c r="C50" s="19">
+        <v>6.2100000000000002E-2</v>
+      </c>
       <c r="D50" s="25">
         <f>投資金額!$B$2*'收益紀錄表(new) '!C50</f>
-        <v>0</v>
+        <v>2049.3000000000002</v>
       </c>
       <c r="E50" s="25">
         <f>D50/投資金額!$B$3*投資金額!$B$4</f>
-        <v>0</v>
+        <v>39.301643835616446</v>
       </c>
       <c r="F50" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="F50" si="1">E50</f>
+        <v>39.301643835616446</v>
       </c>
       <c r="G50" s="37"/>
-      <c r="H50" s="33"/>
+      <c r="H50" s="33">
+        <v>39</v>
+      </c>
       <c r="I50" s="33"/>
     </row>
     <row r="51" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -5093,7 +5097,7 @@
       </c>
       <c r="B5" s="26">
         <f>SUM('收益紀錄表(new) '!H19:H53)+1+35</f>
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>28</v>
@@ -5136,7 +5140,7 @@
       </c>
       <c r="B2" s="22">
         <f>SUM('收益紀錄表(new) '!C1:C53)/50</f>
-        <v>7.3668000000000011E-2</v>
+        <v>7.4910000000000018E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -5145,7 +5149,7 @@
       </c>
       <c r="B3" s="13">
         <f>SUM('收益紀錄表(new) '!E2:E100)/50</f>
-        <v>10.637391780821918</v>
+        <v>11.423424657534246</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -5154,7 +5158,7 @@
       </c>
       <c r="B4" s="39">
         <f>SUM('收益紀錄表(new) '!D2:D100)/50</f>
-        <v>554.66399999999999</v>
+        <v>595.65</v>
       </c>
     </row>
   </sheetData>
@@ -5226,1135 +5230,1135 @@
       <c r="M1" s="40"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41">
+      <c r="A2" s="42">
         <v>1</v>
       </c>
-      <c r="B2" s="45">
+      <c r="B2" s="43">
         <v>43209</v>
       </c>
-      <c r="C2" s="42">
+      <c r="C2" s="41">
         <v>5.81</v>
       </c>
-      <c r="D2" s="42">
+      <c r="D2" s="41">
         <v>174.3</v>
       </c>
-      <c r="E2" s="42">
+      <c r="E2" s="41">
         <v>3.34</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="50" t="s">
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="50"/>
-      <c r="L2" s="49">
+      <c r="K2" s="52"/>
+      <c r="L2" s="51">
         <f>SUM(C:C)/33</f>
         <v>8.4699999999999989</v>
       </c>
-      <c r="M2" s="49"/>
+      <c r="M2" s="51"/>
     </row>
     <row r="3" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="41"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="41">
+      <c r="A4" s="42">
         <v>2</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="43">
         <v>43216</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="41">
         <v>6.13</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="41">
         <v>183.9</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="41">
         <v>3.52</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="J4" s="47" t="s">
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="J4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="47"/>
-      <c r="L4" s="48">
+      <c r="K4" s="49"/>
+      <c r="L4" s="50">
         <f>SUM(E:E)/33</f>
         <v>4.8678787878787873</v>
       </c>
-      <c r="M4" s="48"/>
+      <c r="M4" s="50"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41">
+      <c r="A6" s="42">
         <v>3</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="43">
         <v>43223</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="41">
         <v>6.02</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="41">
         <v>180.6</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="41">
         <v>3.46</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="J6" s="47" t="s">
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="J6" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="47"/>
-      <c r="L6" s="48">
+      <c r="K6" s="49"/>
+      <c r="L6" s="50">
         <f>SUM(D:D)/33</f>
         <v>254.10000000000002</v>
       </c>
-      <c r="M6" s="48"/>
+      <c r="M6" s="50"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="41"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="41">
+      <c r="A8" s="42">
         <v>4</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="43">
         <v>43230</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="41">
         <v>5.96</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="41">
         <v>178.8</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="41">
         <v>3.42</v>
       </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="41"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41">
+      <c r="A10" s="42">
         <v>5</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="43">
         <v>43237</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="41">
         <v>5.27</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="41">
         <v>158.1</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="41">
         <v>3.03</v>
       </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="41"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41">
+      <c r="A12" s="42">
         <v>6</v>
       </c>
-      <c r="B12" s="45">
+      <c r="B12" s="43">
         <v>43244</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="41">
         <v>6.13</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="41">
         <v>183.9</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="41">
         <v>3.52</v>
       </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="41"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="41">
+      <c r="A14" s="42">
         <v>7</v>
       </c>
-      <c r="B14" s="45">
+      <c r="B14" s="43">
         <v>43251</v>
       </c>
-      <c r="C14" s="42">
+      <c r="C14" s="41">
         <v>6.13</v>
       </c>
-      <c r="D14" s="42">
+      <c r="D14" s="41">
         <v>183.9</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="41">
         <v>3.52</v>
       </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="41">
+      <c r="A16" s="42">
         <v>8</v>
       </c>
-      <c r="B16" s="45">
+      <c r="B16" s="43">
         <v>43258</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C16" s="41">
         <v>6.15</v>
       </c>
-      <c r="D16" s="42">
+      <c r="D16" s="41">
         <v>184.5</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="41">
         <v>3.53</v>
       </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="41"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="41">
+      <c r="A18" s="42">
         <v>9</v>
       </c>
-      <c r="B18" s="45">
+      <c r="B18" s="43">
         <v>43265</v>
       </c>
-      <c r="C18" s="42">
+      <c r="C18" s="41">
         <v>9.27</v>
       </c>
-      <c r="D18" s="42">
+      <c r="D18" s="41">
         <v>278.10000000000002</v>
       </c>
-      <c r="E18" s="42">
+      <c r="E18" s="41">
         <v>5.33</v>
       </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="46" t="s">
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="53" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="41"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="46"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="53"/>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="41">
+      <c r="A20" s="42">
         <v>10</v>
       </c>
-      <c r="B20" s="45">
+      <c r="B20" s="43">
         <v>43268</v>
       </c>
-      <c r="C20" s="42">
+      <c r="C20" s="41">
         <v>10.130000000000001</v>
       </c>
-      <c r="D20" s="42">
+      <c r="D20" s="41">
         <v>303.89999999999998</v>
       </c>
-      <c r="E20" s="42">
+      <c r="E20" s="41">
         <v>5.82</v>
       </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="41"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="41">
+      <c r="A22" s="42">
         <v>11</v>
       </c>
-      <c r="B22" s="45">
+      <c r="B22" s="43">
         <v>43279</v>
       </c>
-      <c r="C22" s="42">
+      <c r="C22" s="41">
         <v>12.41</v>
       </c>
-      <c r="D22" s="42">
+      <c r="D22" s="41">
         <v>372.3</v>
       </c>
-      <c r="E22" s="42">
+      <c r="E22" s="41">
         <v>7.14</v>
       </c>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="41"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="41">
+      <c r="A24" s="42">
         <v>12</v>
       </c>
-      <c r="B24" s="45">
+      <c r="B24" s="43">
         <v>43286</v>
       </c>
-      <c r="C24" s="42">
+      <c r="C24" s="41">
         <v>19.71</v>
       </c>
-      <c r="D24" s="42">
+      <c r="D24" s="41">
         <v>591.29999999999995</v>
       </c>
-      <c r="E24" s="42">
+      <c r="E24" s="41">
         <v>11.34</v>
       </c>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="41"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="41">
+      <c r="A26" s="42">
         <v>13</v>
       </c>
-      <c r="B26" s="45">
+      <c r="B26" s="43">
         <v>43293</v>
       </c>
-      <c r="C26" s="42">
+      <c r="C26" s="41">
         <v>23</v>
       </c>
-      <c r="D26" s="42">
+      <c r="D26" s="41">
         <v>690</v>
       </c>
-      <c r="E26" s="42">
+      <c r="E26" s="41">
         <v>13.23</v>
       </c>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="46" t="s">
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="53" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="41"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="46"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="53"/>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="41">
+      <c r="A28" s="42">
         <v>14</v>
       </c>
-      <c r="B28" s="45">
+      <c r="B28" s="43">
         <v>43300</v>
       </c>
-      <c r="C28" s="42">
+      <c r="C28" s="41">
         <v>14.97</v>
       </c>
-      <c r="D28" s="42">
+      <c r="D28" s="41">
         <v>449.1</v>
       </c>
-      <c r="E28" s="42">
+      <c r="E28" s="41">
         <v>8.61</v>
       </c>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="41"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="41">
+      <c r="A30" s="42">
         <v>15</v>
       </c>
-      <c r="B30" s="45">
+      <c r="B30" s="43">
         <v>43307</v>
       </c>
-      <c r="C30" s="42">
+      <c r="C30" s="41">
         <v>7.67</v>
       </c>
-      <c r="D30" s="42">
+      <c r="D30" s="41">
         <v>230.1</v>
       </c>
-      <c r="E30" s="42">
+      <c r="E30" s="41">
         <v>4.41</v>
       </c>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="41"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="41">
+      <c r="A32" s="42">
         <v>16</v>
       </c>
-      <c r="B32" s="45">
+      <c r="B32" s="43">
         <v>43314</v>
       </c>
-      <c r="C32" s="42">
+      <c r="C32" s="41">
         <v>8.0299999999999994</v>
       </c>
-      <c r="D32" s="42">
+      <c r="D32" s="41">
         <v>240.9</v>
       </c>
-      <c r="E32" s="42">
+      <c r="E32" s="41">
         <v>4.62</v>
       </c>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="41"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="41">
+      <c r="A34" s="42">
         <v>17</v>
       </c>
-      <c r="B34" s="45">
+      <c r="B34" s="43">
         <v>43321</v>
       </c>
-      <c r="C34" s="42">
+      <c r="C34" s="41">
         <v>6.21</v>
       </c>
-      <c r="D34" s="42">
+      <c r="D34" s="41">
         <v>186.3</v>
       </c>
-      <c r="E34" s="42">
+      <c r="E34" s="41">
         <v>3.5</v>
       </c>
-      <c r="F34" s="42">
+      <c r="F34" s="41">
         <v>3000</v>
       </c>
-      <c r="G34" s="42"/>
-      <c r="H34" s="46" t="s">
+      <c r="G34" s="41"/>
+      <c r="H34" s="53" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="41"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="46"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="53"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="41">
+      <c r="A36" s="42">
         <v>18</v>
       </c>
-      <c r="B36" s="45">
+      <c r="B36" s="43">
         <v>43328</v>
       </c>
-      <c r="C36" s="42">
+      <c r="C36" s="41">
         <v>6.57</v>
       </c>
-      <c r="D36" s="42">
+      <c r="D36" s="41">
         <v>197.1</v>
       </c>
-      <c r="E36" s="42">
+      <c r="E36" s="41">
         <v>3.78</v>
       </c>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42">
+      <c r="F36" s="41"/>
+      <c r="G36" s="41">
         <v>4</v>
       </c>
-      <c r="H36" s="42"/>
+      <c r="H36" s="41"/>
     </row>
     <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="41"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
     </row>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="41">
+      <c r="A38" s="42">
         <v>19</v>
       </c>
-      <c r="B38" s="45">
+      <c r="B38" s="43">
         <v>43335</v>
       </c>
-      <c r="C38" s="42">
+      <c r="C38" s="41">
         <v>6.94</v>
       </c>
-      <c r="D38" s="42">
+      <c r="D38" s="41">
         <v>208.2</v>
       </c>
-      <c r="E38" s="42">
+      <c r="E38" s="41">
         <v>3.99</v>
       </c>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42">
+      <c r="F38" s="41"/>
+      <c r="G38" s="41">
         <v>4</v>
       </c>
-      <c r="H38" s="42"/>
+      <c r="H38" s="41"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="41"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
+      <c r="A39" s="42"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="41">
+      <c r="A40" s="42">
         <v>20</v>
       </c>
-      <c r="B40" s="45">
+      <c r="B40" s="43">
         <v>43342</v>
       </c>
-      <c r="C40" s="42">
+      <c r="C40" s="41">
         <v>6.21</v>
       </c>
-      <c r="D40" s="42">
+      <c r="D40" s="41">
         <v>186.3</v>
       </c>
-      <c r="E40" s="42">
+      <c r="E40" s="41">
         <v>3.57</v>
       </c>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42">
+      <c r="F40" s="41"/>
+      <c r="G40" s="41">
         <v>4</v>
       </c>
-      <c r="H40" s="42"/>
+      <c r="H40" s="41"/>
     </row>
     <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="41"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
+      <c r="A41" s="42"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="41">
+      <c r="A42" s="42">
         <v>21</v>
       </c>
-      <c r="B42" s="45">
+      <c r="B42" s="43">
         <v>43349</v>
       </c>
-      <c r="C42" s="42">
+      <c r="C42" s="41">
         <v>6.21</v>
       </c>
-      <c r="D42" s="42">
+      <c r="D42" s="41">
         <v>186.3</v>
       </c>
-      <c r="E42" s="42">
+      <c r="E42" s="41">
         <v>3.57</v>
       </c>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42">
+      <c r="F42" s="41"/>
+      <c r="G42" s="41">
         <v>4</v>
       </c>
-      <c r="H42" s="42"/>
+      <c r="H42" s="41"/>
     </row>
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="41"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="41">
+      <c r="A44" s="42">
         <v>22</v>
       </c>
-      <c r="B44" s="45">
+      <c r="B44" s="43">
         <v>43356</v>
       </c>
-      <c r="C44" s="42">
+      <c r="C44" s="41">
         <v>7.67</v>
       </c>
-      <c r="D44" s="42">
+      <c r="D44" s="41">
         <v>230.1</v>
       </c>
-      <c r="E44" s="42">
+      <c r="E44" s="41">
         <v>4.41</v>
       </c>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42">
+      <c r="F44" s="41"/>
+      <c r="G44" s="41">
         <v>4</v>
       </c>
-      <c r="H44" s="51" t="s">
+      <c r="H44" s="46" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="41"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="51"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="46"/>
     </row>
     <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="41">
+      <c r="A46" s="42">
         <v>23</v>
       </c>
-      <c r="B46" s="45">
+      <c r="B46" s="43">
         <v>43363</v>
       </c>
-      <c r="C46" s="42">
+      <c r="C46" s="41">
         <v>6.94</v>
       </c>
-      <c r="D46" s="42">
+      <c r="D46" s="41">
         <v>208.2</v>
       </c>
-      <c r="E46" s="42">
+      <c r="E46" s="41">
         <v>3.99</v>
       </c>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42">
+      <c r="F46" s="41"/>
+      <c r="G46" s="41">
         <v>4</v>
       </c>
-      <c r="H46" s="42"/>
+      <c r="H46" s="41"/>
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="41"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
+      <c r="A47" s="42"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="41">
+      <c r="A48" s="42">
         <v>24</v>
       </c>
-      <c r="B48" s="45">
+      <c r="B48" s="43">
         <v>43370</v>
       </c>
-      <c r="C48" s="42">
+      <c r="C48" s="41">
         <v>6.57</v>
       </c>
-      <c r="D48" s="42">
+      <c r="D48" s="41">
         <v>197.1</v>
       </c>
-      <c r="E48" s="42">
+      <c r="E48" s="41">
         <v>3.78</v>
       </c>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42">
+      <c r="F48" s="41"/>
+      <c r="G48" s="41">
         <v>4</v>
       </c>
-      <c r="H48" s="42"/>
+      <c r="H48" s="41"/>
     </row>
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="41"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
+      <c r="A49" s="42"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="41">
+      <c r="A50" s="42">
         <v>25</v>
       </c>
-      <c r="B50" s="45">
+      <c r="B50" s="43">
         <v>43377</v>
       </c>
-      <c r="C50" s="42">
+      <c r="C50" s="41">
         <v>6.21</v>
       </c>
-      <c r="D50" s="42">
+      <c r="D50" s="41">
         <v>186.3</v>
       </c>
-      <c r="E50" s="42">
+      <c r="E50" s="41">
         <v>3.57</v>
       </c>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42">
+      <c r="F50" s="41"/>
+      <c r="G50" s="41">
         <v>4</v>
       </c>
-      <c r="H50" s="42"/>
+      <c r="H50" s="41"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="41"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
+      <c r="A51" s="42"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
     </row>
     <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="41">
+      <c r="A52" s="42">
         <v>26</v>
       </c>
-      <c r="B52" s="45">
+      <c r="B52" s="43">
         <v>43384</v>
       </c>
-      <c r="C52" s="42">
+      <c r="C52" s="41">
         <v>6.57</v>
       </c>
-      <c r="D52" s="42">
+      <c r="D52" s="41">
         <v>197.1</v>
       </c>
-      <c r="E52" s="42">
+      <c r="E52" s="41">
         <v>3.78</v>
       </c>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42">
+      <c r="F52" s="41"/>
+      <c r="G52" s="41">
         <v>4</v>
       </c>
-      <c r="H52" s="51" t="s">
+      <c r="H52" s="46" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="41"/>
-      <c r="B53" s="42"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="42"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="42"/>
-      <c r="H53" s="51"/>
+      <c r="A53" s="42"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="46"/>
     </row>
     <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="41">
+      <c r="A54" s="42">
         <v>27</v>
       </c>
-      <c r="B54" s="45">
+      <c r="B54" s="43">
         <v>43391</v>
       </c>
-      <c r="C54" s="42">
+      <c r="C54" s="41">
         <v>6.21</v>
       </c>
-      <c r="D54" s="42">
+      <c r="D54" s="41">
         <v>186.3</v>
       </c>
-      <c r="E54" s="42">
+      <c r="E54" s="41">
         <v>3.57</v>
       </c>
-      <c r="F54" s="42"/>
-      <c r="G54" s="42">
+      <c r="F54" s="41"/>
+      <c r="G54" s="41">
         <v>4</v>
       </c>
-      <c r="H54" s="42"/>
+      <c r="H54" s="41"/>
     </row>
     <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="41"/>
-      <c r="B55" s="42"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="42"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
     </row>
     <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="41">
+      <c r="A56" s="42">
         <v>28</v>
       </c>
-      <c r="B56" s="52">
+      <c r="B56" s="48">
         <v>43398</v>
       </c>
-      <c r="C56" s="53">
+      <c r="C56" s="47">
         <v>5.84</v>
       </c>
-      <c r="D56" s="53">
+      <c r="D56" s="47">
         <v>175.2</v>
       </c>
-      <c r="E56" s="53">
+      <c r="E56" s="47">
         <v>3.36</v>
       </c>
-      <c r="F56" s="53"/>
-      <c r="G56" s="53">
+      <c r="F56" s="47"/>
+      <c r="G56" s="47">
         <v>3</v>
       </c>
-      <c r="H56" s="53" t="s">
+      <c r="H56" s="47" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="41"/>
-      <c r="B57" s="53"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="53"/>
-      <c r="F57" s="53"/>
-      <c r="G57" s="53"/>
-      <c r="H57" s="53"/>
+      <c r="A57" s="42"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="47"/>
     </row>
     <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="41">
+      <c r="A58" s="42">
         <v>29</v>
       </c>
-      <c r="B58" s="45">
+      <c r="B58" s="43">
         <v>43405</v>
       </c>
-      <c r="C58" s="42">
+      <c r="C58" s="41">
         <v>6.21</v>
       </c>
-      <c r="D58" s="42">
+      <c r="D58" s="41">
         <v>186.3</v>
       </c>
-      <c r="E58" s="42">
+      <c r="E58" s="41">
         <v>3.57</v>
       </c>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42">
+      <c r="F58" s="41"/>
+      <c r="G58" s="41">
         <v>4</v>
       </c>
-      <c r="H58" s="42"/>
+      <c r="H58" s="41"/>
     </row>
     <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="41"/>
-      <c r="B59" s="42"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="42"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="42"/>
+      <c r="A59" s="42"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
     </row>
     <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="41">
+      <c r="A60" s="42">
         <v>30</v>
       </c>
-      <c r="B60" s="45">
+      <c r="B60" s="43">
         <v>43413</v>
       </c>
-      <c r="C60" s="42">
+      <c r="C60" s="41">
         <v>5.84</v>
       </c>
-      <c r="D60" s="53">
+      <c r="D60" s="47">
         <v>175.2</v>
       </c>
-      <c r="E60" s="53">
+      <c r="E60" s="47">
         <v>3.36</v>
       </c>
-      <c r="F60" s="53"/>
-      <c r="G60" s="53">
+      <c r="F60" s="47"/>
+      <c r="G60" s="47">
         <v>3</v>
       </c>
-      <c r="H60" s="42"/>
+      <c r="H60" s="41"/>
     </row>
     <row r="61" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="41"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="53"/>
-      <c r="E61" s="53"/>
-      <c r="F61" s="53"/>
-      <c r="G61" s="53"/>
-      <c r="H61" s="42"/>
+      <c r="A61" s="42"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="47"/>
+      <c r="H61" s="41"/>
     </row>
     <row r="62" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="41">
+      <c r="A62" s="42">
         <v>31</v>
       </c>
-      <c r="B62" s="45">
+      <c r="B62" s="43">
         <v>43419</v>
       </c>
-      <c r="C62" s="42">
+      <c r="C62" s="41">
         <v>5.48</v>
       </c>
-      <c r="D62" s="53">
+      <c r="D62" s="47">
         <v>164.4</v>
       </c>
-      <c r="E62" s="53">
+      <c r="E62" s="47">
         <v>3.15</v>
       </c>
-      <c r="F62" s="53"/>
-      <c r="G62" s="53">
+      <c r="F62" s="47"/>
+      <c r="G62" s="47">
         <v>3</v>
       </c>
-      <c r="H62" s="42"/>
+      <c r="H62" s="41"/>
     </row>
     <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="41"/>
-      <c r="B63" s="42"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="53"/>
-      <c r="E63" s="53"/>
-      <c r="F63" s="53"/>
-      <c r="G63" s="53"/>
-      <c r="H63" s="42"/>
+      <c r="A63" s="42"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="47"/>
+      <c r="E63" s="47"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="47"/>
+      <c r="H63" s="41"/>
     </row>
     <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="41">
+      <c r="A64" s="42">
         <v>32</v>
       </c>
-      <c r="B64" s="45">
+      <c r="B64" s="43">
         <v>43426</v>
       </c>
-      <c r="C64" s="42">
+      <c r="C64" s="41">
         <v>6.21</v>
       </c>
-      <c r="D64" s="42">
+      <c r="D64" s="41">
         <v>186.3</v>
       </c>
-      <c r="E64" s="42">
+      <c r="E64" s="41">
         <v>3.57</v>
       </c>
-      <c r="F64" s="42"/>
-      <c r="G64" s="42">
+      <c r="F64" s="41"/>
+      <c r="G64" s="41">
         <v>4</v>
       </c>
-      <c r="H64" s="42"/>
+      <c r="H64" s="41"/>
     </row>
     <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="41"/>
-      <c r="B65" s="42"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="42"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="42"/>
-      <c r="H65" s="42"/>
+      <c r="A65" s="42"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="41"/>
+      <c r="H65" s="41"/>
     </row>
     <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="41">
+      <c r="A66" s="42">
         <v>33</v>
       </c>
-      <c r="B66" s="45">
+      <c r="B66" s="43">
         <v>43433</v>
       </c>
-      <c r="C66" s="42">
+      <c r="C66" s="41">
         <v>6.57</v>
       </c>
-      <c r="D66" s="42">
+      <c r="D66" s="41">
         <v>197.1</v>
       </c>
-      <c r="E66" s="42">
+      <c r="E66" s="41">
         <v>3.78</v>
       </c>
-      <c r="F66" s="42"/>
-      <c r="G66" s="42">
+      <c r="F66" s="41"/>
+      <c r="G66" s="41">
         <v>4</v>
       </c>
-      <c r="H66" s="42"/>
+      <c r="H66" s="41"/>
     </row>
     <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="41"/>
-      <c r="B67" s="42"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="42"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="42"/>
-      <c r="G67" s="42"/>
-      <c r="H67" s="42"/>
+      <c r="A67" s="42"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="41"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="41"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="41">
+      <c r="A68" s="42">
         <v>33</v>
       </c>
-      <c r="B68" s="45">
+      <c r="B68" s="43">
         <v>43440</v>
       </c>
-      <c r="C68" s="42">
+      <c r="C68" s="41">
         <v>5.48</v>
       </c>
-      <c r="D68" s="53">
+      <c r="D68" s="47">
         <v>164.4</v>
       </c>
-      <c r="E68" s="53">
+      <c r="E68" s="47">
         <v>3.15</v>
       </c>
-      <c r="F68" s="53"/>
-      <c r="G68" s="53">
+      <c r="F68" s="47"/>
+      <c r="G68" s="47">
         <v>3</v>
       </c>
-      <c r="H68" s="42"/>
+      <c r="H68" s="41"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="41"/>
-      <c r="B69" s="42"/>
-      <c r="C69" s="42"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="53"/>
-      <c r="G69" s="53"/>
-      <c r="H69" s="42"/>
+      <c r="A69" s="42"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="41"/>
     </row>
     <row r="70" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="41">
+      <c r="A70" s="42">
         <v>33</v>
       </c>
-      <c r="B70" s="45">
+      <c r="B70" s="43">
         <v>43447</v>
       </c>
-      <c r="C70" s="42">
+      <c r="C70" s="41">
         <v>6.57</v>
       </c>
-      <c r="D70" s="42">
+      <c r="D70" s="41">
         <v>197.1</v>
       </c>
-      <c r="E70" s="42">
+      <c r="E70" s="41">
         <v>3.78</v>
       </c>
-      <c r="F70" s="42"/>
-      <c r="G70" s="42">
+      <c r="F70" s="41"/>
+      <c r="G70" s="41">
         <v>4</v>
       </c>
-      <c r="H70" s="51" t="s">
+      <c r="H70" s="46" t="s">
         <v>17</v>
       </c>
       <c r="J70" s="4">
@@ -6362,49 +6366,321 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="41"/>
-      <c r="B71" s="42"/>
-      <c r="C71" s="42"/>
-      <c r="D71" s="42"/>
-      <c r="E71" s="42"/>
-      <c r="F71" s="42"/>
-      <c r="G71" s="42"/>
-      <c r="H71" s="51"/>
+      <c r="A71" s="42"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="41"/>
+      <c r="F71" s="41"/>
+      <c r="G71" s="41"/>
+      <c r="H71" s="46"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="41">
+      <c r="A72" s="42">
         <v>34</v>
       </c>
-      <c r="B72" s="45">
+      <c r="B72" s="43">
         <v>43454</v>
       </c>
-      <c r="C72" s="42">
+      <c r="C72" s="41">
         <v>6.21</v>
       </c>
-      <c r="D72" s="42">
+      <c r="D72" s="41">
         <v>186.3</v>
       </c>
-      <c r="E72" s="42">
+      <c r="E72" s="41">
         <v>3.57</v>
       </c>
-      <c r="F72" s="42"/>
-      <c r="G72" s="42">
+      <c r="F72" s="41"/>
+      <c r="G72" s="41">
         <v>4</v>
       </c>
-      <c r="H72" s="54"/>
+      <c r="H72" s="44"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="41"/>
-      <c r="B73" s="42"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="42"/>
-      <c r="E73" s="42"/>
-      <c r="F73" s="42"/>
-      <c r="G73" s="42"/>
-      <c r="H73" s="55"/>
+      <c r="A73" s="42"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="41"/>
+      <c r="D73" s="41"/>
+      <c r="E73" s="41"/>
+      <c r="F73" s="41"/>
+      <c r="G73" s="41"/>
+      <c r="H73" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="296">
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="L6:M7"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="L2:M3"/>
+    <mergeCell ref="J2:K3"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="J4:K5"/>
+    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="B66:B67"/>
     <mergeCell ref="C72:C73"/>
     <mergeCell ref="D72:D73"/>
     <mergeCell ref="E72:E73"/>
@@ -6429,278 +6705,6 @@
     <mergeCell ref="G68:G69"/>
     <mergeCell ref="A68:A69"/>
     <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="J6:K7"/>
-    <mergeCell ref="L6:M7"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="L2:M3"/>
-    <mergeCell ref="J2:K3"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="J4:K5"/>
-    <mergeCell ref="L4:M5"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/source/excel/AifianExecl.xlsx
+++ b/source/excel/AifianExecl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="20976" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="21432" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="收益紀錄表(new) " sheetId="7" r:id="rId1"/>
@@ -482,28 +482,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -518,14 +512,20 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1064,7 +1064,7 @@
                   <c:v>2049.3000000000002</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>2290.2000000000003</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>0</c:v>
@@ -1476,7 +1476,7 @@
                   <c:v>39.301643835616446</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>43.921643835616443</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>0</c:v>
@@ -3698,8 +3698,8 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F57" sqref="F57"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4952,18 +4952,20 @@
       <c r="B51" s="15">
         <v>43552</v>
       </c>
-      <c r="C51" s="19"/>
+      <c r="C51" s="19">
+        <v>6.9400000000000003E-2</v>
+      </c>
       <c r="D51" s="25">
         <f>投資金額!$B$2*'收益紀錄表(new) '!C51</f>
-        <v>0</v>
+        <v>2290.2000000000003</v>
       </c>
       <c r="E51" s="25">
         <f>D51/投資金額!$B$3*投資金額!$B$4</f>
-        <v>0</v>
+        <v>43.921643835616443</v>
       </c>
       <c r="F51" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>43.921643835616443</v>
       </c>
       <c r="G51" s="37"/>
       <c r="H51" s="33"/>
@@ -5140,7 +5142,7 @@
       </c>
       <c r="B2" s="22">
         <f>SUM('收益紀錄表(new) '!C1:C53)/50</f>
-        <v>7.4910000000000018E-2</v>
+        <v>7.6298000000000019E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -5149,7 +5151,7 @@
       </c>
       <c r="B3" s="13">
         <f>SUM('收益紀錄表(new) '!E2:E100)/50</f>
-        <v>11.423424657534246</v>
+        <v>12.301857534246576</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -5158,7 +5160,7 @@
       </c>
       <c r="B4" s="39">
         <f>SUM('收益紀錄表(new) '!D2:D100)/50</f>
-        <v>595.65</v>
+        <v>641.45399999999995</v>
       </c>
     </row>
   </sheetData>
@@ -5230,1135 +5232,1135 @@
       <c r="M1" s="40"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42">
+      <c r="A2" s="41">
         <v>1</v>
       </c>
-      <c r="B2" s="43">
+      <c r="B2" s="45">
         <v>43209</v>
       </c>
-      <c r="C2" s="41">
+      <c r="C2" s="42">
         <v>5.81</v>
       </c>
-      <c r="D2" s="41">
+      <c r="D2" s="42">
         <v>174.3</v>
       </c>
-      <c r="E2" s="41">
+      <c r="E2" s="42">
         <v>3.34</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="52" t="s">
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="52"/>
-      <c r="L2" s="51">
+      <c r="K2" s="50"/>
+      <c r="L2" s="49">
         <f>SUM(C:C)/33</f>
         <v>8.4699999999999989</v>
       </c>
-      <c r="M2" s="51"/>
+      <c r="M2" s="49"/>
     </row>
     <row r="3" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="42"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42">
+      <c r="A4" s="41">
         <v>2</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="45">
         <v>43216</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="42">
         <v>6.13</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="42">
         <v>183.9</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="42">
         <v>3.52</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="J4" s="49" t="s">
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="J4" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="49"/>
-      <c r="L4" s="50">
+      <c r="K4" s="47"/>
+      <c r="L4" s="48">
         <f>SUM(E:E)/33</f>
         <v>4.8678787878787873</v>
       </c>
-      <c r="M4" s="50"/>
+      <c r="M4" s="48"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42">
+      <c r="A6" s="41">
         <v>3</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="45">
         <v>43223</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="42">
         <v>6.02</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="42">
         <v>180.6</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="42">
         <v>3.46</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="J6" s="49" t="s">
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="J6" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="49"/>
-      <c r="L6" s="50">
+      <c r="K6" s="47"/>
+      <c r="L6" s="48">
         <f>SUM(D:D)/33</f>
         <v>254.10000000000002</v>
       </c>
-      <c r="M6" s="50"/>
+      <c r="M6" s="48"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="42">
+      <c r="A8" s="41">
         <v>4</v>
       </c>
-      <c r="B8" s="43">
+      <c r="B8" s="45">
         <v>43230</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="42">
         <v>5.96</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="42">
         <v>178.8</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="42">
         <v>3.42</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="42">
+      <c r="A10" s="41">
         <v>5</v>
       </c>
-      <c r="B10" s="43">
+      <c r="B10" s="45">
         <v>43237</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="42">
         <v>5.27</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="42">
         <v>158.1</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="42">
         <v>3.03</v>
       </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="42">
+      <c r="A12" s="41">
         <v>6</v>
       </c>
-      <c r="B12" s="43">
+      <c r="B12" s="45">
         <v>43244</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="42">
         <v>6.13</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="42">
         <v>183.9</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="42">
         <v>3.52</v>
       </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="42">
+      <c r="A14" s="41">
         <v>7</v>
       </c>
-      <c r="B14" s="43">
+      <c r="B14" s="45">
         <v>43251</v>
       </c>
-      <c r="C14" s="41">
+      <c r="C14" s="42">
         <v>6.13</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="42">
         <v>183.9</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="42">
         <v>3.52</v>
       </c>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42">
+      <c r="A16" s="41">
         <v>8</v>
       </c>
-      <c r="B16" s="43">
+      <c r="B16" s="45">
         <v>43258</v>
       </c>
-      <c r="C16" s="41">
+      <c r="C16" s="42">
         <v>6.15</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="42">
         <v>184.5</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="42">
         <v>3.53</v>
       </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="42">
+      <c r="A18" s="41">
         <v>9</v>
       </c>
-      <c r="B18" s="43">
+      <c r="B18" s="45">
         <v>43265</v>
       </c>
-      <c r="C18" s="41">
+      <c r="C18" s="42">
         <v>9.27</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="42">
         <v>278.10000000000002</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E18" s="42">
         <v>5.33</v>
       </c>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="53" t="s">
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="46" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="53"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="46"/>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="42">
+      <c r="A20" s="41">
         <v>10</v>
       </c>
-      <c r="B20" s="43">
+      <c r="B20" s="45">
         <v>43268</v>
       </c>
-      <c r="C20" s="41">
+      <c r="C20" s="42">
         <v>10.130000000000001</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="42">
         <v>303.89999999999998</v>
       </c>
-      <c r="E20" s="41">
+      <c r="E20" s="42">
         <v>5.82</v>
       </c>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="42"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42">
+      <c r="A22" s="41">
         <v>11</v>
       </c>
-      <c r="B22" s="43">
+      <c r="B22" s="45">
         <v>43279</v>
       </c>
-      <c r="C22" s="41">
+      <c r="C22" s="42">
         <v>12.41</v>
       </c>
-      <c r="D22" s="41">
+      <c r="D22" s="42">
         <v>372.3</v>
       </c>
-      <c r="E22" s="41">
+      <c r="E22" s="42">
         <v>7.14</v>
       </c>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="42"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="42">
+      <c r="A24" s="41">
         <v>12</v>
       </c>
-      <c r="B24" s="43">
+      <c r="B24" s="45">
         <v>43286</v>
       </c>
-      <c r="C24" s="41">
+      <c r="C24" s="42">
         <v>19.71</v>
       </c>
-      <c r="D24" s="41">
+      <c r="D24" s="42">
         <v>591.29999999999995</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E24" s="42">
         <v>11.34</v>
       </c>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="42"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="42">
+      <c r="A26" s="41">
         <v>13</v>
       </c>
-      <c r="B26" s="43">
+      <c r="B26" s="45">
         <v>43293</v>
       </c>
-      <c r="C26" s="41">
+      <c r="C26" s="42">
         <v>23</v>
       </c>
-      <c r="D26" s="41">
+      <c r="D26" s="42">
         <v>690</v>
       </c>
-      <c r="E26" s="41">
+      <c r="E26" s="42">
         <v>13.23</v>
       </c>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="53" t="s">
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="46" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="42"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="53"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="46"/>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="42">
+      <c r="A28" s="41">
         <v>14</v>
       </c>
-      <c r="B28" s="43">
+      <c r="B28" s="45">
         <v>43300</v>
       </c>
-      <c r="C28" s="41">
+      <c r="C28" s="42">
         <v>14.97</v>
       </c>
-      <c r="D28" s="41">
+      <c r="D28" s="42">
         <v>449.1</v>
       </c>
-      <c r="E28" s="41">
+      <c r="E28" s="42">
         <v>8.61</v>
       </c>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="42"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="42">
+      <c r="A30" s="41">
         <v>15</v>
       </c>
-      <c r="B30" s="43">
+      <c r="B30" s="45">
         <v>43307</v>
       </c>
-      <c r="C30" s="41">
+      <c r="C30" s="42">
         <v>7.67</v>
       </c>
-      <c r="D30" s="41">
+      <c r="D30" s="42">
         <v>230.1</v>
       </c>
-      <c r="E30" s="41">
+      <c r="E30" s="42">
         <v>4.41</v>
       </c>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="42"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="42">
+      <c r="A32" s="41">
         <v>16</v>
       </c>
-      <c r="B32" s="43">
+      <c r="B32" s="45">
         <v>43314</v>
       </c>
-      <c r="C32" s="41">
+      <c r="C32" s="42">
         <v>8.0299999999999994</v>
       </c>
-      <c r="D32" s="41">
+      <c r="D32" s="42">
         <v>240.9</v>
       </c>
-      <c r="E32" s="41">
+      <c r="E32" s="42">
         <v>4.62</v>
       </c>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="42"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="42">
+      <c r="A34" s="41">
         <v>17</v>
       </c>
-      <c r="B34" s="43">
+      <c r="B34" s="45">
         <v>43321</v>
       </c>
-      <c r="C34" s="41">
+      <c r="C34" s="42">
         <v>6.21</v>
       </c>
-      <c r="D34" s="41">
+      <c r="D34" s="42">
         <v>186.3</v>
       </c>
-      <c r="E34" s="41">
+      <c r="E34" s="42">
         <v>3.5</v>
       </c>
-      <c r="F34" s="41">
+      <c r="F34" s="42">
         <v>3000</v>
       </c>
-      <c r="G34" s="41"/>
-      <c r="H34" s="53" t="s">
+      <c r="G34" s="42"/>
+      <c r="H34" s="46" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="42"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="53"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="46"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="42">
+      <c r="A36" s="41">
         <v>18</v>
       </c>
-      <c r="B36" s="43">
+      <c r="B36" s="45">
         <v>43328</v>
       </c>
-      <c r="C36" s="41">
+      <c r="C36" s="42">
         <v>6.57</v>
       </c>
-      <c r="D36" s="41">
+      <c r="D36" s="42">
         <v>197.1</v>
       </c>
-      <c r="E36" s="41">
+      <c r="E36" s="42">
         <v>3.78</v>
       </c>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41">
+      <c r="F36" s="42"/>
+      <c r="G36" s="42">
         <v>4</v>
       </c>
-      <c r="H36" s="41"/>
+      <c r="H36" s="42"/>
     </row>
     <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="42"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
     </row>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="42">
+      <c r="A38" s="41">
         <v>19</v>
       </c>
-      <c r="B38" s="43">
+      <c r="B38" s="45">
         <v>43335</v>
       </c>
-      <c r="C38" s="41">
+      <c r="C38" s="42">
         <v>6.94</v>
       </c>
-      <c r="D38" s="41">
+      <c r="D38" s="42">
         <v>208.2</v>
       </c>
-      <c r="E38" s="41">
+      <c r="E38" s="42">
         <v>3.99</v>
       </c>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41">
+      <c r="F38" s="42"/>
+      <c r="G38" s="42">
         <v>4</v>
       </c>
-      <c r="H38" s="41"/>
+      <c r="H38" s="42"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="42"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="42">
+      <c r="A40" s="41">
         <v>20</v>
       </c>
-      <c r="B40" s="43">
+      <c r="B40" s="45">
         <v>43342</v>
       </c>
-      <c r="C40" s="41">
+      <c r="C40" s="42">
         <v>6.21</v>
       </c>
-      <c r="D40" s="41">
+      <c r="D40" s="42">
         <v>186.3</v>
       </c>
-      <c r="E40" s="41">
+      <c r="E40" s="42">
         <v>3.57</v>
       </c>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41">
+      <c r="F40" s="42"/>
+      <c r="G40" s="42">
         <v>4</v>
       </c>
-      <c r="H40" s="41"/>
+      <c r="H40" s="42"/>
     </row>
     <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="42"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="42">
+      <c r="A42" s="41">
         <v>21</v>
       </c>
-      <c r="B42" s="43">
+      <c r="B42" s="45">
         <v>43349</v>
       </c>
-      <c r="C42" s="41">
+      <c r="C42" s="42">
         <v>6.21</v>
       </c>
-      <c r="D42" s="41">
+      <c r="D42" s="42">
         <v>186.3</v>
       </c>
-      <c r="E42" s="41">
+      <c r="E42" s="42">
         <v>3.57</v>
       </c>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41">
+      <c r="F42" s="42"/>
+      <c r="G42" s="42">
         <v>4</v>
       </c>
-      <c r="H42" s="41"/>
+      <c r="H42" s="42"/>
     </row>
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="42"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="42">
+      <c r="A44" s="41">
         <v>22</v>
       </c>
-      <c r="B44" s="43">
+      <c r="B44" s="45">
         <v>43356</v>
       </c>
-      <c r="C44" s="41">
+      <c r="C44" s="42">
         <v>7.67</v>
       </c>
-      <c r="D44" s="41">
+      <c r="D44" s="42">
         <v>230.1</v>
       </c>
-      <c r="E44" s="41">
+      <c r="E44" s="42">
         <v>4.41</v>
       </c>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41">
+      <c r="F44" s="42"/>
+      <c r="G44" s="42">
         <v>4</v>
       </c>
-      <c r="H44" s="46" t="s">
+      <c r="H44" s="51" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="42"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="46"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="51"/>
     </row>
     <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="42">
+      <c r="A46" s="41">
         <v>23</v>
       </c>
-      <c r="B46" s="43">
+      <c r="B46" s="45">
         <v>43363</v>
       </c>
-      <c r="C46" s="41">
+      <c r="C46" s="42">
         <v>6.94</v>
       </c>
-      <c r="D46" s="41">
+      <c r="D46" s="42">
         <v>208.2</v>
       </c>
-      <c r="E46" s="41">
+      <c r="E46" s="42">
         <v>3.99</v>
       </c>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41">
+      <c r="F46" s="42"/>
+      <c r="G46" s="42">
         <v>4</v>
       </c>
-      <c r="H46" s="41"/>
+      <c r="H46" s="42"/>
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="42"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="42">
+      <c r="A48" s="41">
         <v>24</v>
       </c>
-      <c r="B48" s="43">
+      <c r="B48" s="45">
         <v>43370</v>
       </c>
-      <c r="C48" s="41">
+      <c r="C48" s="42">
         <v>6.57</v>
       </c>
-      <c r="D48" s="41">
+      <c r="D48" s="42">
         <v>197.1</v>
       </c>
-      <c r="E48" s="41">
+      <c r="E48" s="42">
         <v>3.78</v>
       </c>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41">
+      <c r="F48" s="42"/>
+      <c r="G48" s="42">
         <v>4</v>
       </c>
-      <c r="H48" s="41"/>
+      <c r="H48" s="42"/>
     </row>
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="42"/>
-      <c r="B49" s="41"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="42">
+      <c r="A50" s="41">
         <v>25</v>
       </c>
-      <c r="B50" s="43">
+      <c r="B50" s="45">
         <v>43377</v>
       </c>
-      <c r="C50" s="41">
+      <c r="C50" s="42">
         <v>6.21</v>
       </c>
-      <c r="D50" s="41">
+      <c r="D50" s="42">
         <v>186.3</v>
       </c>
-      <c r="E50" s="41">
+      <c r="E50" s="42">
         <v>3.57</v>
       </c>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41">
+      <c r="F50" s="42"/>
+      <c r="G50" s="42">
         <v>4</v>
       </c>
-      <c r="H50" s="41"/>
+      <c r="H50" s="42"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="42"/>
-      <c r="B51" s="41"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
     </row>
     <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="42">
+      <c r="A52" s="41">
         <v>26</v>
       </c>
-      <c r="B52" s="43">
+      <c r="B52" s="45">
         <v>43384</v>
       </c>
-      <c r="C52" s="41">
+      <c r="C52" s="42">
         <v>6.57</v>
       </c>
-      <c r="D52" s="41">
+      <c r="D52" s="42">
         <v>197.1</v>
       </c>
-      <c r="E52" s="41">
+      <c r="E52" s="42">
         <v>3.78</v>
       </c>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41">
+      <c r="F52" s="42"/>
+      <c r="G52" s="42">
         <v>4</v>
       </c>
-      <c r="H52" s="46" t="s">
+      <c r="H52" s="51" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="42"/>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="46"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="51"/>
     </row>
     <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="42">
+      <c r="A54" s="41">
         <v>27</v>
       </c>
-      <c r="B54" s="43">
+      <c r="B54" s="45">
         <v>43391</v>
       </c>
-      <c r="C54" s="41">
+      <c r="C54" s="42">
         <v>6.21</v>
       </c>
-      <c r="D54" s="41">
+      <c r="D54" s="42">
         <v>186.3</v>
       </c>
-      <c r="E54" s="41">
+      <c r="E54" s="42">
         <v>3.57</v>
       </c>
-      <c r="F54" s="41"/>
-      <c r="G54" s="41">
+      <c r="F54" s="42"/>
+      <c r="G54" s="42">
         <v>4</v>
       </c>
-      <c r="H54" s="41"/>
+      <c r="H54" s="42"/>
     </row>
     <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="42"/>
-      <c r="B55" s="41"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
     </row>
     <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="42">
+      <c r="A56" s="41">
         <v>28</v>
       </c>
-      <c r="B56" s="48">
+      <c r="B56" s="52">
         <v>43398</v>
       </c>
-      <c r="C56" s="47">
+      <c r="C56" s="53">
         <v>5.84</v>
       </c>
-      <c r="D56" s="47">
+      <c r="D56" s="53">
         <v>175.2</v>
       </c>
-      <c r="E56" s="47">
+      <c r="E56" s="53">
         <v>3.36</v>
       </c>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47">
+      <c r="F56" s="53"/>
+      <c r="G56" s="53">
         <v>3</v>
       </c>
-      <c r="H56" s="47" t="s">
+      <c r="H56" s="53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="42"/>
-      <c r="B57" s="47"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="47"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="53"/>
+      <c r="G57" s="53"/>
+      <c r="H57" s="53"/>
     </row>
     <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="42">
+      <c r="A58" s="41">
         <v>29</v>
       </c>
-      <c r="B58" s="43">
+      <c r="B58" s="45">
         <v>43405</v>
       </c>
-      <c r="C58" s="41">
+      <c r="C58" s="42">
         <v>6.21</v>
       </c>
-      <c r="D58" s="41">
+      <c r="D58" s="42">
         <v>186.3</v>
       </c>
-      <c r="E58" s="41">
+      <c r="E58" s="42">
         <v>3.57</v>
       </c>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41">
+      <c r="F58" s="42"/>
+      <c r="G58" s="42">
         <v>4</v>
       </c>
-      <c r="H58" s="41"/>
+      <c r="H58" s="42"/>
     </row>
     <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="42"/>
-      <c r="B59" s="41"/>
-      <c r="C59" s="41"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="41"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
     </row>
     <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="42">
+      <c r="A60" s="41">
         <v>30</v>
       </c>
-      <c r="B60" s="43">
+      <c r="B60" s="45">
         <v>43413</v>
       </c>
-      <c r="C60" s="41">
+      <c r="C60" s="42">
         <v>5.84</v>
       </c>
-      <c r="D60" s="47">
+      <c r="D60" s="53">
         <v>175.2</v>
       </c>
-      <c r="E60" s="47">
+      <c r="E60" s="53">
         <v>3.36</v>
       </c>
-      <c r="F60" s="47"/>
-      <c r="G60" s="47">
+      <c r="F60" s="53"/>
+      <c r="G60" s="53">
         <v>3</v>
       </c>
-      <c r="H60" s="41"/>
+      <c r="H60" s="42"/>
     </row>
     <row r="61" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="42"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="47"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="47"/>
-      <c r="H61" s="41"/>
+      <c r="A61" s="41"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="53"/>
+      <c r="G61" s="53"/>
+      <c r="H61" s="42"/>
     </row>
     <row r="62" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="42">
+      <c r="A62" s="41">
         <v>31</v>
       </c>
-      <c r="B62" s="43">
+      <c r="B62" s="45">
         <v>43419</v>
       </c>
-      <c r="C62" s="41">
+      <c r="C62" s="42">
         <v>5.48</v>
       </c>
-      <c r="D62" s="47">
+      <c r="D62" s="53">
         <v>164.4</v>
       </c>
-      <c r="E62" s="47">
+      <c r="E62" s="53">
         <v>3.15</v>
       </c>
-      <c r="F62" s="47"/>
-      <c r="G62" s="47">
+      <c r="F62" s="53"/>
+      <c r="G62" s="53">
         <v>3</v>
       </c>
-      <c r="H62" s="41"/>
+      <c r="H62" s="42"/>
     </row>
     <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="42"/>
-      <c r="B63" s="41"/>
-      <c r="C63" s="41"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="47"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="47"/>
-      <c r="H63" s="41"/>
+      <c r="A63" s="41"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="53"/>
+      <c r="G63" s="53"/>
+      <c r="H63" s="42"/>
     </row>
     <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="42">
+      <c r="A64" s="41">
         <v>32</v>
       </c>
-      <c r="B64" s="43">
+      <c r="B64" s="45">
         <v>43426</v>
       </c>
-      <c r="C64" s="41">
+      <c r="C64" s="42">
         <v>6.21</v>
       </c>
-      <c r="D64" s="41">
+      <c r="D64" s="42">
         <v>186.3</v>
       </c>
-      <c r="E64" s="41">
+      <c r="E64" s="42">
         <v>3.57</v>
       </c>
-      <c r="F64" s="41"/>
-      <c r="G64" s="41">
+      <c r="F64" s="42"/>
+      <c r="G64" s="42">
         <v>4</v>
       </c>
-      <c r="H64" s="41"/>
+      <c r="H64" s="42"/>
     </row>
     <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="42"/>
-      <c r="B65" s="41"/>
-      <c r="C65" s="41"/>
-      <c r="D65" s="41"/>
-      <c r="E65" s="41"/>
-      <c r="F65" s="41"/>
-      <c r="G65" s="41"/>
-      <c r="H65" s="41"/>
+      <c r="A65" s="41"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
     </row>
     <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="42">
+      <c r="A66" s="41">
         <v>33</v>
       </c>
-      <c r="B66" s="43">
+      <c r="B66" s="45">
         <v>43433</v>
       </c>
-      <c r="C66" s="41">
+      <c r="C66" s="42">
         <v>6.57</v>
       </c>
-      <c r="D66" s="41">
+      <c r="D66" s="42">
         <v>197.1</v>
       </c>
-      <c r="E66" s="41">
+      <c r="E66" s="42">
         <v>3.78</v>
       </c>
-      <c r="F66" s="41"/>
-      <c r="G66" s="41">
+      <c r="F66" s="42"/>
+      <c r="G66" s="42">
         <v>4</v>
       </c>
-      <c r="H66" s="41"/>
+      <c r="H66" s="42"/>
     </row>
     <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="42"/>
-      <c r="B67" s="41"/>
-      <c r="C67" s="41"/>
-      <c r="D67" s="41"/>
-      <c r="E67" s="41"/>
-      <c r="F67" s="41"/>
-      <c r="G67" s="41"/>
-      <c r="H67" s="41"/>
+      <c r="A67" s="41"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="42">
+      <c r="A68" s="41">
         <v>33</v>
       </c>
-      <c r="B68" s="43">
+      <c r="B68" s="45">
         <v>43440</v>
       </c>
-      <c r="C68" s="41">
+      <c r="C68" s="42">
         <v>5.48</v>
       </c>
-      <c r="D68" s="47">
+      <c r="D68" s="53">
         <v>164.4</v>
       </c>
-      <c r="E68" s="47">
+      <c r="E68" s="53">
         <v>3.15</v>
       </c>
-      <c r="F68" s="47"/>
-      <c r="G68" s="47">
+      <c r="F68" s="53"/>
+      <c r="G68" s="53">
         <v>3</v>
       </c>
-      <c r="H68" s="41"/>
+      <c r="H68" s="42"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="42"/>
-      <c r="B69" s="41"/>
-      <c r="C69" s="41"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="47"/>
-      <c r="F69" s="47"/>
-      <c r="G69" s="47"/>
-      <c r="H69" s="41"/>
+      <c r="A69" s="41"/>
+      <c r="B69" s="42"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="53"/>
+      <c r="G69" s="53"/>
+      <c r="H69" s="42"/>
     </row>
     <row r="70" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="42">
+      <c r="A70" s="41">
         <v>33</v>
       </c>
-      <c r="B70" s="43">
+      <c r="B70" s="45">
         <v>43447</v>
       </c>
-      <c r="C70" s="41">
+      <c r="C70" s="42">
         <v>6.57</v>
       </c>
-      <c r="D70" s="41">
+      <c r="D70" s="42">
         <v>197.1</v>
       </c>
-      <c r="E70" s="41">
+      <c r="E70" s="42">
         <v>3.78</v>
       </c>
-      <c r="F70" s="41"/>
-      <c r="G70" s="41">
+      <c r="F70" s="42"/>
+      <c r="G70" s="42">
         <v>4</v>
       </c>
-      <c r="H70" s="46" t="s">
+      <c r="H70" s="51" t="s">
         <v>17</v>
       </c>
       <c r="J70" s="4">
@@ -6366,113 +6368,257 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="42"/>
-      <c r="B71" s="41"/>
-      <c r="C71" s="41"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="41"/>
-      <c r="F71" s="41"/>
-      <c r="G71" s="41"/>
-      <c r="H71" s="46"/>
+      <c r="A71" s="41"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="51"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="42">
+      <c r="A72" s="41">
         <v>34</v>
       </c>
-      <c r="B72" s="43">
+      <c r="B72" s="45">
         <v>43454</v>
       </c>
-      <c r="C72" s="41">
+      <c r="C72" s="42">
         <v>6.21</v>
       </c>
-      <c r="D72" s="41">
+      <c r="D72" s="42">
         <v>186.3</v>
       </c>
-      <c r="E72" s="41">
+      <c r="E72" s="42">
         <v>3.57</v>
       </c>
-      <c r="F72" s="41"/>
-      <c r="G72" s="41">
+      <c r="F72" s="42"/>
+      <c r="G72" s="42">
         <v>4</v>
       </c>
-      <c r="H72" s="44"/>
+      <c r="H72" s="54"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="42"/>
-      <c r="B73" s="41"/>
-      <c r="C73" s="41"/>
-      <c r="D73" s="41"/>
-      <c r="E73" s="41"/>
-      <c r="F73" s="41"/>
-      <c r="G73" s="41"/>
-      <c r="H73" s="45"/>
+      <c r="A73" s="41"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="296">
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="L6:M7"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="L2:M3"/>
+    <mergeCell ref="J2:K3"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="J4:K5"/>
+    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="G16:G17"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="B14:B15"/>
@@ -6497,214 +6643,70 @@
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="J6:K7"/>
-    <mergeCell ref="L6:M7"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="L2:M3"/>
-    <mergeCell ref="J2:K3"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="J4:K5"/>
-    <mergeCell ref="L4:M5"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/source/excel/AifianExecl.xlsx
+++ b/source/excel/AifianExecl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="21432" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="21888" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="收益紀錄表(new) " sheetId="7" r:id="rId1"/>
@@ -482,22 +482,28 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -512,20 +518,14 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1067,7 +1067,7 @@
                   <c:v>2290.2000000000003</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>2409</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>0</c:v>
@@ -1479,7 +1479,7 @@
                   <c:v>43.921643835616443</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>46.199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>0</c:v>
@@ -3698,8 +3698,8 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M62" sqref="M62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4968,7 +4968,9 @@
         <v>43.921643835616443</v>
       </c>
       <c r="G51" s="37"/>
-      <c r="H51" s="33"/>
+      <c r="H51" s="33">
+        <v>44</v>
+      </c>
       <c r="I51" s="33"/>
     </row>
     <row r="52" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -4978,21 +4980,25 @@
       <c r="B52" s="15">
         <v>43559</v>
       </c>
-      <c r="C52" s="19"/>
+      <c r="C52" s="19">
+        <v>7.2999999999999995E-2</v>
+      </c>
       <c r="D52" s="25">
         <f>投資金額!$B$2*'收益紀錄表(new) '!C52</f>
-        <v>0</v>
+        <v>2409</v>
       </c>
       <c r="E52" s="25">
         <f>D52/投資金額!$B$3*投資金額!$B$4</f>
-        <v>0</v>
+        <v>46.199999999999996</v>
       </c>
       <c r="F52" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>46.199999999999996</v>
       </c>
       <c r="G52" s="37"/>
-      <c r="H52" s="33"/>
+      <c r="H52" s="33">
+        <v>46</v>
+      </c>
       <c r="I52" s="33"/>
     </row>
     <row r="53" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -5047,7 +5053,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -5099,7 +5105,7 @@
       </c>
       <c r="B5" s="26">
         <f>SUM('收益紀錄表(new) '!H19:H53)+1+35</f>
-        <v>519</v>
+        <v>609</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>28</v>
@@ -5142,7 +5148,7 @@
       </c>
       <c r="B2" s="22">
         <f>SUM('收益紀錄表(new) '!C1:C53)/50</f>
-        <v>7.6298000000000019E-2</v>
+        <v>7.7758000000000008E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -5151,7 +5157,7 @@
       </c>
       <c r="B3" s="13">
         <f>SUM('收益紀錄表(new) '!E2:E100)/50</f>
-        <v>12.301857534246576</v>
+        <v>13.225857534246577</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -5160,7 +5166,7 @@
       </c>
       <c r="B4" s="39">
         <f>SUM('收益紀錄表(new) '!D2:D100)/50</f>
-        <v>641.45399999999995</v>
+        <v>689.6339999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5232,1135 +5238,1135 @@
       <c r="M1" s="40"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41">
+      <c r="A2" s="42">
         <v>1</v>
       </c>
-      <c r="B2" s="45">
+      <c r="B2" s="43">
         <v>43209</v>
       </c>
-      <c r="C2" s="42">
+      <c r="C2" s="41">
         <v>5.81</v>
       </c>
-      <c r="D2" s="42">
+      <c r="D2" s="41">
         <v>174.3</v>
       </c>
-      <c r="E2" s="42">
+      <c r="E2" s="41">
         <v>3.34</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="50" t="s">
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="50"/>
-      <c r="L2" s="49">
+      <c r="K2" s="52"/>
+      <c r="L2" s="51">
         <f>SUM(C:C)/33</f>
         <v>8.4699999999999989</v>
       </c>
-      <c r="M2" s="49"/>
+      <c r="M2" s="51"/>
     </row>
     <row r="3" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="41"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="41">
+      <c r="A4" s="42">
         <v>2</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="43">
         <v>43216</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="41">
         <v>6.13</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="41">
         <v>183.9</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="41">
         <v>3.52</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="J4" s="47" t="s">
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="J4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="47"/>
-      <c r="L4" s="48">
+      <c r="K4" s="49"/>
+      <c r="L4" s="50">
         <f>SUM(E:E)/33</f>
         <v>4.8678787878787873</v>
       </c>
-      <c r="M4" s="48"/>
+      <c r="M4" s="50"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41">
+      <c r="A6" s="42">
         <v>3</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="43">
         <v>43223</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="41">
         <v>6.02</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="41">
         <v>180.6</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="41">
         <v>3.46</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="J6" s="47" t="s">
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="J6" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="47"/>
-      <c r="L6" s="48">
+      <c r="K6" s="49"/>
+      <c r="L6" s="50">
         <f>SUM(D:D)/33</f>
         <v>254.10000000000002</v>
       </c>
-      <c r="M6" s="48"/>
+      <c r="M6" s="50"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="41"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="41">
+      <c r="A8" s="42">
         <v>4</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="43">
         <v>43230</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="41">
         <v>5.96</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="41">
         <v>178.8</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="41">
         <v>3.42</v>
       </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="41"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41">
+      <c r="A10" s="42">
         <v>5</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="43">
         <v>43237</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="41">
         <v>5.27</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="41">
         <v>158.1</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="41">
         <v>3.03</v>
       </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="41"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41">
+      <c r="A12" s="42">
         <v>6</v>
       </c>
-      <c r="B12" s="45">
+      <c r="B12" s="43">
         <v>43244</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="41">
         <v>6.13</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="41">
         <v>183.9</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="41">
         <v>3.52</v>
       </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="41"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="41">
+      <c r="A14" s="42">
         <v>7</v>
       </c>
-      <c r="B14" s="45">
+      <c r="B14" s="43">
         <v>43251</v>
       </c>
-      <c r="C14" s="42">
+      <c r="C14" s="41">
         <v>6.13</v>
       </c>
-      <c r="D14" s="42">
+      <c r="D14" s="41">
         <v>183.9</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="41">
         <v>3.52</v>
       </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="41">
+      <c r="A16" s="42">
         <v>8</v>
       </c>
-      <c r="B16" s="45">
+      <c r="B16" s="43">
         <v>43258</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C16" s="41">
         <v>6.15</v>
       </c>
-      <c r="D16" s="42">
+      <c r="D16" s="41">
         <v>184.5</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="41">
         <v>3.53</v>
       </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="41"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="41">
+      <c r="A18" s="42">
         <v>9</v>
       </c>
-      <c r="B18" s="45">
+      <c r="B18" s="43">
         <v>43265</v>
       </c>
-      <c r="C18" s="42">
+      <c r="C18" s="41">
         <v>9.27</v>
       </c>
-      <c r="D18" s="42">
+      <c r="D18" s="41">
         <v>278.10000000000002</v>
       </c>
-      <c r="E18" s="42">
+      <c r="E18" s="41">
         <v>5.33</v>
       </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="46" t="s">
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="53" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="41"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="46"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="53"/>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="41">
+      <c r="A20" s="42">
         <v>10</v>
       </c>
-      <c r="B20" s="45">
+      <c r="B20" s="43">
         <v>43268</v>
       </c>
-      <c r="C20" s="42">
+      <c r="C20" s="41">
         <v>10.130000000000001</v>
       </c>
-      <c r="D20" s="42">
+      <c r="D20" s="41">
         <v>303.89999999999998</v>
       </c>
-      <c r="E20" s="42">
+      <c r="E20" s="41">
         <v>5.82</v>
       </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="41"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="41">
+      <c r="A22" s="42">
         <v>11</v>
       </c>
-      <c r="B22" s="45">
+      <c r="B22" s="43">
         <v>43279</v>
       </c>
-      <c r="C22" s="42">
+      <c r="C22" s="41">
         <v>12.41</v>
       </c>
-      <c r="D22" s="42">
+      <c r="D22" s="41">
         <v>372.3</v>
       </c>
-      <c r="E22" s="42">
+      <c r="E22" s="41">
         <v>7.14</v>
       </c>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="41"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="41">
+      <c r="A24" s="42">
         <v>12</v>
       </c>
-      <c r="B24" s="45">
+      <c r="B24" s="43">
         <v>43286</v>
       </c>
-      <c r="C24" s="42">
+      <c r="C24" s="41">
         <v>19.71</v>
       </c>
-      <c r="D24" s="42">
+      <c r="D24" s="41">
         <v>591.29999999999995</v>
       </c>
-      <c r="E24" s="42">
+      <c r="E24" s="41">
         <v>11.34</v>
       </c>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="41"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="41">
+      <c r="A26" s="42">
         <v>13</v>
       </c>
-      <c r="B26" s="45">
+      <c r="B26" s="43">
         <v>43293</v>
       </c>
-      <c r="C26" s="42">
+      <c r="C26" s="41">
         <v>23</v>
       </c>
-      <c r="D26" s="42">
+      <c r="D26" s="41">
         <v>690</v>
       </c>
-      <c r="E26" s="42">
+      <c r="E26" s="41">
         <v>13.23</v>
       </c>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="46" t="s">
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="53" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="41"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="46"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="53"/>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="41">
+      <c r="A28" s="42">
         <v>14</v>
       </c>
-      <c r="B28" s="45">
+      <c r="B28" s="43">
         <v>43300</v>
       </c>
-      <c r="C28" s="42">
+      <c r="C28" s="41">
         <v>14.97</v>
       </c>
-      <c r="D28" s="42">
+      <c r="D28" s="41">
         <v>449.1</v>
       </c>
-      <c r="E28" s="42">
+      <c r="E28" s="41">
         <v>8.61</v>
       </c>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="41"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="41">
+      <c r="A30" s="42">
         <v>15</v>
       </c>
-      <c r="B30" s="45">
+      <c r="B30" s="43">
         <v>43307</v>
       </c>
-      <c r="C30" s="42">
+      <c r="C30" s="41">
         <v>7.67</v>
       </c>
-      <c r="D30" s="42">
+      <c r="D30" s="41">
         <v>230.1</v>
       </c>
-      <c r="E30" s="42">
+      <c r="E30" s="41">
         <v>4.41</v>
       </c>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="41"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="41">
+      <c r="A32" s="42">
         <v>16</v>
       </c>
-      <c r="B32" s="45">
+      <c r="B32" s="43">
         <v>43314</v>
       </c>
-      <c r="C32" s="42">
+      <c r="C32" s="41">
         <v>8.0299999999999994</v>
       </c>
-      <c r="D32" s="42">
+      <c r="D32" s="41">
         <v>240.9</v>
       </c>
-      <c r="E32" s="42">
+      <c r="E32" s="41">
         <v>4.62</v>
       </c>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="41"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="41">
+      <c r="A34" s="42">
         <v>17</v>
       </c>
-      <c r="B34" s="45">
+      <c r="B34" s="43">
         <v>43321</v>
       </c>
-      <c r="C34" s="42">
+      <c r="C34" s="41">
         <v>6.21</v>
       </c>
-      <c r="D34" s="42">
+      <c r="D34" s="41">
         <v>186.3</v>
       </c>
-      <c r="E34" s="42">
+      <c r="E34" s="41">
         <v>3.5</v>
       </c>
-      <c r="F34" s="42">
+      <c r="F34" s="41">
         <v>3000</v>
       </c>
-      <c r="G34" s="42"/>
-      <c r="H34" s="46" t="s">
+      <c r="G34" s="41"/>
+      <c r="H34" s="53" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="41"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="46"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="53"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="41">
+      <c r="A36" s="42">
         <v>18</v>
       </c>
-      <c r="B36" s="45">
+      <c r="B36" s="43">
         <v>43328</v>
       </c>
-      <c r="C36" s="42">
+      <c r="C36" s="41">
         <v>6.57</v>
       </c>
-      <c r="D36" s="42">
+      <c r="D36" s="41">
         <v>197.1</v>
       </c>
-      <c r="E36" s="42">
+      <c r="E36" s="41">
         <v>3.78</v>
       </c>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42">
+      <c r="F36" s="41"/>
+      <c r="G36" s="41">
         <v>4</v>
       </c>
-      <c r="H36" s="42"/>
+      <c r="H36" s="41"/>
     </row>
     <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="41"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
     </row>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="41">
+      <c r="A38" s="42">
         <v>19</v>
       </c>
-      <c r="B38" s="45">
+      <c r="B38" s="43">
         <v>43335</v>
       </c>
-      <c r="C38" s="42">
+      <c r="C38" s="41">
         <v>6.94</v>
       </c>
-      <c r="D38" s="42">
+      <c r="D38" s="41">
         <v>208.2</v>
       </c>
-      <c r="E38" s="42">
+      <c r="E38" s="41">
         <v>3.99</v>
       </c>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42">
+      <c r="F38" s="41"/>
+      <c r="G38" s="41">
         <v>4</v>
       </c>
-      <c r="H38" s="42"/>
+      <c r="H38" s="41"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="41"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
+      <c r="A39" s="42"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="41">
+      <c r="A40" s="42">
         <v>20</v>
       </c>
-      <c r="B40" s="45">
+      <c r="B40" s="43">
         <v>43342</v>
       </c>
-      <c r="C40" s="42">
+      <c r="C40" s="41">
         <v>6.21</v>
       </c>
-      <c r="D40" s="42">
+      <c r="D40" s="41">
         <v>186.3</v>
       </c>
-      <c r="E40" s="42">
+      <c r="E40" s="41">
         <v>3.57</v>
       </c>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42">
+      <c r="F40" s="41"/>
+      <c r="G40" s="41">
         <v>4</v>
       </c>
-      <c r="H40" s="42"/>
+      <c r="H40" s="41"/>
     </row>
     <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="41"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
+      <c r="A41" s="42"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="41">
+      <c r="A42" s="42">
         <v>21</v>
       </c>
-      <c r="B42" s="45">
+      <c r="B42" s="43">
         <v>43349</v>
       </c>
-      <c r="C42" s="42">
+      <c r="C42" s="41">
         <v>6.21</v>
       </c>
-      <c r="D42" s="42">
+      <c r="D42" s="41">
         <v>186.3</v>
       </c>
-      <c r="E42" s="42">
+      <c r="E42" s="41">
         <v>3.57</v>
       </c>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42">
+      <c r="F42" s="41"/>
+      <c r="G42" s="41">
         <v>4</v>
       </c>
-      <c r="H42" s="42"/>
+      <c r="H42" s="41"/>
     </row>
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="41"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="41">
+      <c r="A44" s="42">
         <v>22</v>
       </c>
-      <c r="B44" s="45">
+      <c r="B44" s="43">
         <v>43356</v>
       </c>
-      <c r="C44" s="42">
+      <c r="C44" s="41">
         <v>7.67</v>
       </c>
-      <c r="D44" s="42">
+      <c r="D44" s="41">
         <v>230.1</v>
       </c>
-      <c r="E44" s="42">
+      <c r="E44" s="41">
         <v>4.41</v>
       </c>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42">
+      <c r="F44" s="41"/>
+      <c r="G44" s="41">
         <v>4</v>
       </c>
-      <c r="H44" s="51" t="s">
+      <c r="H44" s="46" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="41"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="51"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="46"/>
     </row>
     <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="41">
+      <c r="A46" s="42">
         <v>23</v>
       </c>
-      <c r="B46" s="45">
+      <c r="B46" s="43">
         <v>43363</v>
       </c>
-      <c r="C46" s="42">
+      <c r="C46" s="41">
         <v>6.94</v>
       </c>
-      <c r="D46" s="42">
+      <c r="D46" s="41">
         <v>208.2</v>
       </c>
-      <c r="E46" s="42">
+      <c r="E46" s="41">
         <v>3.99</v>
       </c>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42">
+      <c r="F46" s="41"/>
+      <c r="G46" s="41">
         <v>4</v>
       </c>
-      <c r="H46" s="42"/>
+      <c r="H46" s="41"/>
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="41"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
+      <c r="A47" s="42"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="41">
+      <c r="A48" s="42">
         <v>24</v>
       </c>
-      <c r="B48" s="45">
+      <c r="B48" s="43">
         <v>43370</v>
       </c>
-      <c r="C48" s="42">
+      <c r="C48" s="41">
         <v>6.57</v>
       </c>
-      <c r="D48" s="42">
+      <c r="D48" s="41">
         <v>197.1</v>
       </c>
-      <c r="E48" s="42">
+      <c r="E48" s="41">
         <v>3.78</v>
       </c>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42">
+      <c r="F48" s="41"/>
+      <c r="G48" s="41">
         <v>4</v>
       </c>
-      <c r="H48" s="42"/>
+      <c r="H48" s="41"/>
     </row>
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="41"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
+      <c r="A49" s="42"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="41">
+      <c r="A50" s="42">
         <v>25</v>
       </c>
-      <c r="B50" s="45">
+      <c r="B50" s="43">
         <v>43377</v>
       </c>
-      <c r="C50" s="42">
+      <c r="C50" s="41">
         <v>6.21</v>
       </c>
-      <c r="D50" s="42">
+      <c r="D50" s="41">
         <v>186.3</v>
       </c>
-      <c r="E50" s="42">
+      <c r="E50" s="41">
         <v>3.57</v>
       </c>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42">
+      <c r="F50" s="41"/>
+      <c r="G50" s="41">
         <v>4</v>
       </c>
-      <c r="H50" s="42"/>
+      <c r="H50" s="41"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="41"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
+      <c r="A51" s="42"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
     </row>
     <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="41">
+      <c r="A52" s="42">
         <v>26</v>
       </c>
-      <c r="B52" s="45">
+      <c r="B52" s="43">
         <v>43384</v>
       </c>
-      <c r="C52" s="42">
+      <c r="C52" s="41">
         <v>6.57</v>
       </c>
-      <c r="D52" s="42">
+      <c r="D52" s="41">
         <v>197.1</v>
       </c>
-      <c r="E52" s="42">
+      <c r="E52" s="41">
         <v>3.78</v>
       </c>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42">
+      <c r="F52" s="41"/>
+      <c r="G52" s="41">
         <v>4</v>
       </c>
-      <c r="H52" s="51" t="s">
+      <c r="H52" s="46" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="41"/>
-      <c r="B53" s="42"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="42"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="42"/>
-      <c r="H53" s="51"/>
+      <c r="A53" s="42"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="46"/>
     </row>
     <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="41">
+      <c r="A54" s="42">
         <v>27</v>
       </c>
-      <c r="B54" s="45">
+      <c r="B54" s="43">
         <v>43391</v>
       </c>
-      <c r="C54" s="42">
+      <c r="C54" s="41">
         <v>6.21</v>
       </c>
-      <c r="D54" s="42">
+      <c r="D54" s="41">
         <v>186.3</v>
       </c>
-      <c r="E54" s="42">
+      <c r="E54" s="41">
         <v>3.57</v>
       </c>
-      <c r="F54" s="42"/>
-      <c r="G54" s="42">
+      <c r="F54" s="41"/>
+      <c r="G54" s="41">
         <v>4</v>
       </c>
-      <c r="H54" s="42"/>
+      <c r="H54" s="41"/>
     </row>
     <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="41"/>
-      <c r="B55" s="42"/>
-      <c r="C55" s="42"/>
-      <c r="D55" s="42"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
     </row>
     <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="41">
+      <c r="A56" s="42">
         <v>28</v>
       </c>
-      <c r="B56" s="52">
+      <c r="B56" s="48">
         <v>43398</v>
       </c>
-      <c r="C56" s="53">
+      <c r="C56" s="47">
         <v>5.84</v>
       </c>
-      <c r="D56" s="53">
+      <c r="D56" s="47">
         <v>175.2</v>
       </c>
-      <c r="E56" s="53">
+      <c r="E56" s="47">
         <v>3.36</v>
       </c>
-      <c r="F56" s="53"/>
-      <c r="G56" s="53">
+      <c r="F56" s="47"/>
+      <c r="G56" s="47">
         <v>3</v>
       </c>
-      <c r="H56" s="53" t="s">
+      <c r="H56" s="47" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="41"/>
-      <c r="B57" s="53"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="53"/>
-      <c r="F57" s="53"/>
-      <c r="G57" s="53"/>
-      <c r="H57" s="53"/>
+      <c r="A57" s="42"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="47"/>
     </row>
     <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="41">
+      <c r="A58" s="42">
         <v>29</v>
       </c>
-      <c r="B58" s="45">
+      <c r="B58" s="43">
         <v>43405</v>
       </c>
-      <c r="C58" s="42">
+      <c r="C58" s="41">
         <v>6.21</v>
       </c>
-      <c r="D58" s="42">
+      <c r="D58" s="41">
         <v>186.3</v>
       </c>
-      <c r="E58" s="42">
+      <c r="E58" s="41">
         <v>3.57</v>
       </c>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42">
+      <c r="F58" s="41"/>
+      <c r="G58" s="41">
         <v>4</v>
       </c>
-      <c r="H58" s="42"/>
+      <c r="H58" s="41"/>
     </row>
     <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="41"/>
-      <c r="B59" s="42"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="42"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="42"/>
+      <c r="A59" s="42"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
     </row>
     <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="41">
+      <c r="A60" s="42">
         <v>30</v>
       </c>
-      <c r="B60" s="45">
+      <c r="B60" s="43">
         <v>43413</v>
       </c>
-      <c r="C60" s="42">
+      <c r="C60" s="41">
         <v>5.84</v>
       </c>
-      <c r="D60" s="53">
+      <c r="D60" s="47">
         <v>175.2</v>
       </c>
-      <c r="E60" s="53">
+      <c r="E60" s="47">
         <v>3.36</v>
       </c>
-      <c r="F60" s="53"/>
-      <c r="G60" s="53">
+      <c r="F60" s="47"/>
+      <c r="G60" s="47">
         <v>3</v>
       </c>
-      <c r="H60" s="42"/>
+      <c r="H60" s="41"/>
     </row>
     <row r="61" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="41"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="53"/>
-      <c r="E61" s="53"/>
-      <c r="F61" s="53"/>
-      <c r="G61" s="53"/>
-      <c r="H61" s="42"/>
+      <c r="A61" s="42"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="47"/>
+      <c r="H61" s="41"/>
     </row>
     <row r="62" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="41">
+      <c r="A62" s="42">
         <v>31</v>
       </c>
-      <c r="B62" s="45">
+      <c r="B62" s="43">
         <v>43419</v>
       </c>
-      <c r="C62" s="42">
+      <c r="C62" s="41">
         <v>5.48</v>
       </c>
-      <c r="D62" s="53">
+      <c r="D62" s="47">
         <v>164.4</v>
       </c>
-      <c r="E62" s="53">
+      <c r="E62" s="47">
         <v>3.15</v>
       </c>
-      <c r="F62" s="53"/>
-      <c r="G62" s="53">
+      <c r="F62" s="47"/>
+      <c r="G62" s="47">
         <v>3</v>
       </c>
-      <c r="H62" s="42"/>
+      <c r="H62" s="41"/>
     </row>
     <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="41"/>
-      <c r="B63" s="42"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="53"/>
-      <c r="E63" s="53"/>
-      <c r="F63" s="53"/>
-      <c r="G63" s="53"/>
-      <c r="H63" s="42"/>
+      <c r="A63" s="42"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="47"/>
+      <c r="E63" s="47"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="47"/>
+      <c r="H63" s="41"/>
     </row>
     <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="41">
+      <c r="A64" s="42">
         <v>32</v>
       </c>
-      <c r="B64" s="45">
+      <c r="B64" s="43">
         <v>43426</v>
       </c>
-      <c r="C64" s="42">
+      <c r="C64" s="41">
         <v>6.21</v>
       </c>
-      <c r="D64" s="42">
+      <c r="D64" s="41">
         <v>186.3</v>
       </c>
-      <c r="E64" s="42">
+      <c r="E64" s="41">
         <v>3.57</v>
       </c>
-      <c r="F64" s="42"/>
-      <c r="G64" s="42">
+      <c r="F64" s="41"/>
+      <c r="G64" s="41">
         <v>4</v>
       </c>
-      <c r="H64" s="42"/>
+      <c r="H64" s="41"/>
     </row>
     <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="41"/>
-      <c r="B65" s="42"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="42"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="42"/>
-      <c r="H65" s="42"/>
+      <c r="A65" s="42"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="41"/>
+      <c r="H65" s="41"/>
     </row>
     <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="41">
+      <c r="A66" s="42">
         <v>33</v>
       </c>
-      <c r="B66" s="45">
+      <c r="B66" s="43">
         <v>43433</v>
       </c>
-      <c r="C66" s="42">
+      <c r="C66" s="41">
         <v>6.57</v>
       </c>
-      <c r="D66" s="42">
+      <c r="D66" s="41">
         <v>197.1</v>
       </c>
-      <c r="E66" s="42">
+      <c r="E66" s="41">
         <v>3.78</v>
       </c>
-      <c r="F66" s="42"/>
-      <c r="G66" s="42">
+      <c r="F66" s="41"/>
+      <c r="G66" s="41">
         <v>4</v>
       </c>
-      <c r="H66" s="42"/>
+      <c r="H66" s="41"/>
     </row>
     <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="41"/>
-      <c r="B67" s="42"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="42"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="42"/>
-      <c r="G67" s="42"/>
-      <c r="H67" s="42"/>
+      <c r="A67" s="42"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="41"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="41"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="41">
+      <c r="A68" s="42">
         <v>33</v>
       </c>
-      <c r="B68" s="45">
+      <c r="B68" s="43">
         <v>43440</v>
       </c>
-      <c r="C68" s="42">
+      <c r="C68" s="41">
         <v>5.48</v>
       </c>
-      <c r="D68" s="53">
+      <c r="D68" s="47">
         <v>164.4</v>
       </c>
-      <c r="E68" s="53">
+      <c r="E68" s="47">
         <v>3.15</v>
       </c>
-      <c r="F68" s="53"/>
-      <c r="G68" s="53">
+      <c r="F68" s="47"/>
+      <c r="G68" s="47">
         <v>3</v>
       </c>
-      <c r="H68" s="42"/>
+      <c r="H68" s="41"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="41"/>
-      <c r="B69" s="42"/>
-      <c r="C69" s="42"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="53"/>
-      <c r="G69" s="53"/>
-      <c r="H69" s="42"/>
+      <c r="A69" s="42"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="41"/>
     </row>
     <row r="70" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="41">
+      <c r="A70" s="42">
         <v>33</v>
       </c>
-      <c r="B70" s="45">
+      <c r="B70" s="43">
         <v>43447</v>
       </c>
-      <c r="C70" s="42">
+      <c r="C70" s="41">
         <v>6.57</v>
       </c>
-      <c r="D70" s="42">
+      <c r="D70" s="41">
         <v>197.1</v>
       </c>
-      <c r="E70" s="42">
+      <c r="E70" s="41">
         <v>3.78</v>
       </c>
-      <c r="F70" s="42"/>
-      <c r="G70" s="42">
+      <c r="F70" s="41"/>
+      <c r="G70" s="41">
         <v>4</v>
       </c>
-      <c r="H70" s="51" t="s">
+      <c r="H70" s="46" t="s">
         <v>17</v>
       </c>
       <c r="J70" s="4">
@@ -6368,49 +6374,321 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="41"/>
-      <c r="B71" s="42"/>
-      <c r="C71" s="42"/>
-      <c r="D71" s="42"/>
-      <c r="E71" s="42"/>
-      <c r="F71" s="42"/>
-      <c r="G71" s="42"/>
-      <c r="H71" s="51"/>
+      <c r="A71" s="42"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="41"/>
+      <c r="F71" s="41"/>
+      <c r="G71" s="41"/>
+      <c r="H71" s="46"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="41">
+      <c r="A72" s="42">
         <v>34</v>
       </c>
-      <c r="B72" s="45">
+      <c r="B72" s="43">
         <v>43454</v>
       </c>
-      <c r="C72" s="42">
+      <c r="C72" s="41">
         <v>6.21</v>
       </c>
-      <c r="D72" s="42">
+      <c r="D72" s="41">
         <v>186.3</v>
       </c>
-      <c r="E72" s="42">
+      <c r="E72" s="41">
         <v>3.57</v>
       </c>
-      <c r="F72" s="42"/>
-      <c r="G72" s="42">
+      <c r="F72" s="41"/>
+      <c r="G72" s="41">
         <v>4</v>
       </c>
-      <c r="H72" s="54"/>
+      <c r="H72" s="44"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="41"/>
-      <c r="B73" s="42"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="42"/>
-      <c r="E73" s="42"/>
-      <c r="F73" s="42"/>
-      <c r="G73" s="42"/>
-      <c r="H73" s="55"/>
+      <c r="A73" s="42"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="41"/>
+      <c r="D73" s="41"/>
+      <c r="E73" s="41"/>
+      <c r="F73" s="41"/>
+      <c r="G73" s="41"/>
+      <c r="H73" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="296">
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="L6:M7"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="L2:M3"/>
+    <mergeCell ref="J2:K3"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="J4:K5"/>
+    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="B66:B67"/>
     <mergeCell ref="C72:C73"/>
     <mergeCell ref="D72:D73"/>
     <mergeCell ref="E72:E73"/>
@@ -6435,278 +6713,6 @@
     <mergeCell ref="G68:G69"/>
     <mergeCell ref="A68:A69"/>
     <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="J6:K7"/>
-    <mergeCell ref="L6:M7"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="L2:M3"/>
-    <mergeCell ref="J2:K3"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="J4:K5"/>
-    <mergeCell ref="L4:M5"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/source/excel/AifianExecl.xlsx
+++ b/source/excel/AifianExecl.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="21888" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="22344" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="收益紀錄表(new) " sheetId="7" r:id="rId1"/>
@@ -482,28 +482,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -518,14 +512,20 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1070,7 +1070,7 @@
                   <c:v>2409</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>2168.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1482,7 +1482,7 @@
                   <c:v>46.199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>41.58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3698,8 +3698,8 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M62" sqref="M62"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5008,21 +5008,25 @@
       <c r="B53" s="15">
         <v>43566</v>
       </c>
-      <c r="C53" s="19"/>
+      <c r="C53" s="19">
+        <v>6.5699999999999995E-2</v>
+      </c>
       <c r="D53" s="25">
         <f>投資金額!$B$2*'收益紀錄表(new) '!C53</f>
-        <v>0</v>
+        <v>2168.1</v>
       </c>
       <c r="E53" s="25">
         <f>D53/投資金額!$B$3*投資金額!$B$4</f>
-        <v>0</v>
+        <v>41.58</v>
       </c>
       <c r="F53" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41.58</v>
       </c>
       <c r="G53" s="37"/>
-      <c r="H53" s="33"/>
+      <c r="H53" s="33">
+        <v>42</v>
+      </c>
       <c r="I53" s="33"/>
     </row>
   </sheetData>
@@ -5036,8 +5040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R80" sqref="R80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -5053,7 +5057,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -5105,7 +5109,7 @@
       </c>
       <c r="B5" s="26">
         <f>SUM('收益紀錄表(new) '!H19:H53)+1+35</f>
-        <v>609</v>
+        <v>651</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>28</v>
@@ -5148,7 +5152,7 @@
       </c>
       <c r="B2" s="22">
         <f>SUM('收益紀錄表(new) '!C1:C53)/50</f>
-        <v>7.7758000000000008E-2</v>
+        <v>7.9072000000000017E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -5157,7 +5161,7 @@
       </c>
       <c r="B3" s="13">
         <f>SUM('收益紀錄表(new) '!E2:E100)/50</f>
-        <v>13.225857534246577</v>
+        <v>14.057457534246577</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30.6" x14ac:dyDescent="0.3">
@@ -5166,7 +5170,7 @@
       </c>
       <c r="B4" s="39">
         <f>SUM('收益紀錄表(new) '!D2:D100)/50</f>
-        <v>689.6339999999999</v>
+        <v>732.99599999999987</v>
       </c>
     </row>
   </sheetData>
@@ -5183,7 +5187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="F70" sqref="F70:F71"/>
     </sheetView>
   </sheetViews>
@@ -5238,1135 +5242,1135 @@
       <c r="M1" s="40"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42">
+      <c r="A2" s="41">
         <v>1</v>
       </c>
-      <c r="B2" s="43">
+      <c r="B2" s="45">
         <v>43209</v>
       </c>
-      <c r="C2" s="41">
+      <c r="C2" s="42">
         <v>5.81</v>
       </c>
-      <c r="D2" s="41">
+      <c r="D2" s="42">
         <v>174.3</v>
       </c>
-      <c r="E2" s="41">
+      <c r="E2" s="42">
         <v>3.34</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="52" t="s">
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="52"/>
-      <c r="L2" s="51">
+      <c r="K2" s="50"/>
+      <c r="L2" s="49">
         <f>SUM(C:C)/33</f>
         <v>8.4699999999999989</v>
       </c>
-      <c r="M2" s="51"/>
+      <c r="M2" s="49"/>
     </row>
     <row r="3" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="42"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42">
+      <c r="A4" s="41">
         <v>2</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="45">
         <v>43216</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="42">
         <v>6.13</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="42">
         <v>183.9</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="42">
         <v>3.52</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="J4" s="49" t="s">
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="J4" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="49"/>
-      <c r="L4" s="50">
+      <c r="K4" s="47"/>
+      <c r="L4" s="48">
         <f>SUM(E:E)/33</f>
         <v>4.8678787878787873</v>
       </c>
-      <c r="M4" s="50"/>
+      <c r="M4" s="48"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42">
+      <c r="A6" s="41">
         <v>3</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="45">
         <v>43223</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="42">
         <v>6.02</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="42">
         <v>180.6</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="42">
         <v>3.46</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="J6" s="49" t="s">
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="J6" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="49"/>
-      <c r="L6" s="50">
+      <c r="K6" s="47"/>
+      <c r="L6" s="48">
         <f>SUM(D:D)/33</f>
         <v>254.10000000000002</v>
       </c>
-      <c r="M6" s="50"/>
+      <c r="M6" s="48"/>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="42">
+      <c r="A8" s="41">
         <v>4</v>
       </c>
-      <c r="B8" s="43">
+      <c r="B8" s="45">
         <v>43230</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="42">
         <v>5.96</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="42">
         <v>178.8</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="42">
         <v>3.42</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="42">
+      <c r="A10" s="41">
         <v>5</v>
       </c>
-      <c r="B10" s="43">
+      <c r="B10" s="45">
         <v>43237</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="42">
         <v>5.27</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="42">
         <v>158.1</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="42">
         <v>3.03</v>
       </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="42">
+      <c r="A12" s="41">
         <v>6</v>
       </c>
-      <c r="B12" s="43">
+      <c r="B12" s="45">
         <v>43244</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="42">
         <v>6.13</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="42">
         <v>183.9</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="42">
         <v>3.52</v>
       </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="42">
+      <c r="A14" s="41">
         <v>7</v>
       </c>
-      <c r="B14" s="43">
+      <c r="B14" s="45">
         <v>43251</v>
       </c>
-      <c r="C14" s="41">
+      <c r="C14" s="42">
         <v>6.13</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="42">
         <v>183.9</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="42">
         <v>3.52</v>
       </c>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42">
+      <c r="A16" s="41">
         <v>8</v>
       </c>
-      <c r="B16" s="43">
+      <c r="B16" s="45">
         <v>43258</v>
       </c>
-      <c r="C16" s="41">
+      <c r="C16" s="42">
         <v>6.15</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="42">
         <v>184.5</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="42">
         <v>3.53</v>
       </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="42">
+      <c r="A18" s="41">
         <v>9</v>
       </c>
-      <c r="B18" s="43">
+      <c r="B18" s="45">
         <v>43265</v>
       </c>
-      <c r="C18" s="41">
+      <c r="C18" s="42">
         <v>9.27</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="42">
         <v>278.10000000000002</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E18" s="42">
         <v>5.33</v>
       </c>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="53" t="s">
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="46" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="53"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="46"/>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="42">
+      <c r="A20" s="41">
         <v>10</v>
       </c>
-      <c r="B20" s="43">
+      <c r="B20" s="45">
         <v>43268</v>
       </c>
-      <c r="C20" s="41">
+      <c r="C20" s="42">
         <v>10.130000000000001</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="42">
         <v>303.89999999999998</v>
       </c>
-      <c r="E20" s="41">
+      <c r="E20" s="42">
         <v>5.82</v>
       </c>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="42"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
     </row>
     <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42">
+      <c r="A22" s="41">
         <v>11</v>
       </c>
-      <c r="B22" s="43">
+      <c r="B22" s="45">
         <v>43279</v>
       </c>
-      <c r="C22" s="41">
+      <c r="C22" s="42">
         <v>12.41</v>
       </c>
-      <c r="D22" s="41">
+      <c r="D22" s="42">
         <v>372.3</v>
       </c>
-      <c r="E22" s="41">
+      <c r="E22" s="42">
         <v>7.14</v>
       </c>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
     </row>
     <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="42"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="42">
+      <c r="A24" s="41">
         <v>12</v>
       </c>
-      <c r="B24" s="43">
+      <c r="B24" s="45">
         <v>43286</v>
       </c>
-      <c r="C24" s="41">
+      <c r="C24" s="42">
         <v>19.71</v>
       </c>
-      <c r="D24" s="41">
+      <c r="D24" s="42">
         <v>591.29999999999995</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E24" s="42">
         <v>11.34</v>
       </c>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="42"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="42">
+      <c r="A26" s="41">
         <v>13</v>
       </c>
-      <c r="B26" s="43">
+      <c r="B26" s="45">
         <v>43293</v>
       </c>
-      <c r="C26" s="41">
+      <c r="C26" s="42">
         <v>23</v>
       </c>
-      <c r="D26" s="41">
+      <c r="D26" s="42">
         <v>690</v>
       </c>
-      <c r="E26" s="41">
+      <c r="E26" s="42">
         <v>13.23</v>
       </c>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="53" t="s">
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="46" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="42"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="53"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="46"/>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="42">
+      <c r="A28" s="41">
         <v>14</v>
       </c>
-      <c r="B28" s="43">
+      <c r="B28" s="45">
         <v>43300</v>
       </c>
-      <c r="C28" s="41">
+      <c r="C28" s="42">
         <v>14.97</v>
       </c>
-      <c r="D28" s="41">
+      <c r="D28" s="42">
         <v>449.1</v>
       </c>
-      <c r="E28" s="41">
+      <c r="E28" s="42">
         <v>8.61</v>
       </c>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="42"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="42">
+      <c r="A30" s="41">
         <v>15</v>
       </c>
-      <c r="B30" s="43">
+      <c r="B30" s="45">
         <v>43307</v>
       </c>
-      <c r="C30" s="41">
+      <c r="C30" s="42">
         <v>7.67</v>
       </c>
-      <c r="D30" s="41">
+      <c r="D30" s="42">
         <v>230.1</v>
       </c>
-      <c r="E30" s="41">
+      <c r="E30" s="42">
         <v>4.41</v>
       </c>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="42"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="42">
+      <c r="A32" s="41">
         <v>16</v>
       </c>
-      <c r="B32" s="43">
+      <c r="B32" s="45">
         <v>43314</v>
       </c>
-      <c r="C32" s="41">
+      <c r="C32" s="42">
         <v>8.0299999999999994</v>
       </c>
-      <c r="D32" s="41">
+      <c r="D32" s="42">
         <v>240.9</v>
       </c>
-      <c r="E32" s="41">
+      <c r="E32" s="42">
         <v>4.62</v>
       </c>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="42"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="42">
+      <c r="A34" s="41">
         <v>17</v>
       </c>
-      <c r="B34" s="43">
+      <c r="B34" s="45">
         <v>43321</v>
       </c>
-      <c r="C34" s="41">
+      <c r="C34" s="42">
         <v>6.21</v>
       </c>
-      <c r="D34" s="41">
+      <c r="D34" s="42">
         <v>186.3</v>
       </c>
-      <c r="E34" s="41">
+      <c r="E34" s="42">
         <v>3.5</v>
       </c>
-      <c r="F34" s="41">
+      <c r="F34" s="42">
         <v>3000</v>
       </c>
-      <c r="G34" s="41"/>
-      <c r="H34" s="53" t="s">
+      <c r="G34" s="42"/>
+      <c r="H34" s="46" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="42"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="53"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="46"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="42">
+      <c r="A36" s="41">
         <v>18</v>
       </c>
-      <c r="B36" s="43">
+      <c r="B36" s="45">
         <v>43328</v>
       </c>
-      <c r="C36" s="41">
+      <c r="C36" s="42">
         <v>6.57</v>
       </c>
-      <c r="D36" s="41">
+      <c r="D36" s="42">
         <v>197.1</v>
       </c>
-      <c r="E36" s="41">
+      <c r="E36" s="42">
         <v>3.78</v>
       </c>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41">
+      <c r="F36" s="42"/>
+      <c r="G36" s="42">
         <v>4</v>
       </c>
-      <c r="H36" s="41"/>
+      <c r="H36" s="42"/>
     </row>
     <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="42"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
     </row>
     <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="42">
+      <c r="A38" s="41">
         <v>19</v>
       </c>
-      <c r="B38" s="43">
+      <c r="B38" s="45">
         <v>43335</v>
       </c>
-      <c r="C38" s="41">
+      <c r="C38" s="42">
         <v>6.94</v>
       </c>
-      <c r="D38" s="41">
+      <c r="D38" s="42">
         <v>208.2</v>
       </c>
-      <c r="E38" s="41">
+      <c r="E38" s="42">
         <v>3.99</v>
       </c>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41">
+      <c r="F38" s="42"/>
+      <c r="G38" s="42">
         <v>4</v>
       </c>
-      <c r="H38" s="41"/>
+      <c r="H38" s="42"/>
     </row>
     <row r="39" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="42"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="42">
+      <c r="A40" s="41">
         <v>20</v>
       </c>
-      <c r="B40" s="43">
+      <c r="B40" s="45">
         <v>43342</v>
       </c>
-      <c r="C40" s="41">
+      <c r="C40" s="42">
         <v>6.21</v>
       </c>
-      <c r="D40" s="41">
+      <c r="D40" s="42">
         <v>186.3</v>
       </c>
-      <c r="E40" s="41">
+      <c r="E40" s="42">
         <v>3.57</v>
       </c>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41">
+      <c r="F40" s="42"/>
+      <c r="G40" s="42">
         <v>4</v>
       </c>
-      <c r="H40" s="41"/>
+      <c r="H40" s="42"/>
     </row>
     <row r="41" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="42"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
     </row>
     <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="42">
+      <c r="A42" s="41">
         <v>21</v>
       </c>
-      <c r="B42" s="43">
+      <c r="B42" s="45">
         <v>43349</v>
       </c>
-      <c r="C42" s="41">
+      <c r="C42" s="42">
         <v>6.21</v>
       </c>
-      <c r="D42" s="41">
+      <c r="D42" s="42">
         <v>186.3</v>
       </c>
-      <c r="E42" s="41">
+      <c r="E42" s="42">
         <v>3.57</v>
       </c>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41">
+      <c r="F42" s="42"/>
+      <c r="G42" s="42">
         <v>4</v>
       </c>
-      <c r="H42" s="41"/>
+      <c r="H42" s="42"/>
     </row>
     <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="42"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="42">
+      <c r="A44" s="41">
         <v>22</v>
       </c>
-      <c r="B44" s="43">
+      <c r="B44" s="45">
         <v>43356</v>
       </c>
-      <c r="C44" s="41">
+      <c r="C44" s="42">
         <v>7.67</v>
       </c>
-      <c r="D44" s="41">
+      <c r="D44" s="42">
         <v>230.1</v>
       </c>
-      <c r="E44" s="41">
+      <c r="E44" s="42">
         <v>4.41</v>
       </c>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41">
+      <c r="F44" s="42"/>
+      <c r="G44" s="42">
         <v>4</v>
       </c>
-      <c r="H44" s="46" t="s">
+      <c r="H44" s="51" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="42"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="46"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="51"/>
     </row>
     <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="42">
+      <c r="A46" s="41">
         <v>23</v>
       </c>
-      <c r="B46" s="43">
+      <c r="B46" s="45">
         <v>43363</v>
       </c>
-      <c r="C46" s="41">
+      <c r="C46" s="42">
         <v>6.94</v>
       </c>
-      <c r="D46" s="41">
+      <c r="D46" s="42">
         <v>208.2</v>
       </c>
-      <c r="E46" s="41">
+      <c r="E46" s="42">
         <v>3.99</v>
       </c>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41">
+      <c r="F46" s="42"/>
+      <c r="G46" s="42">
         <v>4</v>
       </c>
-      <c r="H46" s="41"/>
+      <c r="H46" s="42"/>
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="42"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="42">
+      <c r="A48" s="41">
         <v>24</v>
       </c>
-      <c r="B48" s="43">
+      <c r="B48" s="45">
         <v>43370</v>
       </c>
-      <c r="C48" s="41">
+      <c r="C48" s="42">
         <v>6.57</v>
       </c>
-      <c r="D48" s="41">
+      <c r="D48" s="42">
         <v>197.1</v>
       </c>
-      <c r="E48" s="41">
+      <c r="E48" s="42">
         <v>3.78</v>
       </c>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41">
+      <c r="F48" s="42"/>
+      <c r="G48" s="42">
         <v>4</v>
       </c>
-      <c r="H48" s="41"/>
+      <c r="H48" s="42"/>
     </row>
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="42"/>
-      <c r="B49" s="41"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="42">
+      <c r="A50" s="41">
         <v>25</v>
       </c>
-      <c r="B50" s="43">
+      <c r="B50" s="45">
         <v>43377</v>
       </c>
-      <c r="C50" s="41">
+      <c r="C50" s="42">
         <v>6.21</v>
       </c>
-      <c r="D50" s="41">
+      <c r="D50" s="42">
         <v>186.3</v>
       </c>
-      <c r="E50" s="41">
+      <c r="E50" s="42">
         <v>3.57</v>
       </c>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41">
+      <c r="F50" s="42"/>
+      <c r="G50" s="42">
         <v>4</v>
       </c>
-      <c r="H50" s="41"/>
+      <c r="H50" s="42"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="42"/>
-      <c r="B51" s="41"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
     </row>
     <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="42">
+      <c r="A52" s="41">
         <v>26</v>
       </c>
-      <c r="B52" s="43">
+      <c r="B52" s="45">
         <v>43384</v>
       </c>
-      <c r="C52" s="41">
+      <c r="C52" s="42">
         <v>6.57</v>
       </c>
-      <c r="D52" s="41">
+      <c r="D52" s="42">
         <v>197.1</v>
       </c>
-      <c r="E52" s="41">
+      <c r="E52" s="42">
         <v>3.78</v>
       </c>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41">
+      <c r="F52" s="42"/>
+      <c r="G52" s="42">
         <v>4</v>
       </c>
-      <c r="H52" s="46" t="s">
+      <c r="H52" s="51" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="42"/>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="46"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="51"/>
     </row>
     <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="42">
+      <c r="A54" s="41">
         <v>27</v>
       </c>
-      <c r="B54" s="43">
+      <c r="B54" s="45">
         <v>43391</v>
       </c>
-      <c r="C54" s="41">
+      <c r="C54" s="42">
         <v>6.21</v>
       </c>
-      <c r="D54" s="41">
+      <c r="D54" s="42">
         <v>186.3</v>
       </c>
-      <c r="E54" s="41">
+      <c r="E54" s="42">
         <v>3.57</v>
       </c>
-      <c r="F54" s="41"/>
-      <c r="G54" s="41">
+      <c r="F54" s="42"/>
+      <c r="G54" s="42">
         <v>4</v>
       </c>
-      <c r="H54" s="41"/>
+      <c r="H54" s="42"/>
     </row>
     <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="42"/>
-      <c r="B55" s="41"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
     </row>
     <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="42">
+      <c r="A56" s="41">
         <v>28</v>
       </c>
-      <c r="B56" s="48">
+      <c r="B56" s="52">
         <v>43398</v>
       </c>
-      <c r="C56" s="47">
+      <c r="C56" s="53">
         <v>5.84</v>
       </c>
-      <c r="D56" s="47">
+      <c r="D56" s="53">
         <v>175.2</v>
       </c>
-      <c r="E56" s="47">
+      <c r="E56" s="53">
         <v>3.36</v>
       </c>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47">
+      <c r="F56" s="53"/>
+      <c r="G56" s="53">
         <v>3</v>
       </c>
-      <c r="H56" s="47" t="s">
+      <c r="H56" s="53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="42"/>
-      <c r="B57" s="47"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="47"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="53"/>
+      <c r="G57" s="53"/>
+      <c r="H57" s="53"/>
     </row>
     <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="42">
+      <c r="A58" s="41">
         <v>29</v>
       </c>
-      <c r="B58" s="43">
+      <c r="B58" s="45">
         <v>43405</v>
       </c>
-      <c r="C58" s="41">
+      <c r="C58" s="42">
         <v>6.21</v>
       </c>
-      <c r="D58" s="41">
+      <c r="D58" s="42">
         <v>186.3</v>
       </c>
-      <c r="E58" s="41">
+      <c r="E58" s="42">
         <v>3.57</v>
       </c>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41">
+      <c r="F58" s="42"/>
+      <c r="G58" s="42">
         <v>4</v>
       </c>
-      <c r="H58" s="41"/>
+      <c r="H58" s="42"/>
     </row>
     <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="42"/>
-      <c r="B59" s="41"/>
-      <c r="C59" s="41"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="41"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
     </row>
     <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="42">
+      <c r="A60" s="41">
         <v>30</v>
       </c>
-      <c r="B60" s="43">
+      <c r="B60" s="45">
         <v>43413</v>
       </c>
-      <c r="C60" s="41">
+      <c r="C60" s="42">
         <v>5.84</v>
       </c>
-      <c r="D60" s="47">
+      <c r="D60" s="53">
         <v>175.2</v>
       </c>
-      <c r="E60" s="47">
+      <c r="E60" s="53">
         <v>3.36</v>
       </c>
-      <c r="F60" s="47"/>
-      <c r="G60" s="47">
+      <c r="F60" s="53"/>
+      <c r="G60" s="53">
         <v>3</v>
       </c>
-      <c r="H60" s="41"/>
+      <c r="H60" s="42"/>
     </row>
     <row r="61" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="42"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="47"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="47"/>
-      <c r="H61" s="41"/>
+      <c r="A61" s="41"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="53"/>
+      <c r="G61" s="53"/>
+      <c r="H61" s="42"/>
     </row>
     <row r="62" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="42">
+      <c r="A62" s="41">
         <v>31</v>
       </c>
-      <c r="B62" s="43">
+      <c r="B62" s="45">
         <v>43419</v>
       </c>
-      <c r="C62" s="41">
+      <c r="C62" s="42">
         <v>5.48</v>
       </c>
-      <c r="D62" s="47">
+      <c r="D62" s="53">
         <v>164.4</v>
       </c>
-      <c r="E62" s="47">
+      <c r="E62" s="53">
         <v>3.15</v>
       </c>
-      <c r="F62" s="47"/>
-      <c r="G62" s="47">
+      <c r="F62" s="53"/>
+      <c r="G62" s="53">
         <v>3</v>
       </c>
-      <c r="H62" s="41"/>
+      <c r="H62" s="42"/>
     </row>
     <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="42"/>
-      <c r="B63" s="41"/>
-      <c r="C63" s="41"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="47"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="47"/>
-      <c r="H63" s="41"/>
+      <c r="A63" s="41"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="53"/>
+      <c r="G63" s="53"/>
+      <c r="H63" s="42"/>
     </row>
     <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="42">
+      <c r="A64" s="41">
         <v>32</v>
       </c>
-      <c r="B64" s="43">
+      <c r="B64" s="45">
         <v>43426</v>
       </c>
-      <c r="C64" s="41">
+      <c r="C64" s="42">
         <v>6.21</v>
       </c>
-      <c r="D64" s="41">
+      <c r="D64" s="42">
         <v>186.3</v>
       </c>
-      <c r="E64" s="41">
+      <c r="E64" s="42">
         <v>3.57</v>
       </c>
-      <c r="F64" s="41"/>
-      <c r="G64" s="41">
+      <c r="F64" s="42"/>
+      <c r="G64" s="42">
         <v>4</v>
       </c>
-      <c r="H64" s="41"/>
+      <c r="H64" s="42"/>
     </row>
     <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="42"/>
-      <c r="B65" s="41"/>
-      <c r="C65" s="41"/>
-      <c r="D65" s="41"/>
-      <c r="E65" s="41"/>
-      <c r="F65" s="41"/>
-      <c r="G65" s="41"/>
-      <c r="H65" s="41"/>
+      <c r="A65" s="41"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
     </row>
     <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="42">
+      <c r="A66" s="41">
         <v>33</v>
       </c>
-      <c r="B66" s="43">
+      <c r="B66" s="45">
         <v>43433</v>
       </c>
-      <c r="C66" s="41">
+      <c r="C66" s="42">
         <v>6.57</v>
       </c>
-      <c r="D66" s="41">
+      <c r="D66" s="42">
         <v>197.1</v>
       </c>
-      <c r="E66" s="41">
+      <c r="E66" s="42">
         <v>3.78</v>
       </c>
-      <c r="F66" s="41"/>
-      <c r="G66" s="41">
+      <c r="F66" s="42"/>
+      <c r="G66" s="42">
         <v>4</v>
       </c>
-      <c r="H66" s="41"/>
+      <c r="H66" s="42"/>
     </row>
     <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="42"/>
-      <c r="B67" s="41"/>
-      <c r="C67" s="41"/>
-      <c r="D67" s="41"/>
-      <c r="E67" s="41"/>
-      <c r="F67" s="41"/>
-      <c r="G67" s="41"/>
-      <c r="H67" s="41"/>
+      <c r="A67" s="41"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="42">
+      <c r="A68" s="41">
         <v>33</v>
       </c>
-      <c r="B68" s="43">
+      <c r="B68" s="45">
         <v>43440</v>
       </c>
-      <c r="C68" s="41">
+      <c r="C68" s="42">
         <v>5.48</v>
       </c>
-      <c r="D68" s="47">
+      <c r="D68" s="53">
         <v>164.4</v>
       </c>
-      <c r="E68" s="47">
+      <c r="E68" s="53">
         <v>3.15</v>
       </c>
-      <c r="F68" s="47"/>
-      <c r="G68" s="47">
+      <c r="F68" s="53"/>
+      <c r="G68" s="53">
         <v>3</v>
       </c>
-      <c r="H68" s="41"/>
+      <c r="H68" s="42"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="42"/>
-      <c r="B69" s="41"/>
-      <c r="C69" s="41"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="47"/>
-      <c r="F69" s="47"/>
-      <c r="G69" s="47"/>
-      <c r="H69" s="41"/>
+      <c r="A69" s="41"/>
+      <c r="B69" s="42"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="53"/>
+      <c r="G69" s="53"/>
+      <c r="H69" s="42"/>
     </row>
     <row r="70" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="42">
+      <c r="A70" s="41">
         <v>33</v>
       </c>
-      <c r="B70" s="43">
+      <c r="B70" s="45">
         <v>43447</v>
       </c>
-      <c r="C70" s="41">
+      <c r="C70" s="42">
         <v>6.57</v>
       </c>
-      <c r="D70" s="41">
+      <c r="D70" s="42">
         <v>197.1</v>
       </c>
-      <c r="E70" s="41">
+      <c r="E70" s="42">
         <v>3.78</v>
       </c>
-      <c r="F70" s="41"/>
-      <c r="G70" s="41">
+      <c r="F70" s="42"/>
+      <c r="G70" s="42">
         <v>4</v>
       </c>
-      <c r="H70" s="46" t="s">
+      <c r="H70" s="51" t="s">
         <v>17</v>
       </c>
       <c r="J70" s="4">
@@ -6374,113 +6378,257 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="42"/>
-      <c r="B71" s="41"/>
-      <c r="C71" s="41"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="41"/>
-      <c r="F71" s="41"/>
-      <c r="G71" s="41"/>
-      <c r="H71" s="46"/>
+      <c r="A71" s="41"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="51"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="42">
+      <c r="A72" s="41">
         <v>34</v>
       </c>
-      <c r="B72" s="43">
+      <c r="B72" s="45">
         <v>43454</v>
       </c>
-      <c r="C72" s="41">
+      <c r="C72" s="42">
         <v>6.21</v>
       </c>
-      <c r="D72" s="41">
+      <c r="D72" s="42">
         <v>186.3</v>
       </c>
-      <c r="E72" s="41">
+      <c r="E72" s="42">
         <v>3.57</v>
       </c>
-      <c r="F72" s="41"/>
-      <c r="G72" s="41">
+      <c r="F72" s="42"/>
+      <c r="G72" s="42">
         <v>4</v>
       </c>
-      <c r="H72" s="44"/>
+      <c r="H72" s="54"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="42"/>
-      <c r="B73" s="41"/>
-      <c r="C73" s="41"/>
-      <c r="D73" s="41"/>
-      <c r="E73" s="41"/>
-      <c r="F73" s="41"/>
-      <c r="G73" s="41"/>
-      <c r="H73" s="45"/>
+      <c r="A73" s="41"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="296">
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="L6:M7"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="L2:M3"/>
+    <mergeCell ref="J2:K3"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="J4:K5"/>
+    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="G16:G17"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="B14:B15"/>
@@ -6505,214 +6653,70 @@
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="J6:K7"/>
-    <mergeCell ref="L6:M7"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="L2:M3"/>
-    <mergeCell ref="J2:K3"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="J4:K5"/>
-    <mergeCell ref="L4:M5"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
